--- a/public/preprocessing/@bachtiarnasir.xlsx
+++ b/public/preprocessing/@bachtiarnasir.xlsx
@@ -475,34 +475,34 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10161</v>
+        <v>13206</v>
       </c>
       <c r="C2" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>live now mqu malam musahabah dan munajat quran tema akhiratlah yang terbaik</t>
+          <t>live now mqu malam musahabah dan munajat quran tema balasan nikmat tiada terhingga</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'tema', 'akhiratlah', 'yang', 'terbaik']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'tema', 'balasan', 'nikmat', 'tiada', 'terhingga']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'akhiratlah', 'terbaik']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'balasan', 'nikmat', 'tiada', 'terhingga']</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'akhirat', 'baik']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'balas', 'nikmat', 'tiada', 'hingga']</t>
         </is>
       </c>
     </row>
@@ -511,34 +511,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10162</v>
+        <v>13207</v>
       </c>
       <c r="C3" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>khatamqu qs an nisa ayat al maidah</t>
+          <t>khatamqu qs al maidah</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'an', 'nisa', 'ayat', 'al', 'maidah']</t>
+          <t>['khatamqu', 'qs', 'al', 'maidah']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'an', 'nisa', 'ayat', 'al', 'maidah']</t>
+          <t>['khatamqu', 'qs', 'al', 'maidah']</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'an', 'nisa', 'ayat', 'al', 'maidah']</t>
+          <t>['khatamqu', 'qs', 'al', 'maidah']</t>
         </is>
       </c>
     </row>
@@ -547,34 +547,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10163</v>
+        <v>13208</v>
       </c>
       <c r="C4" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>live now mqu malam musahabah dan munajat quran tema tuhanmu tidak meninggalkanmu amp membencimu bersama</t>
+          <t>live now mqu malam musahabah dan munajat quran tema akhiratlah yang terbaik</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'tema', 'tuhanmu', 'tidak', 'meninggalkanmu', 'amp', 'membencimu', 'bersama']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'tema', 'akhiratlah', 'yang', 'terbaik']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'tuhanmu', 'meninggalkanmu', 'membencimu']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'akhiratlah', 'terbaik']</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'tuhan', 'tinggal', 'benci']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'akhirat', 'baik']</t>
         </is>
       </c>
     </row>
@@ -583,34 +583,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10164</v>
+        <v>13209</v>
       </c>
       <c r="C5" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>khatamqu qs an nisa</t>
+          <t>khatamqu qs an nisa ayat al maidah</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'an', 'nisa']</t>
+          <t>['khatamqu', 'qs', 'an', 'nisa', 'ayat', 'al', 'maidah']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'an', 'nisa']</t>
+          <t>['khatamqu', 'qs', 'an', 'nisa', 'ayat', 'al', 'maidah']</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'an', 'nisa']</t>
+          <t>['khatamqu', 'qs', 'an', 'nisa', 'ayat', 'al', 'maidah']</t>
         </is>
       </c>
     </row>
@@ -619,19 +619,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10165</v>
+        <v>13210</v>
       </c>
       <c r="C6" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>live now tadabbur alquran tematik tema agama ibrahim beriman kepada semua nabi kitab tanpa membedakannya</t>
+          <t>live now mqu malam musahabah dan munajat quran tema tuhanmu tidak meninggalkanmu amp membencimu bersama</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['live', 'now', 'tadabbur', 'alquran', 'tematik', 'tema', 'agama', 'ibrahim', 'beriman', 'kepada', 'semua', 'nabi', 'kitab', 'tanpa', 'membedakannya']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'tema', 'tuhanmu', 'tidak', 'meninggalkanmu', 'amp', 'membencimu', 'bersama']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -641,12 +641,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['live', 'now', 'tadabbur', 'alquran', 'tematik', 'tema', 'agama', 'ibrahim', 'beriman', 'nabi', 'kitab', 'membedakannya']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'tuhanmu', 'meninggalkanmu', 'membencimu']</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['live', 'now', 'tadabbur', 'alquran', 'tematik', 'tema', 'agama', 'ibrahim', 'iman', 'nabi', 'kitab', 'beda']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'tuhan', 'tinggal', 'benci']</t>
         </is>
       </c>
     </row>
@@ -655,34 +655,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10166</v>
+        <v>13211</v>
       </c>
       <c r="C7" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>khatamqu qs an nisa ayat</t>
+          <t>khatamqu qs an nisa</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'an', 'nisa', 'ayat']</t>
+          <t>['khatamqu', 'qs', 'an', 'nisa']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'an', 'nisa', 'ayat']</t>
+          <t>['khatamqu', 'qs', 'an', 'nisa']</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'an', 'nisa', 'ayat']</t>
+          <t>['khatamqu', 'qs', 'an', 'nisa']</t>
         </is>
       </c>
     </row>
@@ -691,34 +691,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>10167</v>
+        <v>13212</v>
       </c>
       <c r="C8" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>khatamqu qs ali imran ayat an nisa ayat</t>
+          <t>live now tadabbur alquran tematik tema agama ibrahim beriman kepada semua nabi kitab tanpa membedakannya</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'ali', 'imran', 'ayat', 'an', 'nisa', 'ayat']</t>
+          <t>['live', 'now', 'tadabbur', 'alquran', 'tematik', 'tema', 'agama', 'ibrahim', 'beriman', 'kepada', 'semua', 'nabi', 'kitab', 'tanpa', 'membedakannya']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'ali', 'imran', 'ayat', 'an', 'nisa', 'ayat']</t>
+          <t>['live', 'now', 'tadabbur', 'alquran', 'tematik', 'tema', 'agama', 'ibrahim', 'beriman', 'nabi', 'kitab', 'membedakannya']</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'ali', 'imran', 'ayat', 'an', 'nisa', 'ayat']</t>
+          <t>['live', 'now', 'tadabbur', 'alquran', 'tematik', 'tema', 'agama', 'ibrahim', 'iman', 'nabi', 'kitab', 'beda']</t>
         </is>
       </c>
     </row>
@@ -727,34 +727,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>10168</v>
+        <v>13213</v>
       </c>
       <c r="C9" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>khatamqu qs ali imran ayat ali imran ayat</t>
+          <t>khatamqu qs an nisa ayat</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'ali', 'imran', 'ayat', 'ali', 'imran', 'ayat']</t>
+          <t>['khatamqu', 'qs', 'an', 'nisa', 'ayat']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 8 outcomes&gt;</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'ali', 'imran', 'ayat', 'ali', 'imran', 'ayat']</t>
+          <t>['khatamqu', 'qs', 'an', 'nisa', 'ayat']</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'ali', 'imran', 'ayat', 'ali', 'imran', 'ayat']</t>
+          <t>['khatamqu', 'qs', 'an', 'nisa', 'ayat']</t>
         </is>
       </c>
     </row>
@@ -763,34 +763,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>10169</v>
+        <v>13214</v>
       </c>
       <c r="C10" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>khatamqu qs ali imran ayat ali imran ayat</t>
+          <t>khatamqu qs ali imran ayat an nisa ayat</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'ali', 'imran', 'ayat', 'ali', 'imran', 'ayat']</t>
+          <t>['khatamqu', 'qs', 'ali', 'imran', 'ayat', 'an', 'nisa', 'ayat']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 8 outcomes&gt;</t>
+          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'ali', 'imran', 'ayat', 'ali', 'imran', 'ayat']</t>
+          <t>['khatamqu', 'qs', 'ali', 'imran', 'ayat', 'an', 'nisa', 'ayat']</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'ali', 'imran', 'ayat', 'ali', 'imran', 'ayat']</t>
+          <t>['khatamqu', 'qs', 'ali', 'imran', 'ayat', 'an', 'nisa', 'ayat']</t>
         </is>
       </c>
     </row>
@@ -799,34 +799,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>10170</v>
+        <v>13215</v>
       </c>
       <c r="C11" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>kajian mqu tadabbur qs addhuha ayat demi malam yang sunyi</t>
+          <t>khatamqu qs ali imran ayat ali imran ayat</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['kajian', 'mqu', 'tadabbur', 'qs', 'addhuha', 'ayat', 'demi', 'malam', 'yang', 'sunyi']</t>
+          <t>['khatamqu', 'qs', 'ali', 'imran', 'ayat', 'ali', 'imran', 'ayat']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>&lt;FreqDist with 5 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['kajian', 'mqu', 'tadabbur', 'qs', 'addhuha', 'ayat', 'malam', 'sunyi']</t>
+          <t>['khatamqu', 'qs', 'ali', 'imran', 'ayat', 'ali', 'imran', 'ayat']</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['kaji', 'mqu', 'tadabbur', 'qs', 'addhuha', 'ayat', 'malam', 'sunyi']</t>
+          <t>['khatamqu', 'qs', 'ali', 'imran', 'ayat', 'ali', 'imran', 'ayat']</t>
         </is>
       </c>
     </row>
@@ -835,34 +835,34 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>10171</v>
+        <v>13216</v>
       </c>
       <c r="C12" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>live now mqu malam musahabah dan munajat quran tema tadabbur qs addhuha ayat demi malam yang sunyi</t>
+          <t>khatamqu qs ali imran ayat ali imran ayat</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'tema', 'tadabbur', 'qs', 'addhuha', 'ayat', 'demi', 'malam', 'yang', 'sunyi']</t>
+          <t>['khatamqu', 'qs', 'ali', 'imran', 'ayat', 'ali', 'imran', 'ayat']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>&lt;FreqDist with 5 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'tadabbur', 'qs', 'addhuha', 'ayat', 'malam', 'sunyi']</t>
+          <t>['khatamqu', 'qs', 'ali', 'imran', 'ayat', 'ali', 'imran', 'ayat']</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'tadabbur', 'qs', 'addhuha', 'ayat', 'malam', 'sunyi']</t>
+          <t>['khatamqu', 'qs', 'ali', 'imran', 'ayat', 'ali', 'imran', 'ayat']</t>
         </is>
       </c>
     </row>
@@ -871,34 +871,34 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>10172</v>
+        <v>13217</v>
       </c>
       <c r="C13" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>khatamqu qs albaqarah ayat ali imran ayat</t>
+          <t>kajian mqu tadabbur qs addhuha ayat demi malam yang sunyi</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'albaqarah', 'ayat', 'ali', 'imran', 'ayat']</t>
+          <t>['kajian', 'mqu', 'tadabbur', 'qs', 'addhuha', 'ayat', 'demi', 'malam', 'yang', 'sunyi']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'albaqarah', 'ayat', 'ali', 'imran', 'ayat']</t>
+          <t>['kajian', 'mqu', 'tadabbur', 'qs', 'addhuha', 'ayat', 'malam', 'sunyi']</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'albaqarah', 'ayat', 'ali', 'imran', 'ayat']</t>
+          <t>['kaji', 'mqu', 'tadabbur', 'qs', 'addhuha', 'ayat', 'malam', 'sunyi']</t>
         </is>
       </c>
     </row>
@@ -907,34 +907,34 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>10173</v>
+        <v>13218</v>
       </c>
       <c r="C14" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>live now mqu malam musahabah dan munajat quran tema qs adhdhuha ayat bersama kh bachtiar nasir</t>
+          <t>live now mqu malam musahabah dan munajat quran tema tadabbur qs addhuha ayat demi malam yang sunyi</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'tema', 'qs', 'adhdhuha', 'ayat', 'bersama', 'kh', 'bachtiar', 'nasir']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'tema', 'tadabbur', 'qs', 'addhuha', 'ayat', 'demi', 'malam', 'yang', 'sunyi']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'qs', 'adhdhuha', 'ayat', 'kh', 'bachtiar', 'nasir']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'tadabbur', 'qs', 'addhuha', 'ayat', 'malam', 'sunyi']</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'qs', 'adhdhuha', 'ayat', 'kh', 'bachtiar', 'nasir']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'tadabbur', 'qs', 'addhuha', 'ayat', 'malam', 'sunyi']</t>
         </is>
       </c>
     </row>
@@ -943,34 +943,34 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>10174</v>
+        <v>13219</v>
       </c>
       <c r="C15" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>khatamqu qs albaqarah ayat</t>
+          <t>khatamqu qs albaqarah ayat ali imran ayat</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'albaqarah', 'ayat']</t>
+          <t>['khatamqu', 'qs', 'albaqarah', 'ayat', 'ali', 'imran', 'ayat']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'albaqarah', 'ayat']</t>
+          <t>['khatamqu', 'qs', 'albaqarah', 'ayat', 'ali', 'imran', 'ayat']</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'albaqarah', 'ayat']</t>
+          <t>['khatamqu', 'qs', 'albaqarah', 'ayat', 'ali', 'imran', 'ayat']</t>
         </is>
       </c>
     </row>
@@ -979,34 +979,34 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>10175</v>
+        <v>13220</v>
       </c>
       <c r="C16" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>yang paling jelas dan terang adalah allah azza wa jalla</t>
+          <t>live now mqu malam musahabah dan munajat quran tema qs adhdhuha ayat bersama kh bachtiar nasir</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['yang', 'paling', 'jelas', 'dan', 'terang', 'adalah', 'allah', 'azza', 'wa', 'jalla']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'tema', 'qs', 'adhdhuha', 'ayat', 'bersama', 'kh', 'bachtiar', 'nasir']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['terang', 'allah', 'azza', 'wa', 'jalla']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'qs', 'adhdhuha', 'ayat', 'kh', 'bachtiar', 'nasir']</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['terang', 'allah', 'azza', 'wa', 'jalla']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'qs', 'adhdhuha', 'ayat', 'kh', 'bachtiar', 'nasir']</t>
         </is>
       </c>
     </row>
@@ -1015,34 +1015,34 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>10176</v>
+        <v>13221</v>
       </c>
       <c r="C17" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>pekerjaan iblis adalah terus berusaha menjadikan yang jelas amp terangbenderang menjadi samar amp remangremang</t>
+          <t>khatamqu qs albaqarah ayat</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['pekerjaan', 'iblis', 'adalah', 'terus', 'berusaha', 'menjadikan', 'yang', 'jelas', 'amp', 'terangbenderang', 'menjadi', 'samar', 'amp', 'remangremang']</t>
+          <t>['khatamqu', 'qs', 'albaqarah', 'ayat']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['pekerjaan', 'iblis', 'berusaha', 'menjadikan', 'terangbenderang', 'samar', 'remangremang']</t>
+          <t>['khatamqu', 'qs', 'albaqarah', 'ayat']</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['kerja', 'iblis', 'usaha', 'jadi', 'terangbenderang', 'samar', 'remangremang']</t>
+          <t>['khatamqu', 'qs', 'albaqarah', 'ayat']</t>
         </is>
       </c>
     </row>
@@ -1051,34 +1051,34 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>10177</v>
+        <v>13222</v>
       </c>
       <c r="C18" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>live now mqu malam muhasabah munajat alquran tema tadabbur qs al insyirah ayat kepada rabbmu saja</t>
+          <t>yang paling jelas dan terang adalah allah azza wa jalla</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'muhasabah', 'munajat', 'alquran', 'tema', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'kepada', 'rabbmu', 'saja']</t>
+          <t>['yang', 'paling', 'jelas', 'dan', 'terang', 'adalah', 'allah', 'azza', 'wa', 'jalla']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'muhasabah', 'munajat', 'alquran', 'tema', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'rabbmu']</t>
+          <t>['terang', 'allah', 'azza', 'wa', 'jalla']</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'muhasabah', 'munajat', 'alquran', 'tema', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'rabbmu']</t>
+          <t>['terang', 'allah', 'azza', 'wa', 'jalla']</t>
         </is>
       </c>
     </row>
@@ -1087,34 +1087,34 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>10178</v>
+        <v>13223</v>
       </c>
       <c r="C19" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>kajian mqu tadabbur qs al insyirah ayat kepada rabbmu saja berharap</t>
+          <t>pekerjaan iblis adalah terus berusaha menjadikan yang jelas amp terangbenderang menjadi samar amp remangremang</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['kajian', 'mqu', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'kepada', 'rabbmu', 'saja', 'berharap']</t>
+          <t>['pekerjaan', 'iblis', 'adalah', 'terus', 'berusaha', 'menjadikan', 'yang', 'jelas', 'amp', 'terangbenderang', 'menjadi', 'samar', 'amp', 'remangremang']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['kajian', 'mqu', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'rabbmu', 'berharap']</t>
+          <t>['pekerjaan', 'iblis', 'berusaha', 'menjadikan', 'terangbenderang', 'samar', 'remangremang']</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['kaji', 'mqu', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'rabbmu', 'harap']</t>
+          <t>['kerja', 'iblis', 'usaha', 'jadi', 'terangbenderang', 'samar', 'remangremang']</t>
         </is>
       </c>
     </row>
@@ -1123,34 +1123,34 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>10179</v>
+        <v>13224</v>
       </c>
       <c r="C20" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>khatamqu qs al baqarah ayat</t>
+          <t>live now mqu malam muhasabah munajat alquran tema tadabbur qs al insyirah ayat kepada rabbmu saja</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'al', 'baqarah', 'ayat']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'muhasabah', 'munajat', 'alquran', 'tema', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'kepada', 'rabbmu', 'saja']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'al', 'baqarah', 'ayat']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'muhasabah', 'munajat', 'alquran', 'tema', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'rabbmu']</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'al', 'baqarah', 'ayat']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'muhasabah', 'munajat', 'alquran', 'tema', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'rabbmu']</t>
         </is>
       </c>
     </row>
@@ -1159,34 +1159,34 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>10180</v>
+        <v>13225</v>
       </c>
       <c r="C21" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>live now tadabbur alquran tematik tema perintah allah kepada nabi ibrahim untuk membangun kabah bersama</t>
+          <t>kajian mqu tadabbur qs al insyirah ayat kepada rabbmu saja berharap</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['live', 'now', 'tadabbur', 'alquran', 'tematik', 'tema', 'perintah', 'allah', 'kepada', 'nabi', 'ibrahim', 'untuk', 'membangun', 'kabah', 'bersama']</t>
+          <t>['kajian', 'mqu', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'kepada', 'rabbmu', 'saja', 'berharap']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['live', 'now', 'tadabbur', 'alquran', 'tematik', 'tema', 'perintah', 'allah', 'nabi', 'ibrahim', 'membangun', 'kabah']</t>
+          <t>['kajian', 'mqu', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'rabbmu', 'berharap']</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['live', 'now', 'tadabbur', 'alquran', 'tematik', 'tema', 'perintah', 'allah', 'nabi', 'ibrahim', 'bangun', 'kabah']</t>
+          <t>['kaji', 'mqu', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'rabbmu', 'harap']</t>
         </is>
       </c>
     </row>
@@ -1195,34 +1195,34 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>10181</v>
+        <v>13226</v>
       </c>
       <c r="C22" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>khatamqu qs albaqarah ayat</t>
+          <t>khatamqu qs al baqarah ayat</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'albaqarah', 'ayat']</t>
+          <t>['khatamqu', 'qs', 'al', 'baqarah', 'ayat']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'albaqarah', 'ayat']</t>
+          <t>['khatamqu', 'qs', 'al', 'baqarah', 'ayat']</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'albaqarah', 'ayat']</t>
+          <t>['khatamqu', 'qs', 'al', 'baqarah', 'ayat']</t>
         </is>
       </c>
     </row>
@@ -1231,34 +1231,34 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>10182</v>
+        <v>13227</v>
       </c>
       <c r="C23" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>live now tadabbur mukjizat alquran tema mukjizat sifatsifat al quran at tibyan bersama kh bachtia</t>
+          <t>live now tadabbur alquran tematik tema perintah allah kepada nabi ibrahim untuk membangun kabah bersama</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'al', 'quran', 'at', 'tibyan', 'bersama', 'kh', 'bachtia']</t>
+          <t>['live', 'now', 'tadabbur', 'alquran', 'tematik', 'tema', 'perintah', 'allah', 'kepada', 'nabi', 'ibrahim', 'untuk', 'membangun', 'kabah', 'bersama']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'al', 'quran', 'at', 'tibyan', 'kh', 'bachtia']</t>
+          <t>['live', 'now', 'tadabbur', 'alquran', 'tematik', 'tema', 'perintah', 'allah', 'nabi', 'ibrahim', 'membangun', 'kabah']</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'al', 'quran', 'at', 'tibyan', 'kh', 'bachtia']</t>
+          <t>['live', 'now', 'tadabbur', 'alquran', 'tematik', 'tema', 'perintah', 'allah', 'nabi', 'ibrahim', 'bangun', 'kabah']</t>
         </is>
       </c>
     </row>
@@ -1267,30 +1267,34 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>10183</v>
+        <v>13228</v>
       </c>
       <c r="C24" t="n">
-        <v>140</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
+        <v>172</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>khatamqu qs albaqarah ayat</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['khatamqu', 'qs', 'albaqarah', 'ayat']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['khatamqu', 'qs', 'albaqarah', 'ayat']</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['khatamqu', 'qs', 'albaqarah', 'ayat']</t>
         </is>
       </c>
     </row>
@@ -1299,34 +1303,34 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>10184</v>
+        <v>13229</v>
       </c>
       <c r="C25" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">live now tadabbur mukjizat alquran tema mukjizat sifatsifat alquran as siraj bersama kh bachtiar </t>
+          <t>live now tadabbur mukjizat alquran tema mukjizat sifatsifat al quran at tibyan bersama kh bachtia</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'alquran', 'as', 'siraj', 'bersama', 'kh', 'bachtiar']</t>
+          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'al', 'quran', 'at', 'tibyan', 'bersama', 'kh', 'bachtia']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'alquran', 'as', 'siraj', 'kh', 'bachtiar']</t>
+          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'al', 'quran', 'at', 'tibyan', 'kh', 'bachtia']</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'alquran', 'as', 'siraj', 'kh', 'bachtiar']</t>
+          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'al', 'quran', 'at', 'tibyan', 'kh', 'bachtia']</t>
         </is>
       </c>
     </row>
@@ -1335,34 +1339,30 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>10185</v>
+        <v>13230</v>
       </c>
       <c r="C26" t="n">
-        <v>140</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>jangan bermaksiat di bulan rajab memasuki bulan yang dimuliakan allah taala asyhurul hurum yaitu dzulqodah</t>
-        </is>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['jangan', 'bermaksiat', 'di', 'bulan', 'rajab', 'memasuki', 'bulan', 'yang', 'dimuliakan', 'allah', 'taala', 'asyhurul', 'hurum', 'yaitu', 'dzulqodah']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['bermaksiat', 'rajab', 'memasuki', 'dimuliakan', 'allah', 'taala', 'asyhurul', 'hurum', 'dzulqodah']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['maksiat', 'rajab', 'pasuk', 'mulia', 'allah', 'taala', 'asyhurul', 'hurum', 'dzulqodah']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1371,34 +1371,34 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>10186</v>
+        <v>13231</v>
       </c>
       <c r="C27" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>khatamqu live stream via</t>
+          <t xml:space="preserve">live now tadabbur mukjizat alquran tema mukjizat sifatsifat alquran as siraj bersama kh bachtiar </t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['khatamqu', 'live', 'stream', 'via']</t>
+          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'alquran', 'as', 'siraj', 'bersama', 'kh', 'bachtiar']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['khatamqu', 'live', 'stream', 'via']</t>
+          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'alquran', 'as', 'siraj', 'kh', 'bachtiar']</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['khatamqu', 'live', 'stream', 'via']</t>
+          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'alquran', 'as', 'siraj', 'kh', 'bachtiar']</t>
         </is>
       </c>
     </row>
@@ -1407,34 +1407,34 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>10187</v>
+        <v>13232</v>
       </c>
       <c r="C28" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>penyebab orang tidak merasa bahagia adanya kekerasan dalam hati bekunya air mata karna tak pernah menangis</t>
+          <t>jangan bermaksiat di bulan rajab memasuki bulan yang dimuliakan allah taala asyhurul hurum yaitu dzulqodah</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['penyebab', 'orang', 'tidak', 'merasa', 'bahagia', 'adanya', 'kekerasan', 'dalam', 'hati', 'bekunya', 'air', 'mata', 'karna', 'tak', 'pernah', 'menangis']</t>
+          <t>['jangan', 'bermaksiat', 'di', 'bulan', 'rajab', 'memasuki', 'bulan', 'yang', 'dimuliakan', 'allah', 'taala', 'asyhurul', 'hurum', 'yaitu', 'dzulqodah']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['penyebab', 'orang', 'bahagia', 'kekerasan', 'hati', 'bekunya', 'air', 'mata', 'karna', 'menangis']</t>
+          <t>['bermaksiat', 'rajab', 'memasuki', 'dimuliakan', 'allah', 'taala', 'asyhurul', 'hurum', 'dzulqodah']</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['sebab', 'orang', 'bahagia', 'keras', 'hati', 'beku', 'air', 'mata', 'karna', 'menang']</t>
+          <t>['maksiat', 'rajab', 'pasuk', 'mulia', 'allah', 'taala', 'asyhurul', 'hurum', 'dzulqodah']</t>
         </is>
       </c>
     </row>
@@ -1443,34 +1443,34 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>10188</v>
+        <v>13233</v>
       </c>
       <c r="C29" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>launching  ramadhan  tema membangun masyarakat qurani membentuk pribadi pelaku quran kamis</t>
+          <t>khatamqu live stream via</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['launching', 'ramadhan', 'tema', 'membangun', 'masyarakat', 'qurani', 'membentuk', 'pribadi', 'pelaku', 'quran', 'kamis']</t>
+          <t>['khatamqu', 'live', 'stream', 'via']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['launching', 'ramadhan', 'tema', 'membangun', 'masyarakat', 'qurani', 'membentuk', 'pribadi', 'pelaku', 'quran', 'kamis']</t>
+          <t>['khatamqu', 'live', 'stream', 'via']</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['launching', 'ramadhan', 'tema', 'bangun', 'masyarakat', 'quran', 'bentuk', 'pribadi', 'laku', 'quran', 'kamis']</t>
+          <t>['khatamqu', 'live', 'stream', 'via']</t>
         </is>
       </c>
     </row>
@@ -1479,34 +1479,34 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>10189</v>
+        <v>13234</v>
       </c>
       <c r="C30" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">dkm aql islamic center mengajak kita mulai bersiap menyambut ramadhan salah satunya dengan menyibukkan diri </t>
+          <t>penyebab orang tidak merasa bahagia adanya kekerasan dalam hati bekunya air mata karna tak pernah menangis</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['dkm', 'aql', 'islamic', 'center', 'mengajak', 'kita', 'mulai', 'bersiap', 'menyambut', 'ramadhan', 'salah', 'satunya', 'dengan', 'menyibukkan', 'diri']</t>
+          <t>['penyebab', 'orang', 'tidak', 'merasa', 'bahagia', 'adanya', 'kekerasan', 'dalam', 'hati', 'bekunya', 'air', 'mata', 'karna', 'tak', 'pernah', 'menangis']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['dkm', 'aql', 'islamic', 'center', 'mengajak', 'menyambut', 'ramadhan', 'salah', 'satunya', 'menyibukkan']</t>
+          <t>['penyebab', 'orang', 'bahagia', 'kekerasan', 'hati', 'bekunya', 'air', 'mata', 'karna', 'menangis']</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['dkm', 'aql', 'islamic', 'center', 'ajak', 'sambut', 'ramadhan', 'salah', 'satu', 'sibuk']</t>
+          <t>['sebab', 'orang', 'bahagia', 'keras', 'hati', 'beku', 'air', 'mata', 'karna', 'menang']</t>
         </is>
       </c>
     </row>
@@ -1515,34 +1515,34 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>10190</v>
+        <v>13235</v>
       </c>
       <c r="C31" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>mqu malam muhasabah munajat alquran tema tadabbur qs alinyirah ayat bersama kh bachtiar nasir</t>
+          <t>launching  ramadhan  tema membangun masyarakat qurani membentuk pribadi pelaku quran kamis</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['mqu', 'malam', 'muhasabah', 'munajat', 'alquran', 'tema', 'tadabbur', 'qs', 'alinyirah', 'ayat', 'bersama', 'kh', 'bachtiar', 'nasir']</t>
+          <t>['launching', 'ramadhan', 'tema', 'membangun', 'masyarakat', 'qurani', 'membentuk', 'pribadi', 'pelaku', 'quran', 'kamis']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['mqu', 'malam', 'muhasabah', 'munajat', 'alquran', 'tema', 'tadabbur', 'qs', 'alinyirah', 'ayat', 'kh', 'bachtiar', 'nasir']</t>
+          <t>['launching', 'ramadhan', 'tema', 'membangun', 'masyarakat', 'qurani', 'membentuk', 'pribadi', 'pelaku', 'quran', 'kamis']</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['mqu', 'malam', 'muhasabah', 'munajat', 'alquran', 'tema', 'tadabbur', 'qs', 'alinyirah', 'ayat', 'kh', 'bachtiar', 'nasir']</t>
+          <t>['launching', 'ramadhan', 'tema', 'bangun', 'masyarakat', 'quran', 'bentuk', 'pribadi', 'laku', 'quran', 'kamis']</t>
         </is>
       </c>
     </row>
@@ -1551,34 +1551,34 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>10191</v>
+        <v>13236</v>
       </c>
       <c r="C32" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>siapa saja yang menarasikan medsosnya ataupun ucapannya dengan narasi yang bersumber dari alquran pasti nara</t>
+          <t xml:space="preserve">dkm aql islamic center mengajak kita mulai bersiap menyambut ramadhan salah satunya dengan menyibukkan diri </t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['siapa', 'saja', 'yang', 'menarasikan', 'medsosnya', 'ataupun', 'ucapannya', 'dengan', 'narasi', 'yang', 'bersumber', 'dari', 'alquran', 'pasti', 'nara']</t>
+          <t>['dkm', 'aql', 'islamic', 'center', 'mengajak', 'kita', 'mulai', 'bersiap', 'menyambut', 'ramadhan', 'salah', 'satunya', 'dengan', 'menyibukkan', 'diri']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['menarasikan', 'medsosnya', 'ucapannya', 'narasi', 'bersumber', 'alquran', 'nara']</t>
+          <t>['dkm', 'aql', 'islamic', 'center', 'mengajak', 'menyambut', 'ramadhan', 'salah', 'satunya', 'menyibukkan']</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['narasi', 'medsosnya', 'ucap', 'narasi', 'sumber', 'alquran', 'nara']</t>
+          <t>['dkm', 'aql', 'islamic', 'center', 'ajak', 'sambut', 'ramadhan', 'salah', 'satu', 'sibuk']</t>
         </is>
       </c>
     </row>
@@ -1587,19 +1587,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>10192</v>
+        <v>13237</v>
       </c>
       <c r="C33" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>faktanya di dalam alquran bahwa kesulitan itu merupakan bentuk lain dari kemudahan qs alinsyirah</t>
+          <t>mqu malam muhasabah munajat alquran tema tadabbur qs alinyirah ayat bersama kh bachtiar nasir</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['faktanya', 'di', 'dalam', 'alquran', 'bahwa', 'kesulitan', 'itu', 'merupakan', 'bentuk', 'lain', 'dari', 'kemudahan', 'qs', 'alinsyirah']</t>
+          <t>['mqu', 'malam', 'muhasabah', 'munajat', 'alquran', 'tema', 'tadabbur', 'qs', 'alinyirah', 'ayat', 'bersama', 'kh', 'bachtiar', 'nasir']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1609,12 +1609,12 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['faktanya', 'alquran', 'kesulitan', 'bentuk', 'kemudahan', 'qs', 'alinsyirah']</t>
+          <t>['mqu', 'malam', 'muhasabah', 'munajat', 'alquran', 'tema', 'tadabbur', 'qs', 'alinyirah', 'ayat', 'kh', 'bachtiar', 'nasir']</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['fakta', 'alquran', 'sulit', 'bentuk', 'mudah', 'qs', 'alinsyirah']</t>
+          <t>['mqu', 'malam', 'muhasabah', 'munajat', 'alquran', 'tema', 'tadabbur', 'qs', 'alinyirah', 'ayat', 'kh', 'bachtiar', 'nasir']</t>
         </is>
       </c>
     </row>
@@ -1623,34 +1623,34 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>10193</v>
+        <v>13238</v>
       </c>
       <c r="C34" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>live now mqu malam muhasabah munajat alquran tema dibalik kesulitan ada kemudahan tadabbur qs al</t>
+          <t>siapa saja yang menarasikan medsosnya ataupun ucapannya dengan narasi yang bersumber dari alquran pasti nara</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'muhasabah', 'munajat', 'alquran', 'tema', 'dibalik', 'kesulitan', 'ada', 'kemudahan', 'tadabbur', 'qs', 'al']</t>
+          <t>['siapa', 'saja', 'yang', 'menarasikan', 'medsosnya', 'ataupun', 'ucapannya', 'dengan', 'narasi', 'yang', 'bersumber', 'dari', 'alquran', 'pasti', 'nara']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'muhasabah', 'munajat', 'alquran', 'tema', 'dibalik', 'kesulitan', 'kemudahan', 'tadabbur', 'qs', 'al']</t>
+          <t>['menarasikan', 'medsosnya', 'ucapannya', 'narasi', 'bersumber', 'alquran', 'nara']</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'muhasabah', 'munajat', 'alquran', 'tema', 'balik', 'sulit', 'mudah', 'tadabbur', 'qs', 'al']</t>
+          <t>['narasi', 'medsosnya', 'ucap', 'narasi', 'sumber', 'alquran', 'nara']</t>
         </is>
       </c>
     </row>
@@ -1659,34 +1659,34 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>10194</v>
+        <v>13239</v>
       </c>
       <c r="C35" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>kenapa alquran belum begitu terang bagi kita hal itu karena kita belum mengenal alquran sebagai alhaq</t>
+          <t>faktanya di dalam alquran bahwa kesulitan itu merupakan bentuk lain dari kemudahan qs alinsyirah</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['kenapa', 'alquran', 'belum', 'begitu', 'terang', 'bagi', 'kita', 'hal', 'itu', 'karena', 'kita', 'belum', 'mengenal', 'alquran', 'sebagai', 'alhaq']</t>
+          <t>['faktanya', 'di', 'dalam', 'alquran', 'bahwa', 'kesulitan', 'itu', 'merupakan', 'bentuk', 'lain', 'dari', 'kemudahan', 'qs', 'alinsyirah']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['alquran', 'terang', 'mengenal', 'alquran', 'alhaq']</t>
+          <t>['faktanya', 'alquran', 'kesulitan', 'bentuk', 'kemudahan', 'qs', 'alinsyirah']</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['alquran', 'terang', 'kenal', 'alquran', 'alhaq']</t>
+          <t>['fakta', 'alquran', 'sulit', 'bentuk', 'mudah', 'qs', 'alinsyirah']</t>
         </is>
       </c>
     </row>
@@ -1695,34 +1695,34 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>10195</v>
+        <v>13240</v>
       </c>
       <c r="C36" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>alhaq itu adalah kebenaran yang pasti dan tidak dicampuri sedikitpun oleh keraguan kalau ada sedikit saja keragua</t>
+          <t>live now mqu malam muhasabah munajat alquran tema dibalik kesulitan ada kemudahan tadabbur qs al</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['alhaq', 'itu', 'adalah', 'kebenaran', 'yang', 'pasti', 'dan', 'tidak', 'dicampuri', 'sedikitpun', 'oleh', 'keraguan', 'kalau', 'ada', 'sedikit', 'saja', 'keragua']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'muhasabah', 'munajat', 'alquran', 'tema', 'dibalik', 'kesulitan', 'ada', 'kemudahan', 'tadabbur', 'qs', 'al']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['alhaq', 'kebenaran', 'dicampuri', 'sedikitpun', 'keraguan', 'keragua']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'muhasabah', 'munajat', 'alquran', 'tema', 'dibalik', 'kesulitan', 'kemudahan', 'tadabbur', 'qs', 'al']</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['alhaq', 'benar', 'campur', 'sedikit', 'ragu', 'keragua']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'muhasabah', 'munajat', 'alquran', 'tema', 'balik', 'sulit', 'mudah', 'tadabbur', 'qs', 'al']</t>
         </is>
       </c>
     </row>
@@ -1731,34 +1731,34 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>10196</v>
+        <v>13241</v>
       </c>
       <c r="C37" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>live now mqu malam muhasabah munajat alquran tema dibalik kesulitan ada kemudahan tadabbur qs al</t>
+          <t>kenapa alquran belum begitu terang bagi kita hal itu karena kita belum mengenal alquran sebagai alhaq</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'muhasabah', 'munajat', 'alquran', 'tema', 'dibalik', 'kesulitan', 'ada', 'kemudahan', 'tadabbur', 'qs', 'al']</t>
+          <t>['kenapa', 'alquran', 'belum', 'begitu', 'terang', 'bagi', 'kita', 'hal', 'itu', 'karena', 'kita', 'belum', 'mengenal', 'alquran', 'sebagai', 'alhaq']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'muhasabah', 'munajat', 'alquran', 'tema', 'dibalik', 'kesulitan', 'kemudahan', 'tadabbur', 'qs', 'al']</t>
+          <t>['alquran', 'terang', 'mengenal', 'alquran', 'alhaq']</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'muhasabah', 'munajat', 'alquran', 'tema', 'balik', 'sulit', 'mudah', 'tadabbur', 'qs', 'al']</t>
+          <t>['alquran', 'terang', 'kenal', 'alquran', 'alhaq']</t>
         </is>
       </c>
     </row>
@@ -1767,34 +1767,34 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>10197</v>
+        <v>13242</v>
       </c>
       <c r="C38" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>jadikan rumah kita menjadi tempat pengabdian kepada allah swt</t>
+          <t>alhaq itu adalah kebenaran yang pasti dan tidak dicampuri sedikitpun oleh keraguan kalau ada sedikit saja keragua</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['jadikan', 'rumah', 'kita', 'menjadi', 'tempat', 'pengabdian', 'kepada', 'allah', 'swt']</t>
+          <t>['alhaq', 'itu', 'adalah', 'kebenaran', 'yang', 'pasti', 'dan', 'tidak', 'dicampuri', 'sedikitpun', 'oleh', 'keraguan', 'kalau', 'ada', 'sedikit', 'saja', 'keragua']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['jadikan', 'rumah', 'pengabdian', 'allah', 'swt']</t>
+          <t>['alhaq', 'kebenaran', 'dicampuri', 'sedikitpun', 'keraguan', 'keragua']</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['jadi', 'rumah', 'abdi', 'allah', 'swt']</t>
+          <t>['alhaq', 'benar', 'campur', 'sedikit', 'ragu', 'keragua']</t>
         </is>
       </c>
     </row>
@@ -1803,34 +1803,34 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>10198</v>
+        <v>13243</v>
       </c>
       <c r="C39" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">live now tadabbur alquran tematik tema keistimewaan nabi ibrahim as bersama kh bachtiar nasir kh </t>
+          <t>live now mqu malam muhasabah munajat alquran tema dibalik kesulitan ada kemudahan tadabbur qs al</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['live', 'now', 'tadabbur', 'alquran', 'tematik', 'tema', 'keistimewaan', 'nabi', 'ibrahim', 'as', 'bersama', 'kh', 'bachtiar', 'nasir', 'kh']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'muhasabah', 'munajat', 'alquran', 'tema', 'dibalik', 'kesulitan', 'ada', 'kemudahan', 'tadabbur', 'qs', 'al']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['live', 'now', 'tadabbur', 'alquran', 'tematik', 'tema', 'keistimewaan', 'nabi', 'ibrahim', 'as', 'kh', 'bachtiar', 'nasir', 'kh']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'muhasabah', 'munajat', 'alquran', 'tema', 'dibalik', 'kesulitan', 'kemudahan', 'tadabbur', 'qs', 'al']</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['live', 'now', 'tadabbur', 'alquran', 'tematik', 'tema', 'istimewa', 'nabi', 'ibrahim', 'as', 'kh', 'bachtiar', 'nasir', 'kh']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'muhasabah', 'munajat', 'alquran', 'tema', 'balik', 'sulit', 'mudah', 'tadabbur', 'qs', 'al']</t>
         </is>
       </c>
     </row>
@@ -1839,34 +1839,34 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>10199</v>
+        <v>13244</v>
       </c>
       <c r="C40" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">live now tadabbur mukjizat alquran tema mukjizat sifatsifat alquran adzdzikr bersama kh bachtiar </t>
+          <t>jadikan rumah kita menjadi tempat pengabdian kepada allah swt</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'alquran', 'adzdzikr', 'bersama', 'kh', 'bachtiar']</t>
+          <t>['jadikan', 'rumah', 'kita', 'menjadi', 'tempat', 'pengabdian', 'kepada', 'allah', 'swt']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 13 outcomes&gt;</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'alquran', 'adzdzikr', 'kh', 'bachtiar']</t>
+          <t>['jadikan', 'rumah', 'pengabdian', 'allah', 'swt']</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'alquran', 'adzdzikr', 'kh', 'bachtiar']</t>
+          <t>['jadi', 'rumah', 'abdi', 'allah', 'swt']</t>
         </is>
       </c>
     </row>
@@ -1875,34 +1875,34 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>10200</v>
+        <v>13245</v>
       </c>
       <c r="C41" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>jejak sejarah mataram islam di jogjakarta</t>
+          <t xml:space="preserve">live now tadabbur alquran tematik tema keistimewaan nabi ibrahim as bersama kh bachtiar nasir kh </t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['jejak', 'sejarah', 'mataram', 'islam', 'di', 'jogjakarta']</t>
+          <t>['live', 'now', 'tadabbur', 'alquran', 'tematik', 'tema', 'keistimewaan', 'nabi', 'ibrahim', 'as', 'bersama', 'kh', 'bachtiar', 'nasir', 'kh']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['jejak', 'sejarah', 'mataram', 'islam', 'jogjakarta']</t>
+          <t>['live', 'now', 'tadabbur', 'alquran', 'tematik', 'tema', 'keistimewaan', 'nabi', 'ibrahim', 'as', 'kh', 'bachtiar', 'nasir', 'kh']</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['jejak', 'sejarah', 'mataram', 'islam', 'jogjakarta']</t>
+          <t>['live', 'now', 'tadabbur', 'alquran', 'tematik', 'tema', 'istimewa', 'nabi', 'ibrahim', 'as', 'kh', 'bachtiar', 'nasir', 'kh']</t>
         </is>
       </c>
     </row>
@@ -1911,34 +1911,34 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>10201</v>
+        <v>13246</v>
       </c>
       <c r="C42" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>sampai kapan kita harus bersabar sampai kedua kaki kita menapak di surga karena bersabar itu berarti menahan diri</t>
+          <t xml:space="preserve">live now tadabbur mukjizat alquran tema mukjizat sifatsifat alquran adzdzikr bersama kh bachtiar </t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['sampai', 'kapan', 'kita', 'harus', 'bersabar', 'sampai', 'kedua', 'kaki', 'kita', 'menapak', 'di', 'surga', 'karena', 'bersabar', 'itu', 'berarti', 'menahan', 'diri']</t>
+          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'alquran', 'adzdzikr', 'bersama', 'kh', 'bachtiar']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 18 outcomes&gt;</t>
+          <t>&lt;FreqDist with 11 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['bersabar', 'kaki', 'menapak', 'surga', 'bersabar', 'menahan']</t>
+          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'alquran', 'adzdzikr', 'kh', 'bachtiar']</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['sabar', 'kaki', 'tapak', 'surga', 'sabar', 'tahan']</t>
+          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'alquran', 'adzdzikr', 'kh', 'bachtiar']</t>
         </is>
       </c>
     </row>
@@ -1947,34 +1947,34 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>10202</v>
+        <v>13247</v>
       </c>
       <c r="C43" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>merampas keadilan membuatmu menjadi orang zhalim dan orang zalim akan berhadapan lansung dengan allah yang maha kua</t>
+          <t>jejak sejarah mataram islam di jogjakarta</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['merampas', 'keadilan', 'membuatmu', 'menjadi', 'orang', 'zhalim', 'dan', 'orang', 'zalim', 'akan', 'berhadapan', 'lansung', 'dengan', 'allah', 'yang', 'maha', 'kua']</t>
+          <t>['jejak', 'sejarah', 'mataram', 'islam', 'di', 'jogjakarta']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['merampas', 'keadilan', 'membuatmu', 'orang', 'zhalim', 'orang', 'zalim', 'berhadapan', 'lansung', 'allah', 'maha', 'kua']</t>
+          <t>['jejak', 'sejarah', 'mataram', 'islam', 'jogjakarta']</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['rampas', 'adil', 'buat', 'orang', 'zhalim', 'orang', 'zalim', 'hadap', 'lansung', 'allah', 'maha', 'kua']</t>
+          <t>['jejak', 'sejarah', 'mataram', 'islam', 'jogjakarta']</t>
         </is>
       </c>
     </row>
@@ -1983,34 +1983,34 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>10203</v>
+        <v>13248</v>
       </c>
       <c r="C44" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>pedang keadilan allah pasti akan memenggal leher kezhaliman itu pasti tetapi kapan dimana dan bagaimana berapa</t>
+          <t>sampai kapan kita harus bersabar sampai kedua kaki kita menapak di surga karena bersabar itu berarti menahan diri</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['pedang', 'keadilan', 'allah', 'pasti', 'akan', 'memenggal', 'leher', 'kezhaliman', 'itu', 'pasti', 'tetapi', 'kapan', 'dimana', 'dan', 'bagaimana', 'berapa']</t>
+          <t>['sampai', 'kapan', 'kita', 'harus', 'bersabar', 'sampai', 'kedua', 'kaki', 'kita', 'menapak', 'di', 'surga', 'karena', 'bersabar', 'itu', 'berarti', 'menahan', 'diri']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>&lt;FreqDist with 15 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['pedang', 'keadilan', 'allah', 'memenggal', 'leher', 'kezhaliman', 'dimana']</t>
+          <t>['bersabar', 'kaki', 'menapak', 'surga', 'bersabar', 'menahan']</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['pedang', 'adil', 'allah', 'penggal', 'leher', 'kezhaliman', 'mana']</t>
+          <t>['sabar', 'kaki', 'tapak', 'surga', 'sabar', 'tahan']</t>
         </is>
       </c>
     </row>
@@ -2019,34 +2019,34 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>10204</v>
+        <v>13249</v>
       </c>
       <c r="C45" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>yuk tadabbur malam ini live now</t>
+          <t>merampas keadilan membuatmu menjadi orang zhalim dan orang zalim akan berhadapan lansung dengan allah yang maha kua</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['yuk', 'tadabbur', 'malam', 'ini', 'live', 'now']</t>
+          <t>['merampas', 'keadilan', 'membuatmu', 'menjadi', 'orang', 'zhalim', 'dan', 'orang', 'zalim', 'akan', 'berhadapan', 'lansung', 'dengan', 'allah', 'yang', 'maha', 'kua']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['yuk', 'tadabbur', 'malam', 'live', 'now']</t>
+          <t>['merampas', 'keadilan', 'membuatmu', 'orang', 'zhalim', 'orang', 'zalim', 'berhadapan', 'lansung', 'allah', 'maha', 'kua']</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['yuk', 'tadabbur', 'malam', 'live', 'now']</t>
+          <t>['rampas', 'adil', 'buat', 'orang', 'zhalim', 'orang', 'zalim', 'hadap', 'lansung', 'allah', 'maha', 'kua']</t>
         </is>
       </c>
     </row>
@@ -2055,34 +2055,34 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>10205</v>
+        <v>13250</v>
       </c>
       <c r="C46" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>hikmah dari rihlah ilmiah ke kampung said nursi di barla turki</t>
+          <t>pedang keadilan allah pasti akan memenggal leher kezhaliman itu pasti tetapi kapan dimana dan bagaimana berapa</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['hikmah', 'dari', 'rihlah', 'ilmiah', 'ke', 'kampung', 'said', 'nursi', 'di', 'barla', 'turki']</t>
+          <t>['pedang', 'keadilan', 'allah', 'pasti', 'akan', 'memenggal', 'leher', 'kezhaliman', 'itu', 'pasti', 'tetapi', 'kapan', 'dimana', 'dan', 'bagaimana', 'berapa']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['hikmah', 'rihlah', 'ilmiah', 'kampung', 'said', 'nursi', 'barla', 'turki']</t>
+          <t>['pedang', 'keadilan', 'allah', 'memenggal', 'leher', 'kezhaliman', 'dimana']</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['hikmah', 'rihlah', 'ilmiah', 'kampung', 'said', 'nursi', 'barla', 'turki']</t>
+          <t>['pedang', 'adil', 'allah', 'penggal', 'leher', 'kezhaliman', 'mana']</t>
         </is>
       </c>
     </row>
@@ -2091,34 +2091,34 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>10206</v>
+        <v>13251</v>
       </c>
       <c r="C47" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>assalamualaikum wr we hari ini jumat yuk kita belajar sunnah nabi</t>
+          <t>yuk tadabbur malam ini live now</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'wr', 'we', 'hari', 'ini', 'jumat', 'yuk', 'kita', 'belajar', 'sunnah', 'nabi']</t>
+          <t>['yuk', 'tadabbur', 'malam', 'ini', 'live', 'now']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'wr', 'we', 'jumat', 'yuk', 'belajar', 'sunnah', 'nabi']</t>
+          <t>['yuk', 'tadabbur', 'malam', 'live', 'now']</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'wr', 'we', 'jumat', 'yuk', 'ajar', 'sunnah', 'nabi']</t>
+          <t>['yuk', 'tadabbur', 'malam', 'live', 'now']</t>
         </is>
       </c>
     </row>
@@ -2127,34 +2127,34 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>10207</v>
+        <v>13252</v>
       </c>
       <c r="C48" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>malam ini live streaming global dzikir amp dua face hardships with worship bersama ustadz dan imam mancanegara ha</t>
+          <t>hikmah dari rihlah ilmiah ke kampung said nursi di barla turki</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['malam', 'ini', 'live', 'streaming', 'global', 'dzikir', 'amp', 'dua', 'face', 'hardships', 'with', 'worship', 'bersama', 'ustadz', 'dan', 'imam', 'mancanegara', 'ha']</t>
+          <t>['hikmah', 'dari', 'rihlah', 'ilmiah', 'ke', 'kampung', 'said', 'nursi', 'di', 'barla', 'turki']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['malam', 'live', 'streaming', 'global', 'dzikir', 'face', 'hardships', 'with', 'worship', 'ustadz', 'imam', 'mancanegara', 'ha']</t>
+          <t>['hikmah', 'rihlah', 'ilmiah', 'kampung', 'said', 'nursi', 'barla', 'turki']</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['malam', 'live', 'streaming', 'global', 'dzikir', 'face', 'hardships', 'with', 'worship', 'ustadz', 'imam', 'mancanegara', 'ha']</t>
+          <t>['hikmah', 'rihlah', 'ilmiah', 'kampung', 'said', 'nursi', 'barla', 'turki']</t>
         </is>
       </c>
     </row>
@@ -2163,34 +2163,34 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>10208</v>
+        <v>13253</v>
       </c>
       <c r="C49" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>syarat diterimanya amal lillahi taala mencontoh rasulullah</t>
+          <t>assalamualaikum wr we hari ini jumat yuk kita belajar sunnah nabi</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['syarat', 'diterimanya', 'amal', 'lillahi', 'taala', 'mencontoh', 'rasulullah']</t>
+          <t>['assalamualaikum', 'wr', 'we', 'hari', 'ini', 'jumat', 'yuk', 'kita', 'belajar', 'sunnah', 'nabi']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['syarat', 'diterimanya', 'amal', 'lillahi', 'taala', 'mencontoh', 'rasulullah']</t>
+          <t>['assalamualaikum', 'wr', 'we', 'jumat', 'yuk', 'belajar', 'sunnah', 'nabi']</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['syarat', 'terima', 'amal', 'lillahi', 'taala', 'contoh', 'rasulullah']</t>
+          <t>['assalamualaikum', 'wr', 'we', 'jumat', 'yuk', 'ajar', 'sunnah', 'nabi']</t>
         </is>
       </c>
     </row>
@@ -2199,19 +2199,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>10209</v>
+        <v>13254</v>
       </c>
       <c r="C50" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>live now mqu malam musahabah dan munajat quran tema tadabbur qs al insyirah ayat bukankah aku yang me</t>
+          <t>malam ini live streaming global dzikir amp dua face hardships with worship bersama ustadz dan imam mancanegara ha</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'tema', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'bukankah', 'aku', 'yang', 'me']</t>
+          <t>['malam', 'ini', 'live', 'streaming', 'global', 'dzikir', 'amp', 'dua', 'face', 'hardships', 'with', 'worship', 'bersama', 'ustadz', 'dan', 'imam', 'mancanegara', 'ha']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2221,12 +2221,12 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'me']</t>
+          <t>['malam', 'live', 'streaming', 'global', 'dzikir', 'face', 'hardships', 'with', 'worship', 'ustadz', 'imam', 'mancanegara', 'ha']</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'me']</t>
+          <t>['malam', 'live', 'streaming', 'global', 'dzikir', 'face', 'hardships', 'with', 'worship', 'ustadz', 'imam', 'mancanegara', 'ha']</t>
         </is>
       </c>
     </row>
@@ -2235,34 +2235,34 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>10210</v>
+        <v>13255</v>
       </c>
       <c r="C51" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>bertemu amp bersama orang saleh dapat menghidupkan qalbu</t>
+          <t>syarat diterimanya amal lillahi taala mencontoh rasulullah</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['bertemu', 'amp', 'bersama', 'orang', 'saleh', 'dapat', 'menghidupkan', 'qalbu']</t>
+          <t>['syarat', 'diterimanya', 'amal', 'lillahi', 'taala', 'mencontoh', 'rasulullah']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['bertemu', 'orang', 'saleh', 'menghidupkan', 'qalbu']</t>
+          <t>['syarat', 'diterimanya', 'amal', 'lillahi', 'taala', 'mencontoh', 'rasulullah']</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['temu', 'orang', 'saleh', 'hidup', 'qalbu']</t>
+          <t>['syarat', 'terima', 'amal', 'lillahi', 'taala', 'contoh', 'rasulullah']</t>
         </is>
       </c>
     </row>
@@ -2271,34 +2271,34 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>10211</v>
+        <v>13256</v>
       </c>
       <c r="C52" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>live now mqu malam musahabah dan munajat quran tema tadabbur qs al insyirah ayat yang memberatkan pu</t>
+          <t>live now mqu malam musahabah dan munajat quran tema tadabbur qs al insyirah ayat bukankah aku yang me</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'tema', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'yang', 'memberatkan', 'pu']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'tema', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'bukankah', 'aku', 'yang', 'me']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'memberatkan', 'pu']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'me']</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'berat', 'pu']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'me']</t>
         </is>
       </c>
     </row>
@@ -2307,34 +2307,34 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>10212</v>
+        <v>13257</v>
       </c>
       <c r="C53" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>amar maruf harus dengan cara yang maruf dan nahi mungkar jangan sampai menimbulkan kemungkaran yang lebih besar</t>
+          <t>bertemu amp bersama orang saleh dapat menghidupkan qalbu</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['amar', 'maruf', 'harus', 'dengan', 'cara', 'yang', 'maruf', 'dan', 'nahi', 'mungkar', 'jangan', 'sampai', 'menimbulkan', 'kemungkaran', 'yang', 'lebih', 'besar']</t>
+          <t>['bertemu', 'amp', 'bersama', 'orang', 'saleh', 'dapat', 'menghidupkan', 'qalbu']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['amar', 'maruf', 'maruf', 'nahi', 'mungkar', 'menimbulkan', 'kemungkaran']</t>
+          <t>['bertemu', 'orang', 'saleh', 'menghidupkan', 'qalbu']</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['amar', 'maruf', 'maruf', 'nahi', 'mungkar', 'timbul', 'mungkar']</t>
+          <t>['temu', 'orang', 'saleh', 'hidup', 'qalbu']</t>
         </is>
       </c>
     </row>
@@ -2343,19 +2343,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>10213</v>
+        <v>13258</v>
       </c>
       <c r="C54" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>seringkali kita mundur atau takut untuk menjadi penerus risalah muhammad saw dalam amar maruf nahi munkar khususny</t>
+          <t>live now mqu malam musahabah dan munajat quran tema tadabbur qs al insyirah ayat yang memberatkan pu</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['seringkali', 'kita', 'mundur', 'atau', 'takut', 'untuk', 'menjadi', 'penerus', 'risalah', 'muhammad', 'saw', 'dalam', 'amar', 'maruf', 'nahi', 'munkar', 'khususny']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'tema', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'yang', 'memberatkan', 'pu']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2365,12 +2365,12 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['seringkali', 'mundur', 'takut', 'penerus', 'risalah', 'muhammad', 'saw', 'amar', 'maruf', 'nahi', 'munkar', 'khususny']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'memberatkan', 'pu']</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['seringkali', 'mundur', 'takut', 'terus', 'risalah', 'muhammad', 'saw', 'amar', 'maruf', 'nahi', 'munkar', 'khususny']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'berat', 'pu']</t>
         </is>
       </c>
     </row>
@@ -2379,34 +2379,34 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>10214</v>
+        <v>13259</v>
       </c>
       <c r="C55" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">live now mqu malam musahabah dan munajat quran tema tadabbur qs al insyirah ayat bukankah aku yang </t>
+          <t>amar maruf harus dengan cara yang maruf dan nahi mungkar jangan sampai menimbulkan kemungkaran yang lebih besar</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'tema', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'bukankah', 'aku', 'yang']</t>
+          <t>['amar', 'maruf', 'harus', 'dengan', 'cara', 'yang', 'maruf', 'dan', 'nahi', 'mungkar', 'jangan', 'sampai', 'menimbulkan', 'kemungkaran', 'yang', 'lebih', 'besar']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat']</t>
+          <t>['amar', 'maruf', 'maruf', 'nahi', 'mungkar', 'menimbulkan', 'kemungkaran']</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat']</t>
+          <t>['amar', 'maruf', 'maruf', 'nahi', 'mungkar', 'timbul', 'mungkar']</t>
         </is>
       </c>
     </row>
@@ -2415,34 +2415,34 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>10215</v>
+        <v>13260</v>
       </c>
       <c r="C56" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>jangan sampai kita bangga dipuji orang lain karna bukan karya dari diri sendiri</t>
+          <t>seringkali kita mundur atau takut untuk menjadi penerus risalah muhammad saw dalam amar maruf nahi munkar khususny</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['jangan', 'sampai', 'kita', 'bangga', 'dipuji', 'orang', 'lain', 'karna', 'bukan', 'karya', 'dari', 'diri', 'sendiri']</t>
+          <t>['seringkali', 'kita', 'mundur', 'atau', 'takut', 'untuk', 'menjadi', 'penerus', 'risalah', 'muhammad', 'saw', 'dalam', 'amar', 'maruf', 'nahi', 'munkar', 'khususny']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['bangga', 'dipuji', 'orang', 'karna', 'karya']</t>
+          <t>['seringkali', 'mundur', 'takut', 'penerus', 'risalah', 'muhammad', 'saw', 'amar', 'maruf', 'nahi', 'munkar', 'khususny']</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['bangga', 'puji', 'orang', 'karna', 'karya']</t>
+          <t>['seringkali', 'mundur', 'takut', 'terus', 'risalah', 'muhammad', 'saw', 'amar', 'maruf', 'nahi', 'munkar', 'khususny']</t>
         </is>
       </c>
     </row>
@@ -2451,34 +2451,34 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>10216</v>
+        <v>13261</v>
       </c>
       <c r="C57" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>orang yang jiwanya lemah adalah orang yang gampang takjub apalagi yang bersifat keduniaan</t>
+          <t xml:space="preserve">live now mqu malam musahabah dan munajat quran tema tadabbur qs al insyirah ayat bukankah aku yang </t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['orang', 'yang', 'jiwanya', 'lemah', 'adalah', 'orang', 'yang', 'gampang', 'takjub', 'apalagi', 'yang', 'bersifat', 'keduniaan']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'tema', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'bukankah', 'aku', 'yang']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 13 outcomes&gt;</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['orang', 'jiwanya', 'lemah', 'orang', 'gampang', 'takjub', 'bersifat', 'keduniaan']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat']</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['orang', 'jiwa', 'lemah', 'orang', 'gampang', 'takjub', 'sifat', 'dunia']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat']</t>
         </is>
       </c>
     </row>
@@ -2487,34 +2487,34 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>10217</v>
+        <v>13262</v>
       </c>
       <c r="C58" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>live now taadabbur alquran tematik tema yahudi tidak akan pernah rela dengan risalah muhammad saw bersam</t>
+          <t>jangan sampai kita bangga dipuji orang lain karna bukan karya dari diri sendiri</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['live', 'now', 'taadabbur', 'alquran', 'tematik', 'tema', 'yahudi', 'tidak', 'akan', 'pernah', 'rela', 'dengan', 'risalah', 'muhammad', 'saw', 'bersam']</t>
+          <t>['jangan', 'sampai', 'kita', 'bangga', 'dipuji', 'orang', 'lain', 'karna', 'bukan', 'karya', 'dari', 'diri', 'sendiri']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['live', 'now', 'taadabbur', 'alquran', 'tematik', 'tema', 'yahudi', 'rela', 'risalah', 'muhammad', 'saw', 'bersam']</t>
+          <t>['bangga', 'dipuji', 'orang', 'karna', 'karya']</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['live', 'now', 'taadabbur', 'alquran', 'tematik', 'tema', 'yahudi', 'rela', 'risalah', 'muhammad', 'saw', 'bersam']</t>
+          <t>['bangga', 'puji', 'orang', 'karna', 'karya']</t>
         </is>
       </c>
     </row>
@@ -2523,34 +2523,34 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>10218</v>
+        <v>13263</v>
       </c>
       <c r="C59" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>alquran itu seperti berlian semua sisinya berkilau bertadabbur menjadikan kita mendapatkan banyak sisi yang men</t>
+          <t>orang yang jiwanya lemah adalah orang yang gampang takjub apalagi yang bersifat keduniaan</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['alquran', 'itu', 'seperti', 'berlian', 'semua', 'sisinya', 'berkilau', 'bertadabbur', 'menjadikan', 'kita', 'mendapatkan', 'banyak', 'sisi', 'yang', 'men']</t>
+          <t>['orang', 'yang', 'jiwanya', 'lemah', 'adalah', 'orang', 'yang', 'gampang', 'takjub', 'apalagi', 'yang', 'bersifat', 'keduniaan']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>&lt;FreqDist with 10 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['alquran', 'berlian', 'sisinya', 'berkilau', 'bertadabbur', 'menjadikan', 'sisi', 'men']</t>
+          <t>['orang', 'jiwanya', 'lemah', 'orang', 'gampang', 'takjub', 'bersifat', 'keduniaan']</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['alquran', 'berlian', 'sisi', 'kilau', 'bertadabbur', 'jadi', 'sisi', 'men']</t>
+          <t>['orang', 'jiwa', 'lemah', 'orang', 'gampang', 'takjub', 'sifat', 'dunia']</t>
         </is>
       </c>
     </row>
@@ -2559,34 +2559,34 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>10219</v>
+        <v>13264</v>
       </c>
       <c r="C60" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>tujuan kisah di dalam alquran itu agar kita menapaktilasi jejak kisah umat masa lalu atau peristiwa besar masa la</t>
+          <t>live now taadabbur alquran tematik tema yahudi tidak akan pernah rela dengan risalah muhammad saw bersam</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['tujuan', 'kisah', 'di', 'dalam', 'alquran', 'itu', 'agar', 'kita', 'menapaktilasi', 'jejak', 'kisah', 'umat', 'masa', 'lalu', 'atau', 'peristiwa', 'besar', 'masa', 'la']</t>
+          <t>['live', 'now', 'taadabbur', 'alquran', 'tematik', 'tema', 'yahudi', 'tidak', 'akan', 'pernah', 'rela', 'dengan', 'risalah', 'muhammad', 'saw', 'bersam']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['tujuan', 'kisah', 'alquran', 'menapaktilasi', 'jejak', 'kisah', 'umat', 'peristiwa', 'la']</t>
+          <t>['live', 'now', 'taadabbur', 'alquran', 'tematik', 'tema', 'yahudi', 'rela', 'risalah', 'muhammad', 'saw', 'bersam']</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['tuju', 'kisah', 'alquran', 'menapaktilasi', 'jejak', 'kisah', 'umat', 'peristiwa', 'la']</t>
+          <t>['live', 'now', 'taadabbur', 'alquran', 'tematik', 'tema', 'yahudi', 'rela', 'risalah', 'muhammad', 'saw', 'bersam']</t>
         </is>
       </c>
     </row>
@@ -2595,34 +2595,34 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>10220</v>
+        <v>13265</v>
       </c>
       <c r="C61" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>live now taadabbur mukjizat alquran tema mukjizat nama amp sifat alquran almuhaimin bersama kh bachti</t>
+          <t>alquran itu seperti berlian semua sisinya berkilau bertadabbur menjadikan kita mendapatkan banyak sisi yang men</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['live', 'now', 'taadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'nama', 'amp', 'sifat', 'alquran', 'almuhaimin', 'bersama', 'kh', 'bachti']</t>
+          <t>['alquran', 'itu', 'seperti', 'berlian', 'semua', 'sisinya', 'berkilau', 'bertadabbur', 'menjadikan', 'kita', 'mendapatkan', 'banyak', 'sisi', 'yang', 'men']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['live', 'now', 'taadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'nama', 'sifat', 'alquran', 'almuhaimin', 'kh', 'bachti']</t>
+          <t>['alquran', 'berlian', 'sisinya', 'berkilau', 'bertadabbur', 'menjadikan', 'sisi', 'men']</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['live', 'now', 'taadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'nama', 'sifat', 'alquran', 'almuhaimin', 'kh', 'bachti']</t>
+          <t>['alquran', 'berlian', 'sisi', 'kilau', 'bertadabbur', 'jadi', 'sisi', 'men']</t>
         </is>
       </c>
     </row>
@@ -2631,34 +2631,34 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>10221</v>
+        <v>13266</v>
       </c>
       <c r="C62" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>live now taadabbur mukjizat alquran tema mukjizat nama amp sifat alquran alqasas bersama kh bachtiar</t>
+          <t>tujuan kisah di dalam alquran itu agar kita menapaktilasi jejak kisah umat masa lalu atau peristiwa besar masa la</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['live', 'now', 'taadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'nama', 'amp', 'sifat', 'alquran', 'alqasas', 'bersama', 'kh', 'bachtiar']</t>
+          <t>['tujuan', 'kisah', 'di', 'dalam', 'alquran', 'itu', 'agar', 'kita', 'menapaktilasi', 'jejak', 'kisah', 'umat', 'masa', 'lalu', 'atau', 'peristiwa', 'besar', 'masa', 'la']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['live', 'now', 'taadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'nama', 'sifat', 'alquran', 'alqasas', 'kh', 'bachtiar']</t>
+          <t>['tujuan', 'kisah', 'alquran', 'menapaktilasi', 'jejak', 'kisah', 'umat', 'peristiwa', 'la']</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['live', 'now', 'taadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'nama', 'sifat', 'alquran', 'alqasas', 'kh', 'bachtiar']</t>
+          <t>['tuju', 'kisah', 'alquran', 'menapaktilasi', 'jejak', 'kisah', 'umat', 'peristiwa', 'la']</t>
         </is>
       </c>
     </row>
@@ -2667,34 +2667,34 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>10222</v>
+        <v>13267</v>
       </c>
       <c r="C63" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>resep rezeki tak terputus dimasa pandemi bersyukur berikhtiar bernazar zakat infaq amp sedekah</t>
+          <t>live now taadabbur mukjizat alquran tema mukjizat nama amp sifat alquran almuhaimin bersama kh bachti</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['resep', 'rezeki', 'tak', 'terputus', 'dimasa', 'pandemi', 'bersyukur', 'berikhtiar', 'bernazar', 'zakat', 'infaq', 'amp', 'sedekah']</t>
+          <t>['live', 'now', 'taadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'nama', 'amp', 'sifat', 'alquran', 'almuhaimin', 'bersama', 'kh', 'bachti']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['resep', 'rezeki', 'terputus', 'dimasa', 'pandemi', 'bersyukur', 'berikhtiar', 'bernazar', 'zakat', 'infaq', 'sedekah']</t>
+          <t>['live', 'now', 'taadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'nama', 'sifat', 'alquran', 'almuhaimin', 'kh', 'bachti']</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['resep', 'rezeki', 'putus', 'masa', 'pandemi', 'syukur', 'ikhtiar', 'nazar', 'zakat', 'infaq', 'sedekah']</t>
+          <t>['live', 'now', 'taadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'nama', 'sifat', 'alquran', 'almuhaimin', 'kh', 'bachti']</t>
         </is>
       </c>
     </row>
@@ -2703,34 +2703,34 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>10223</v>
+        <v>13268</v>
       </c>
       <c r="C64" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>pekerjaan yang paling cepat mendatangkan rezeki adalah shalat amp membaca alquran</t>
+          <t>live now taadabbur mukjizat alquran tema mukjizat nama amp sifat alquran alqasas bersama kh bachtiar</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['pekerjaan', 'yang', 'paling', 'cepat', 'mendatangkan', 'rezeki', 'adalah', 'shalat', 'amp', 'membaca', 'alquran']</t>
+          <t>['live', 'now', 'taadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'nama', 'amp', 'sifat', 'alquran', 'alqasas', 'bersama', 'kh', 'bachtiar']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['pekerjaan', 'cepat', 'rezeki', 'shalat', 'membaca', 'alquran']</t>
+          <t>['live', 'now', 'taadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'nama', 'sifat', 'alquran', 'alqasas', 'kh', 'bachtiar']</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['kerja', 'cepat', 'rezeki', 'shalat', 'baca', 'alquran']</t>
+          <t>['live', 'now', 'taadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'nama', 'sifat', 'alquran', 'alqasas', 'kh', 'bachtiar']</t>
         </is>
       </c>
     </row>
@@ -2739,34 +2739,34 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>10224</v>
+        <v>13269</v>
       </c>
       <c r="C65" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>mari kita awali hari kita dengan hal yang positif dan bersemangat dengan menyimak kajian kuliah semangat pagi denga</t>
+          <t>resep rezeki tak terputus dimasa pandemi bersyukur berikhtiar bernazar zakat infaq amp sedekah</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['mari', 'kita', 'awali', 'hari', 'kita', 'dengan', 'hal', 'yang', 'positif', 'dan', 'bersemangat', 'dengan', 'menyimak', 'kajian', 'kuliah', 'semangat', 'pagi', 'denga']</t>
+          <t>['resep', 'rezeki', 'tak', 'terputus', 'dimasa', 'pandemi', 'bersyukur', 'berikhtiar', 'bernazar', 'zakat', 'infaq', 'amp', 'sedekah']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['mari', 'awali', 'positif', 'bersemangat', 'menyimak', 'kajian', 'kuliah', 'semangat', 'pagi', 'denga']</t>
+          <t>['resep', 'rezeki', 'terputus', 'dimasa', 'pandemi', 'bersyukur', 'berikhtiar', 'bernazar', 'zakat', 'infaq', 'sedekah']</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['mari', 'awal', 'positif', 'semangat', 'simak', 'kaji', 'kuliah', 'semangat', 'pagi', 'denga']</t>
+          <t>['resep', 'rezeki', 'putus', 'masa', 'pandemi', 'syukur', 'ikhtiar', 'nazar', 'zakat', 'infaq', 'sedekah']</t>
         </is>
       </c>
     </row>
@@ -2775,34 +2775,34 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>10225</v>
+        <v>13270</v>
       </c>
       <c r="C66" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve">diantara bukti adilnya allah adalah adanya hukumhukumnya yang benarbenar paling adil tidak ada makhluk yg bisa </t>
+          <t>pekerjaan yang paling cepat mendatangkan rezeki adalah shalat amp membaca alquran</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['diantara', 'bukti', 'adilnya', 'allah', 'adalah', 'adanya', 'hukumhukumnya', 'yang', 'benarbenar', 'paling', 'adil', 'tidak', 'ada', 'makhluk', 'yg', 'bisa']</t>
+          <t>['pekerjaan', 'yang', 'paling', 'cepat', 'mendatangkan', 'rezeki', 'adalah', 'shalat', 'amp', 'membaca', 'alquran']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['bukti', 'adilnya', 'allah', 'hukumhukumnya', 'benarbenar', 'adil', 'makhluk']</t>
+          <t>['pekerjaan', 'cepat', 'rezeki', 'shalat', 'membaca', 'alquran']</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['bukti', 'adil', 'allah', 'hukumhukumnya', 'benarbenar', 'adil', 'makhluk']</t>
+          <t>['kerja', 'cepat', 'rezeki', 'shalat', 'baca', 'alquran']</t>
         </is>
       </c>
     </row>
@@ -2811,34 +2811,34 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>10226</v>
+        <v>13271</v>
       </c>
       <c r="C67" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>dimanapun orang sombong akan berhadapan dengan kekuatan allah dan ia akan dihinakan oleh allah azza wa jalla</t>
+          <t>mari kita awali hari kita dengan hal yang positif dan bersemangat dengan menyimak kajian kuliah semangat pagi denga</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['dimanapun', 'orang', 'sombong', 'akan', 'berhadapan', 'dengan', 'kekuatan', 'allah', 'dan', 'ia', 'akan', 'dihinakan', 'oleh', 'allah', 'azza', 'wa', 'jalla']</t>
+          <t>['mari', 'kita', 'awali', 'hari', 'kita', 'dengan', 'hal', 'yang', 'positif', 'dan', 'bersemangat', 'dengan', 'menyimak', 'kajian', 'kuliah', 'semangat', 'pagi', 'denga']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['dimanapun', 'orang', 'sombong', 'berhadapan', 'kekuatan', 'allah', 'dihinakan', 'allah', 'azza', 'wa', 'jalla']</t>
+          <t>['mari', 'awali', 'positif', 'bersemangat', 'menyimak', 'kajian', 'kuliah', 'semangat', 'pagi', 'denga']</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['mana', 'orang', 'sombong', 'hadap', 'kuat', 'allah', 'hina', 'allah', 'azza', 'wa', 'jalla']</t>
+          <t>['mari', 'awal', 'positif', 'semangat', 'simak', 'kaji', 'kuliah', 'semangat', 'pagi', 'denga']</t>
         </is>
       </c>
     </row>
@@ -2847,34 +2847,34 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>10227</v>
+        <v>13272</v>
       </c>
       <c r="C68" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>live now mqu malam musahabah dan munajat quran tema allah swt saja hakkm yang adil bersama kh bachti</t>
+          <t xml:space="preserve">diantara bukti adilnya allah adalah adanya hukumhukumnya yang benarbenar paling adil tidak ada makhluk yg bisa </t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'tema', 'allah', 'swt', 'saja', 'hakkm', 'yang', 'adil', 'bersama', 'kh', 'bachti']</t>
+          <t>['diantara', 'bukti', 'adilnya', 'allah', 'adalah', 'adanya', 'hukumhukumnya', 'yang', 'benarbenar', 'paling', 'adil', 'tidak', 'ada', 'makhluk', 'yg', 'bisa']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'allah', 'swt', 'hakkm', 'adil', 'kh', 'bachti']</t>
+          <t>['bukti', 'adilnya', 'allah', 'hukumhukumnya', 'benarbenar', 'adil', 'makhluk']</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'allah', 'swt', 'hakkm', 'adil', 'kh', 'bachti']</t>
+          <t>['bukti', 'adil', 'allah', 'hukumhukumnya', 'benarbenar', 'adil', 'makhluk']</t>
         </is>
       </c>
     </row>
@@ -2883,34 +2883,34 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>10228</v>
+        <v>13273</v>
       </c>
       <c r="C69" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>tidak disebut beragama orang yang tidak berpegang kepada kitab suci yang menjadi referensi agamanya</t>
+          <t>dimanapun orang sombong akan berhadapan dengan kekuatan allah dan ia akan dihinakan oleh allah azza wa jalla</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['tidak', 'disebut', 'beragama', 'orang', 'yang', 'tidak', 'berpegang', 'kepada', 'kitab', 'suci', 'yang', 'menjadi', 'referensi', 'agamanya']</t>
+          <t>['dimanapun', 'orang', 'sombong', 'akan', 'berhadapan', 'dengan', 'kekuatan', 'allah', 'dan', 'ia', 'akan', 'dihinakan', 'oleh', 'allah', 'azza', 'wa', 'jalla']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['beragama', 'orang', 'berpegang', 'kitab', 'suci', 'referensi', 'agamanya']</t>
+          <t>['dimanapun', 'orang', 'sombong', 'berhadapan', 'kekuatan', 'allah', 'dihinakan', 'allah', 'azza', 'wa', 'jalla']</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['agama', 'orang', 'pegang', 'kitab', 'suci', 'referensi', 'agama']</t>
+          <t>['mana', 'orang', 'sombong', 'hadap', 'kuat', 'allah', 'hina', 'allah', 'azza', 'wa', 'jalla']</t>
         </is>
       </c>
     </row>
@@ -2919,34 +2919,34 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>10229</v>
+        <v>13274</v>
       </c>
       <c r="C70" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>benar atau salah suatu agama bukan dilihat dari aspek umatnya tapi dari aspek referensinya yaitu kitab sucinya</t>
+          <t>live now mqu malam musahabah dan munajat quran tema allah swt saja hakkm yang adil bersama kh bachti</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['benar', 'atau', 'salah', 'suatu', 'agama', 'bukan', 'dilihat', 'dari', 'aspek', 'umatnya', 'tapi', 'dari', 'aspek', 'referensinya', 'yaitu', 'kitab', 'sucinya']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'tema', 'allah', 'swt', 'saja', 'hakkm', 'yang', 'adil', 'bersama', 'kh', 'bachti']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['salah', 'agama', 'aspek', 'umatnya', 'aspek', 'referensinya', 'kitab', 'sucinya']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'allah', 'swt', 'hakkm', 'adil', 'kh', 'bachti']</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['salah', 'agama', 'aspek', 'umat', 'aspek', 'referensi', 'kitab', 'suci']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'allah', 'swt', 'hakkm', 'adil', 'kh', 'bachti']</t>
         </is>
       </c>
     </row>
@@ -2955,34 +2955,34 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>10230</v>
+        <v>13275</v>
       </c>
       <c r="C71" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>apa yang membuat kita tetap bisa bersatu meski dengan berbeda mazhab kata kuncinya adalah kita bersatu untuk taat</t>
+          <t>tidak disebut beragama orang yang tidak berpegang kepada kitab suci yang menjadi referensi agamanya</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['apa', 'yang', 'membuat', 'kita', 'tetap', 'bisa', 'bersatu', 'meski', 'dengan', 'berbeda', 'mazhab', 'kata', 'kuncinya', 'adalah', 'kita', 'bersatu', 'untuk', 'taat']</t>
+          <t>['tidak', 'disebut', 'beragama', 'orang', 'yang', 'tidak', 'berpegang', 'kepada', 'kitab', 'suci', 'yang', 'menjadi', 'referensi', 'agamanya']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['bersatu', 'berbeda', 'mazhab', 'kuncinya', 'bersatu', 'taat']</t>
+          <t>['beragama', 'orang', 'berpegang', 'kitab', 'suci', 'referensi', 'agamanya']</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['satu', 'beda', 'mazhab', 'kunci', 'satu', 'taat']</t>
+          <t>['agama', 'orang', 'pegang', 'kitab', 'suci', 'referensi', 'agama']</t>
         </is>
       </c>
     </row>
@@ -2991,19 +2991,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>10231</v>
+        <v>13276</v>
       </c>
       <c r="C72" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t xml:space="preserve">makna aktifitas sujud di luar shalat adalah selalu menghinakan dirimu di hadapan allah selalu menjadi orang yang </t>
+          <t>benar atau salah suatu agama bukan dilihat dari aspek umatnya tapi dari aspek referensinya yaitu kitab sucinya</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['makna', 'aktifitas', 'sujud', 'di', 'luar', 'shalat', 'adalah', 'selalu', 'menghinakan', 'dirimu', 'di', 'hadapan', 'allah', 'selalu', 'menjadi', 'orang', 'yang']</t>
+          <t>['benar', 'atau', 'salah', 'suatu', 'agama', 'bukan', 'dilihat', 'dari', 'aspek', 'umatnya', 'tapi', 'dari', 'aspek', 'referensinya', 'yaitu', 'kitab', 'sucinya']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3013,12 +3013,12 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['makna', 'aktifitas', 'sujud', 'shalat', 'menghinakan', 'dirimu', 'hadapan', 'allah', 'orang']</t>
+          <t>['salah', 'agama', 'aspek', 'umatnya', 'aspek', 'referensinya', 'kitab', 'sucinya']</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['makna', 'aktifitas', 'sujud', 'shalat', 'hina', 'diri', 'hadap', 'allah', 'orang']</t>
+          <t>['salah', 'agama', 'aspek', 'umat', 'aspek', 'referensi', 'kitab', 'suci']</t>
         </is>
       </c>
     </row>
@@ -3027,34 +3027,34 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>10232</v>
+        <v>13277</v>
       </c>
       <c r="C73" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>jika alquran adalah rahmat bagi orang beriman sebaliknya bagi orang zhalim alquran itu adalah kerugian</t>
+          <t>apa yang membuat kita tetap bisa bersatu meski dengan berbeda mazhab kata kuncinya adalah kita bersatu untuk taat</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['jika', 'alquran', 'adalah', 'rahmat', 'bagi', 'orang', 'beriman', 'sebaliknya', 'bagi', 'orang', 'zhalim', 'alquran', 'itu', 'adalah', 'kerugian']</t>
+          <t>['apa', 'yang', 'membuat', 'kita', 'tetap', 'bisa', 'bersatu', 'meski', 'dengan', 'berbeda', 'mazhab', 'kata', 'kuncinya', 'adalah', 'kita', 'bersatu', 'untuk', 'taat']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 15 outcomes&gt;</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['alquran', 'rahmat', 'orang', 'beriman', 'orang', 'zhalim', 'alquran', 'kerugian']</t>
+          <t>['bersatu', 'berbeda', 'mazhab', 'kuncinya', 'bersatu', 'taat']</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['alquran', 'rahmat', 'orang', 'iman', 'orang', 'zhalim', 'alquran', 'rugi']</t>
+          <t>['satu', 'beda', 'mazhab', 'kunci', 'satu', 'taat']</t>
         </is>
       </c>
     </row>
@@ -3063,34 +3063,34 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>10233</v>
+        <v>13278</v>
       </c>
       <c r="C74" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>kita tidak akan pernah bisa mendapatkan rahmat allah yang sempurna dari alquran kalau kita belum menjadikan alqu</t>
+          <t xml:space="preserve">makna aktifitas sujud di luar shalat adalah selalu menghinakan dirimu di hadapan allah selalu menjadi orang yang </t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['kita', 'tidak', 'akan', 'pernah', 'bisa', 'mendapatkan', 'rahmat', 'allah', 'yang', 'sempurna', 'dari', 'alquran', 'kalau', 'kita', 'belum', 'menjadikan', 'alqu']</t>
+          <t>['makna', 'aktifitas', 'sujud', 'di', 'luar', 'shalat', 'adalah', 'selalu', 'menghinakan', 'dirimu', 'di', 'hadapan', 'allah', 'selalu', 'menjadi', 'orang', 'yang']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['rahmat', 'allah', 'sempurna', 'alquran', 'menjadikan', 'alqu']</t>
+          <t>['makna', 'aktifitas', 'sujud', 'shalat', 'menghinakan', 'dirimu', 'hadapan', 'allah', 'orang']</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['rahmat', 'allah', 'sempurna', 'alquran', 'jadi', 'alqu']</t>
+          <t>['makna', 'aktifitas', 'sujud', 'shalat', 'hina', 'diri', 'hadap', 'allah', 'orang']</t>
         </is>
       </c>
     </row>
@@ -3099,34 +3099,34 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>10234</v>
+        <v>13279</v>
       </c>
       <c r="C75" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>tadabbur alquran tematik tema kezhalliman yahudi bersama kh bachtiar nasir kh deden makhyaruddin</t>
+          <t>jika alquran adalah rahmat bagi orang beriman sebaliknya bagi orang zhalim alquran itu adalah kerugian</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['tadabbur', 'alquran', 'tematik', 'tema', 'kezhalliman', 'yahudi', 'bersama', 'kh', 'bachtiar', 'nasir', 'kh', 'deden', 'makhyaruddin']</t>
+          <t>['jika', 'alquran', 'adalah', 'rahmat', 'bagi', 'orang', 'beriman', 'sebaliknya', 'bagi', 'orang', 'zhalim', 'alquran', 'itu', 'adalah', 'kerugian']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
+          <t>&lt;FreqDist with 11 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['tadabbur', 'alquran', 'tematik', 'tema', 'kezhalliman', 'yahudi', 'kh', 'bachtiar', 'nasir', 'kh', 'deden', 'makhyaruddin']</t>
+          <t>['alquran', 'rahmat', 'orang', 'beriman', 'orang', 'zhalim', 'alquran', 'kerugian']</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['tadabbur', 'alquran', 'tematik', 'tema', 'kezhalliman', 'yahudi', 'kh', 'bachtiar', 'nasir', 'kh', 'deden', 'makhyaruddin']</t>
+          <t>['alquran', 'rahmat', 'orang', 'iman', 'orang', 'zhalim', 'alquran', 'rugi']</t>
         </is>
       </c>
     </row>
@@ -3135,34 +3135,34 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>10235</v>
+        <v>13280</v>
       </c>
       <c r="C76" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>mari kita ikuti program imanqu dan berpartisipasi dalam zoom see this instagram photo by</t>
+          <t>kita tidak akan pernah bisa mendapatkan rahmat allah yang sempurna dari alquran kalau kita belum menjadikan alqu</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['mari', 'kita', 'ikuti', 'program', 'imanqu', 'dan', 'berpartisipasi', 'dalam', 'zoom', 'see', 'this', 'instagram', 'photo', 'by']</t>
+          <t>['kita', 'tidak', 'akan', 'pernah', 'bisa', 'mendapatkan', 'rahmat', 'allah', 'yang', 'sempurna', 'dari', 'alquran', 'kalau', 'kita', 'belum', 'menjadikan', 'alqu']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['mari', 'ikuti', 'program', 'imanqu', 'berpartisipasi', 'zoom', 'see', 'this', 'instagram', 'photo', 'by']</t>
+          <t>['rahmat', 'allah', 'sempurna', 'alquran', 'menjadikan', 'alqu']</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['mari', 'ikut', 'program', 'imanqu', 'partisipasi', 'zoom', 'see', 'this', 'instagram', 'photo', 'by']</t>
+          <t>['rahmat', 'allah', 'sempurna', 'alquran', 'jadi', 'alqu']</t>
         </is>
       </c>
     </row>
@@ -3171,34 +3171,34 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>10236</v>
+        <v>13281</v>
       </c>
       <c r="C77" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>semua ikatan kumpulan dan persatuan yang tidak terhubung dengan allah swt pasti terpecah belah</t>
+          <t>tadabbur alquran tematik tema kezhalliman yahudi bersama kh bachtiar nasir kh deden makhyaruddin</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['semua', 'ikatan', 'kumpulan', 'dan', 'persatuan', 'yang', 'tidak', 'terhubung', 'dengan', 'allah', 'swt', 'pasti', 'terpecah', 'belah']</t>
+          <t>['tadabbur', 'alquran', 'tematik', 'tema', 'kezhalliman', 'yahudi', 'bersama', 'kh', 'bachtiar', 'nasir', 'kh', 'deden', 'makhyaruddin']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['ikatan', 'kumpulan', 'persatuan', 'terhubung', 'allah', 'swt', 'terpecah', 'belah']</t>
+          <t>['tadabbur', 'alquran', 'tematik', 'tema', 'kezhalliman', 'yahudi', 'kh', 'bachtiar', 'nasir', 'kh', 'deden', 'makhyaruddin']</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['ikat', 'kumpul', 'satu', 'hubung', 'allah', 'swt', 'pecah', 'belah']</t>
+          <t>['tadabbur', 'alquran', 'tematik', 'tema', 'kezhalliman', 'yahudi', 'kh', 'bachtiar', 'nasir', 'kh', 'deden', 'makhyaruddin']</t>
         </is>
       </c>
     </row>
@@ -3207,34 +3207,34 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>10237</v>
+        <v>13282</v>
       </c>
       <c r="C78" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>perbedaan antara orang beriman dengan orang kufur dalam memperlakukan tali allah orang beriman menjadikan tali te</t>
+          <t>mari kita ikuti program imanqu dan berpartisipasi dalam zoom see this instagram photo by</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['perbedaan', 'antara', 'orang', 'beriman', 'dengan', 'orang', 'kufur', 'dalam', 'memperlakukan', 'tali', 'allah', 'orang', 'beriman', 'menjadikan', 'tali', 'te']</t>
+          <t>['mari', 'kita', 'ikuti', 'program', 'imanqu', 'dan', 'berpartisipasi', 'dalam', 'zoom', 'see', 'this', 'instagram', 'photo', 'by']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 16 outcomes&gt;</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['perbedaan', 'orang', 'beriman', 'orang', 'kufur', 'memperlakukan', 'tali', 'allah', 'orang', 'beriman', 'menjadikan', 'tali', 'te']</t>
+          <t>['mari', 'ikuti', 'program', 'imanqu', 'berpartisipasi', 'zoom', 'see', 'this', 'instagram', 'photo', 'by']</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['beda', 'orang', 'iman', 'orang', 'kufur', 'laku', 'tali', 'allah', 'orang', 'iman', 'jadi', 'tali', 'te']</t>
+          <t>['mari', 'ikut', 'program', 'imanqu', 'partisipasi', 'zoom', 'see', 'this', 'instagram', 'photo', 'by']</t>
         </is>
       </c>
     </row>
@@ -3243,34 +3243,34 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>10238</v>
+        <v>13283</v>
       </c>
       <c r="C79" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>live now tadabbur mukjizat alquran tema mukjizat sifatsifat alquran al hablu bersama kh bachtiar na</t>
+          <t>semua ikatan kumpulan dan persatuan yang tidak terhubung dengan allah swt pasti terpecah belah</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'alquran', 'al', 'hablu', 'bersama', 'kh', 'bachtiar', 'na']</t>
+          <t>['semua', 'ikatan', 'kumpulan', 'dan', 'persatuan', 'yang', 'tidak', 'terhubung', 'dengan', 'allah', 'swt', 'pasti', 'terpecah', 'belah']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'alquran', 'al', 'hablu', 'kh', 'bachtiar', 'na']</t>
+          <t>['ikatan', 'kumpulan', 'persatuan', 'terhubung', 'allah', 'swt', 'terpecah', 'belah']</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'alquran', 'al', 'hablu', 'kh', 'bachtiar', 'na']</t>
+          <t>['ikat', 'kumpul', 'satu', 'hubung', 'allah', 'swt', 'pecah', 'belah']</t>
         </is>
       </c>
     </row>
@@ -3279,34 +3279,34 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>10239</v>
+        <v>13284</v>
       </c>
       <c r="C80" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>merespon dan menyikapi peristiwa serta isu terkini nasional maupun internasional dari sudut pandang agama secara me</t>
+          <t>perbedaan antara orang beriman dengan orang kufur dalam memperlakukan tali allah orang beriman menjadikan tali te</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['merespon', 'dan', 'menyikapi', 'peristiwa', 'serta', 'isu', 'terkini', 'nasional', 'maupun', 'internasional', 'dari', 'sudut', 'pandang', 'agama', 'secara', 'me']</t>
+          <t>['perbedaan', 'antara', 'orang', 'beriman', 'dengan', 'orang', 'kufur', 'dalam', 'memperlakukan', 'tali', 'allah', 'orang', 'beriman', 'menjadikan', 'tali', 'te']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>&lt;FreqDist with 12 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['merespon', 'menyikapi', 'peristiwa', 'isu', 'terkini', 'nasional', 'internasional', 'sudut', 'pandang', 'agama', 'me']</t>
+          <t>['perbedaan', 'orang', 'beriman', 'orang', 'kufur', 'memperlakukan', 'tali', 'allah', 'orang', 'beriman', 'menjadikan', 'tali', 'te']</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['merespon', 'sikap', 'peristiwa', 'isu', 'kini', 'nasional', 'internasional', 'sudut', 'pandang', 'agama', 'me']</t>
+          <t>['beda', 'orang', 'iman', 'orang', 'kufur', 'laku', 'tali', 'allah', 'orang', 'iman', 'jadi', 'tali', 'te']</t>
         </is>
       </c>
     </row>
@@ -3315,34 +3315,34 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>10240</v>
+        <v>13285</v>
       </c>
       <c r="C81" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>mari kita awali hari kita dengan hal yang positif dan bersemangat dengan menyimak kajian kuliah semangat pagi denga</t>
+          <t>live now tadabbur mukjizat alquran tema mukjizat sifatsifat alquran al hablu bersama kh bachtiar na</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['mari', 'kita', 'awali', 'hari', 'kita', 'dengan', 'hal', 'yang', 'positif', 'dan', 'bersemangat', 'dengan', 'menyimak', 'kajian', 'kuliah', 'semangat', 'pagi', 'denga']</t>
+          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'alquran', 'al', 'hablu', 'bersama', 'kh', 'bachtiar', 'na']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['mari', 'awali', 'positif', 'bersemangat', 'menyimak', 'kajian', 'kuliah', 'semangat', 'pagi', 'denga']</t>
+          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'alquran', 'al', 'hablu', 'kh', 'bachtiar', 'na']</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['mari', 'awal', 'positif', 'semangat', 'simak', 'kaji', 'kuliah', 'semangat', 'pagi', 'denga']</t>
+          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'alquran', 'al', 'hablu', 'kh', 'bachtiar', 'na']</t>
         </is>
       </c>
     </row>
@@ -3351,34 +3351,34 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>10241</v>
+        <v>13286</v>
       </c>
       <c r="C82" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>live now tadabbur mukjizat alquran tema mukjizat sifatsifat al quran arrahmah bersama kh bachtiar</t>
+          <t>merespon dan menyikapi peristiwa serta isu terkini nasional maupun internasional dari sudut pandang agama secara me</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'al', 'quran', 'arrahmah', 'bersama', 'kh', 'bachtiar']</t>
+          <t>['merespon', 'dan', 'menyikapi', 'peristiwa', 'serta', 'isu', 'terkini', 'nasional', 'maupun', 'internasional', 'dari', 'sudut', 'pandang', 'agama', 'secara', 'me']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'al', 'quran', 'arrahmah', 'kh', 'bachtiar']</t>
+          <t>['merespon', 'menyikapi', 'peristiwa', 'isu', 'terkini', 'nasional', 'internasional', 'sudut', 'pandang', 'agama', 'me']</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'al', 'quran', 'arrahmah', 'kh', 'bachtiar']</t>
+          <t>['merespon', 'sikap', 'peristiwa', 'isu', 'kini', 'nasional', 'internasional', 'sudut', 'pandang', 'agama', 'me']</t>
         </is>
       </c>
     </row>
@@ -3387,34 +3387,34 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>10242</v>
+        <v>13287</v>
       </c>
       <c r="C83" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>tanggapan ubn tentang pidato pelantikan joe biden via</t>
+          <t>mari kita awali hari kita dengan hal yang positif dan bersemangat dengan menyimak kajian kuliah semangat pagi denga</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['tanggapan', 'ubn', 'tentang', 'pidato', 'pelantikan', 'joe', 'biden', 'via']</t>
+          <t>['mari', 'kita', 'awali', 'hari', 'kita', 'dengan', 'hal', 'yang', 'positif', 'dan', 'bersemangat', 'dengan', 'menyimak', 'kajian', 'kuliah', 'semangat', 'pagi', 'denga']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['tanggapan', 'ubn', 'pidato', 'pelantikan', 'joe', 'biden', 'via']</t>
+          <t>['mari', 'awali', 'positif', 'bersemangat', 'menyimak', 'kajian', 'kuliah', 'semangat', 'pagi', 'denga']</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['tanggap', 'ubn', 'pidato', 'lantik', 'joe', 'biden', 'via']</t>
+          <t>['mari', 'awal', 'positif', 'semangat', 'simak', 'kaji', 'kuliah', 'semangat', 'pagi', 'denga']</t>
         </is>
       </c>
     </row>
@@ -3423,34 +3423,34 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>10243</v>
+        <v>13288</v>
       </c>
       <c r="C84" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>kerangka dasar menjadi orang beriman perintah allah yg harus dikerja kan larangan allah yg harus ditingg</t>
+          <t>live now tadabbur mukjizat alquran tema mukjizat sifatsifat al quran arrahmah bersama kh bachtiar</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['kerangka', 'dasar', 'menjadi', 'orang', 'beriman', 'perintah', 'allah', 'yg', 'harus', 'dikerja', 'kan', 'larangan', 'allah', 'yg', 'harus', 'ditingg']</t>
+          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'al', 'quran', 'arrahmah', 'bersama', 'kh', 'bachtiar']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['kerangka', 'dasar', 'orang', 'beriman', 'perintah', 'allah', 'dikerja', 'larangan', 'allah', 'ditingg']</t>
+          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'al', 'quran', 'arrahmah', 'kh', 'bachtiar']</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['kerangka', 'dasar', 'orang', 'iman', 'perintah', 'allah', 'kerja', 'larang', 'allah', 'ditingg']</t>
+          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'al', 'quran', 'arrahmah', 'kh', 'bachtiar']</t>
         </is>
       </c>
     </row>
@@ -3459,34 +3459,34 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>10244</v>
+        <v>13289</v>
       </c>
       <c r="C85" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t xml:space="preserve">mari kita jadikan pagi kita menjadi pagi yang semangat dan positif dengan mengikuti kajian kuliah semangat pagi </t>
+          <t>tanggapan ubn tentang pidato pelantikan joe biden via</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['mari', 'kita', 'jadikan', 'pagi', 'kita', 'menjadi', 'pagi', 'yang', 'semangat', 'dan', 'positif', 'dengan', 'mengikuti', 'kajian', 'kuliah', 'semangat', 'pagi']</t>
+          <t>['tanggapan', 'ubn', 'tentang', 'pidato', 'pelantikan', 'joe', 'biden', 'via']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 17 outcomes&gt;</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['mari', 'jadikan', 'pagi', 'pagi', 'semangat', 'positif', 'mengikuti', 'kajian', 'kuliah', 'semangat', 'pagi']</t>
+          <t>['tanggapan', 'ubn', 'pidato', 'pelantikan', 'joe', 'biden', 'via']</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['mari', 'jadi', 'pagi', 'pagi', 'semangat', 'positif', 'ikut', 'kaji', 'kuliah', 'semangat', 'pagi']</t>
+          <t>['tanggap', 'ubn', 'pidato', 'lantik', 'joe', 'biden', 'via']</t>
         </is>
       </c>
     </row>
@@ -3495,34 +3495,34 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>10245</v>
+        <v>13290</v>
       </c>
       <c r="C86" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>seharusnya hukum itu menjadi senjata untuk menegakkan keadilan dan kesejahteraan sosial bukan untuk mengancam yang berbeda</t>
+          <t>kerangka dasar menjadi orang beriman perintah allah yg harus dikerja kan larangan allah yg harus ditingg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['seharusnya', 'hukum', 'itu', 'menjadi', 'senjata', 'untuk', 'menegakkan', 'keadilan', 'dan', 'kesejahteraan', 'sosial', 'bukan', 'untuk', 'mengancam', 'yang', 'berbeda']</t>
+          <t>['kerangka', 'dasar', 'menjadi', 'orang', 'beriman', 'perintah', 'allah', 'yg', 'harus', 'dikerja', 'kan', 'larangan', 'allah', 'yg', 'harus', 'ditingg']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['hukum', 'senjata', 'menegakkan', 'keadilan', 'kesejahteraan', 'sosial', 'mengancam', 'berbeda']</t>
+          <t>['kerangka', 'dasar', 'orang', 'beriman', 'perintah', 'allah', 'dikerja', 'larangan', 'allah', 'ditingg']</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['hukum', 'senjata', 'tegak', 'adil', 'sejahtera', 'sosial', 'ancam', 'beda']</t>
+          <t>['kerangka', 'dasar', 'orang', 'iman', 'perintah', 'allah', 'kerja', 'larang', 'allah', 'ditingg']</t>
         </is>
       </c>
     </row>
@@ -3531,34 +3531,34 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>10246</v>
+        <v>13291</v>
       </c>
       <c r="C87" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>jika kita sudah yakin allah ada allah maha kuasa allah selalu menang allah bisa menolong kita kapan saja insya</t>
+          <t xml:space="preserve">mari kita jadikan pagi kita menjadi pagi yang semangat dan positif dengan mengikuti kajian kuliah semangat pagi </t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['jika', 'kita', 'sudah', 'yakin', 'allah', 'ada', 'allah', 'maha', 'kuasa', 'allah', 'selalu', 'menang', 'allah', 'bisa', 'menolong', 'kita', 'kapan', 'saja', 'insya']</t>
+          <t>['mari', 'kita', 'jadikan', 'pagi', 'kita', 'menjadi', 'pagi', 'yang', 'semangat', 'dan', 'positif', 'dengan', 'mengikuti', 'kajian', 'kuliah', 'semangat', 'pagi']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 19 outcomes&gt;</t>
+          <t>&lt;FreqDist with 13 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['allah', 'allah', 'maha', 'kuasa', 'allah', 'menang', 'allah', 'menolong', 'insya']</t>
+          <t>['mari', 'jadikan', 'pagi', 'pagi', 'semangat', 'positif', 'mengikuti', 'kajian', 'kuliah', 'semangat', 'pagi']</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['allah', 'allah', 'maha', 'kuasa', 'allah', 'menang', 'allah', 'tolong', 'insya']</t>
+          <t>['mari', 'jadi', 'pagi', 'pagi', 'semangat', 'positif', 'ikut', 'kaji', 'kuliah', 'semangat', 'pagi']</t>
         </is>
       </c>
     </row>
@@ -3567,34 +3567,34 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>10247</v>
+        <v>13292</v>
       </c>
       <c r="C88" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>live now global dzikir and dua bersama kh bachtiar nasir kh deden makhyaruddin ust ali imran syei</t>
+          <t>seharusnya hukum itu menjadi senjata untuk menegakkan keadilan dan kesejahteraan sosial bukan untuk mengancam yang berbeda</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['live', 'now', 'global', 'dzikir', 'and', 'dua', 'bersama', 'kh', 'bachtiar', 'nasir', 'kh', 'deden', 'makhyaruddin', 'ust', 'ali', 'imran', 'syei']</t>
+          <t>['seharusnya', 'hukum', 'itu', 'menjadi', 'senjata', 'untuk', 'menegakkan', 'keadilan', 'dan', 'kesejahteraan', 'sosial', 'bukan', 'untuk', 'mengancam', 'yang', 'berbeda']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['live', 'now', 'global', 'dzikir', 'and', 'kh', 'bachtiar', 'nasir', 'kh', 'deden', 'makhyaruddin', 'ust', 'ali', 'imran', 'syei']</t>
+          <t>['hukum', 'senjata', 'menegakkan', 'keadilan', 'kesejahteraan', 'sosial', 'mengancam', 'berbeda']</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['live', 'now', 'global', 'dzikir', 'and', 'kh', 'bachtiar', 'nasir', 'kh', 'deden', 'makhyaruddin', 'ust', 'ali', 'imran', 'syei']</t>
+          <t>['hukum', 'senjata', 'tegak', 'adil', 'sejahtera', 'sosial', 'ancam', 'beda']</t>
         </is>
       </c>
     </row>
@@ -3603,34 +3603,34 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>10248</v>
+        <v>13293</v>
       </c>
       <c r="C89" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>fenomena alam pemicu banyak banjir amp longsor via</t>
+          <t>jika kita sudah yakin allah ada allah maha kuasa allah selalu menang allah bisa menolong kita kapan saja insya</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['fenomena', 'alam', 'pemicu', 'banyak', 'banjir', 'amp', 'longsor', 'via']</t>
+          <t>['jika', 'kita', 'sudah', 'yakin', 'allah', 'ada', 'allah', 'maha', 'kuasa', 'allah', 'selalu', 'menang', 'allah', 'bisa', 'menolong', 'kita', 'kapan', 'saja', 'insya']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>&lt;FreqDist with 15 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['fenomena', 'alam', 'pemicu', 'banjir', 'longsor', 'via']</t>
+          <t>['allah', 'allah', 'maha', 'kuasa', 'allah', 'menang', 'allah', 'menolong', 'insya']</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['fenomena', 'alam', 'picu', 'banjir', 'longsor', 'via']</t>
+          <t>['allah', 'allah', 'maha', 'kuasa', 'allah', 'menang', 'allah', 'tolong', 'insya']</t>
         </is>
       </c>
     </row>
@@ -3639,34 +3639,34 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>10249</v>
+        <v>13294</v>
       </c>
       <c r="C90" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>biasanya orang itu dengki dan iri kepada kemewahan atau kehebatan dunia orang lain para wali mengatakan orang yang</t>
+          <t>live now global dzikir and dua bersama kh bachtiar nasir kh deden makhyaruddin ust ali imran syei</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['biasanya', 'orang', 'itu', 'dengki', 'dan', 'iri', 'kepada', 'kemewahan', 'atau', 'kehebatan', 'dunia', 'orang', 'lain', 'para', 'wali', 'mengatakan', 'orang', 'yang']</t>
+          <t>['live', 'now', 'global', 'dzikir', 'and', 'dua', 'bersama', 'kh', 'bachtiar', 'nasir', 'kh', 'deden', 'makhyaruddin', 'ust', 'ali', 'imran', 'syei']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['orang', 'dengki', 'iri', 'kemewahan', 'kehebatan', 'dunia', 'orang', 'wali', 'orang']</t>
+          <t>['live', 'now', 'global', 'dzikir', 'and', 'kh', 'bachtiar', 'nasir', 'kh', 'deden', 'makhyaruddin', 'ust', 'ali', 'imran', 'syei']</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['orang', 'dengki', 'iri', 'mewah', 'hebat', 'dunia', 'orang', 'wali', 'orang']</t>
+          <t>['live', 'now', 'global', 'dzikir', 'and', 'kh', 'bachtiar', 'nasir', 'kh', 'deden', 'makhyaruddin', 'ust', 'ali', 'imran', 'syei']</t>
         </is>
       </c>
     </row>
@@ -3675,34 +3675,34 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>10250</v>
+        <v>13295</v>
       </c>
       <c r="C91" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>kenapa mushaf alquran itu dimulai dengan alhamdulillahi rabbil aalamiinnn karena semua isi alquran itu adalah nikmat</t>
+          <t>fenomena alam pemicu banyak banjir amp longsor via</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['kenapa', 'mushaf', 'alquran', 'itu', 'dimulai', 'dengan', 'alhamdulillahi', 'rabbil', 'aalamiinnn', 'karena', 'semua', 'isi', 'alquran', 'itu', 'adalah', 'nikmat']</t>
+          <t>['fenomena', 'alam', 'pemicu', 'banyak', 'banjir', 'amp', 'longsor', 'via']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['mushaf', 'alquran', 'alhamdulillahi', 'rabbil', 'aalamiinnn', 'isi', 'alquran', 'nikmat']</t>
+          <t>['fenomena', 'alam', 'pemicu', 'banjir', 'longsor', 'via']</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['mushaf', 'alquran', 'alhamdulillah', 'rabbil', 'aalamiinnn', 'isi', 'alquran', 'nikmat']</t>
+          <t>['fenomena', 'alam', 'picu', 'banjir', 'longsor', 'via']</t>
         </is>
       </c>
     </row>
@@ -3711,34 +3711,34 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>10251</v>
+        <v>13296</v>
       </c>
       <c r="C92" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>live now mqu malam musahabah dan munajat quran tema kajian mqu kenikmatan tiada terputus bersama kh</t>
+          <t>biasanya orang itu dengki dan iri kepada kemewahan atau kehebatan dunia orang lain para wali mengatakan orang yang</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'tema', 'kajian', 'mqu', 'kenikmatan', 'tiada', 'terputus', 'bersama', 'kh']</t>
+          <t>['biasanya', 'orang', 'itu', 'dengki', 'dan', 'iri', 'kepada', 'kemewahan', 'atau', 'kehebatan', 'dunia', 'orang', 'lain', 'para', 'wali', 'mengatakan', 'orang', 'yang']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'kajian', 'mqu', 'kenikmatan', 'tiada', 'terputus', 'kh']</t>
+          <t>['orang', 'dengki', 'iri', 'kemewahan', 'kehebatan', 'dunia', 'orang', 'wali', 'orang']</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'kaji', 'mqu', 'nikmat', 'tiada', 'putus', 'kh']</t>
+          <t>['orang', 'dengki', 'iri', 'mewah', 'hebat', 'dunia', 'orang', 'wali', 'orang']</t>
         </is>
       </c>
     </row>
@@ -3747,34 +3747,34 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>10252</v>
+        <v>13297</v>
       </c>
       <c r="C93" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>amerika tetaplah dengan standar gandanya hanya kepada allah saja kita berharap dan bersandar</t>
+          <t>kenapa mushaf alquran itu dimulai dengan alhamdulillahi rabbil aalamiinnn karena semua isi alquran itu adalah nikmat</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['amerika', 'tetaplah', 'dengan', 'standar', 'gandanya', 'hanya', 'kepada', 'allah', 'saja', 'kita', 'berharap', 'dan', 'bersandar']</t>
+          <t>['kenapa', 'mushaf', 'alquran', 'itu', 'dimulai', 'dengan', 'alhamdulillahi', 'rabbil', 'aalamiinnn', 'karena', 'semua', 'isi', 'alquran', 'itu', 'adalah', 'nikmat']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['amerika', 'tetaplah', 'standar', 'gandanya', 'allah', 'berharap', 'bersandar']</t>
+          <t>['mushaf', 'alquran', 'alhamdulillahi', 'rabbil', 'aalamiinnn', 'isi', 'alquran', 'nikmat']</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['amerika', 'tetap', 'standar', 'ganda', 'allah', 'harap', 'sandar']</t>
+          <t>['mushaf', 'alquran', 'alhamdulillah', 'rabbil', 'aalamiinnn', 'isi', 'alquran', 'nikmat']</t>
         </is>
       </c>
     </row>
@@ -3783,34 +3783,34 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>10253</v>
+        <v>13298</v>
       </c>
       <c r="C94" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>jika kita melahirkan anak yang menjadi penghamba dunia maka dia akan menjadi pengabdi dunia tetapi jika kita mela</t>
+          <t>live now mqu malam musahabah dan munajat quran tema kajian mqu kenikmatan tiada terputus bersama kh</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['jika', 'kita', 'melahirkan', 'anak', 'yang', 'menjadi', 'penghamba', 'dunia', 'maka', 'dia', 'akan', 'menjadi', 'pengabdi', 'dunia', 'tetapi', 'jika', 'kita', 'mela']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'tema', 'kajian', 'mqu', 'kenikmatan', 'tiada', 'terputus', 'bersama', 'kh']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 18 outcomes&gt;</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['melahirkan', 'anak', 'penghamba', 'dunia', 'pengabdi', 'dunia', 'mela']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'kajian', 'mqu', 'kenikmatan', 'tiada', 'terputus', 'kh']</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['lahir', 'anak', 'hamba', 'dunia', 'abdi', 'dunia', 'mela']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'kaji', 'mqu', 'nikmat', 'tiada', 'putus', 'kh']</t>
         </is>
       </c>
     </row>
@@ -3819,34 +3819,34 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>10254</v>
+        <v>13299</v>
       </c>
       <c r="C95" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t xml:space="preserve">mari kita jadikan pagi kita menjadi pagi yang semangat dan positif dengan mengikuti kajian kuliah semangat pagi </t>
+          <t>amerika tetaplah dengan standar gandanya hanya kepada allah saja kita berharap dan bersandar</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['mari', 'kita', 'jadikan', 'pagi', 'kita', 'menjadi', 'pagi', 'yang', 'semangat', 'dan', 'positif', 'dengan', 'mengikuti', 'kajian', 'kuliah', 'semangat', 'pagi']</t>
+          <t>['amerika', 'tetaplah', 'dengan', 'standar', 'gandanya', 'hanya', 'kepada', 'allah', 'saja', 'kita', 'berharap', 'dan', 'bersandar']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 17 outcomes&gt;</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['mari', 'jadikan', 'pagi', 'pagi', 'semangat', 'positif', 'mengikuti', 'kajian', 'kuliah', 'semangat', 'pagi']</t>
+          <t>['amerika', 'tetaplah', 'standar', 'gandanya', 'allah', 'berharap', 'bersandar']</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['mari', 'jadi', 'pagi', 'pagi', 'semangat', 'positif', 'ikut', 'kaji', 'kuliah', 'semangat', 'pagi']</t>
+          <t>['amerika', 'tetap', 'standar', 'ganda', 'allah', 'harap', 'sandar']</t>
         </is>
       </c>
     </row>
@@ -3855,34 +3855,34 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>10255</v>
+        <v>13300</v>
       </c>
       <c r="C96" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>live now mqu malam musahabah dan munajat quran tema kami rendahkan ketingkat terendah bersama kh bach</t>
+          <t>jika kita melahirkan anak yang menjadi penghamba dunia maka dia akan menjadi pengabdi dunia tetapi jika kita mela</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'tema', 'kami', 'rendahkan', 'ketingkat', 'terendah', 'bersama', 'kh', 'bach']</t>
+          <t>['jika', 'kita', 'melahirkan', 'anak', 'yang', 'menjadi', 'penghamba', 'dunia', 'maka', 'dia', 'akan', 'menjadi', 'pengabdi', 'dunia', 'tetapi', 'jika', 'kita', 'mela']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>&lt;FreqDist with 14 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'rendahkan', 'ketingkat', 'terendah', 'kh', 'bach']</t>
+          <t>['melahirkan', 'anak', 'penghamba', 'dunia', 'pengabdi', 'dunia', 'mela']</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'rendah', 'tingkat', 'rendah', 'kh', 'bach']</t>
+          <t>['lahir', 'anak', 'hamba', 'dunia', 'abdi', 'dunia', 'mela']</t>
         </is>
       </c>
     </row>
@@ -3891,34 +3891,34 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>10256</v>
+        <v>13301</v>
       </c>
       <c r="C97" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>cara pandang yang benar terhadap alam raya menurut alquran adalah bahwa alam raya ini bukanlah benda mati karena</t>
+          <t xml:space="preserve">mari kita jadikan pagi kita menjadi pagi yang semangat dan positif dengan mengikuti kajian kuliah semangat pagi </t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['cara', 'pandang', 'yang', 'benar', 'terhadap', 'alam', 'raya', 'menurut', 'alquran', 'adalah', 'bahwa', 'alam', 'raya', 'ini', 'bukanlah', 'benda', 'mati', 'karena']</t>
+          <t>['mari', 'kita', 'jadikan', 'pagi', 'kita', 'menjadi', 'pagi', 'yang', 'semangat', 'dan', 'positif', 'dengan', 'mengikuti', 'kajian', 'kuliah', 'semangat', 'pagi']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>&lt;FreqDist with 13 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>['pandang', 'alam', 'raya', 'alquran', 'alam', 'raya', 'benda', 'mati']</t>
+          <t>['mari', 'jadikan', 'pagi', 'pagi', 'semangat', 'positif', 'mengikuti', 'kajian', 'kuliah', 'semangat', 'pagi']</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['pandang', 'alam', 'raya', 'alquran', 'alam', 'raya', 'benda', 'mati']</t>
+          <t>['mari', 'jadi', 'pagi', 'pagi', 'semangat', 'positif', 'ikut', 'kaji', 'kuliah', 'semangat', 'pagi']</t>
         </is>
       </c>
     </row>
@@ -3927,34 +3927,34 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>10257</v>
+        <v>13302</v>
       </c>
       <c r="C98" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>live now mqu malam musahabah dan munajat quran bersama kh bachtiar nasir kh deden makhyaruddin kaj</t>
+          <t>live now mqu malam musahabah dan munajat quran tema kami rendahkan ketingkat terendah bersama kh bach</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'bersama', 'kh', 'bachtiar', 'nasir', 'kh', 'deden', 'makhyaruddin', 'kaj']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'tema', 'kami', 'rendahkan', 'ketingkat', 'terendah', 'bersama', 'kh', 'bach']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'kh', 'bachtiar', 'nasir', 'kh', 'deden', 'makhyaruddin', 'kaj']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'rendahkan', 'ketingkat', 'terendah', 'kh', 'bach']</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'kh', 'bachtiar', 'nasir', 'kh', 'deden', 'makhyaruddin', 'kaj']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'rendah', 'tingkat', 'rendah', 'kh', 'bach']</t>
         </is>
       </c>
     </row>
@@ -3963,34 +3963,34 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>10258</v>
+        <v>13303</v>
       </c>
       <c r="C99" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>jelang pelantikan joe biden apa kata ustad bachtiar nasir via</t>
+          <t>cara pandang yang benar terhadap alam raya menurut alquran adalah bahwa alam raya ini bukanlah benda mati karena</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['jelang', 'pelantikan', 'joe', 'biden', 'apa', 'kata', 'ustad', 'bachtiar', 'nasir', 'via']</t>
+          <t>['cara', 'pandang', 'yang', 'benar', 'terhadap', 'alam', 'raya', 'menurut', 'alquran', 'adalah', 'bahwa', 'alam', 'raya', 'ini', 'bukanlah', 'benda', 'mati', 'karena']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['jelang', 'pelantikan', 'joe', 'biden', 'ustad', 'bachtiar', 'nasir', 'via']</t>
+          <t>['pandang', 'alam', 'raya', 'alquran', 'alam', 'raya', 'benda', 'mati']</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['jelang', 'lantik', 'joe', 'biden', 'ustad', 'bachtiar', 'nasir', 'via']</t>
+          <t>['pandang', 'alam', 'raya', 'alquran', 'alam', 'raya', 'benda', 'mati']</t>
         </is>
       </c>
     </row>
@@ -3999,34 +3999,34 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>10259</v>
+        <v>13304</v>
       </c>
       <c r="C100" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>mari bergabung dalam program imanqu dengan menulis alquran sepekan khatam juz jadikanlah tulisan kita menja</t>
+          <t>live now mqu malam musahabah dan munajat quran bersama kh bachtiar nasir kh deden makhyaruddin kaj</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['mari', 'bergabung', 'dalam', 'program', 'imanqu', 'dengan', 'menulis', 'alquran', 'sepekan', 'khatam', 'juz', 'jadikanlah', 'tulisan', 'kita', 'menja']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'bersama', 'kh', 'bachtiar', 'nasir', 'kh', 'deden', 'makhyaruddin', 'kaj']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['mari', 'bergabung', 'program', 'imanqu', 'menulis', 'alquran', 'sepekan', 'khatam', 'juz', 'jadikanlah', 'tulisan', 'menja']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'kh', 'bachtiar', 'nasir', 'kh', 'deden', 'makhyaruddin', 'kaj']</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['mari', 'gabung', 'program', 'imanqu', 'tulis', 'alquran', 'pek', 'khatam', 'juz', 'jadi', 'tulis', 'menja']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'kh', 'bachtiar', 'nasir', 'kh', 'deden', 'makhyaruddin', 'kaj']</t>
         </is>
       </c>
     </row>
@@ -4035,34 +4035,34 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>10260</v>
+        <v>13305</v>
       </c>
       <c r="C101" t="n">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>suatu negara akan mendapatkan keberkahan dari allah kalau menjadi destinasi dua kelompok umat yaitu para ulama dan</t>
+          <t>jelang pelantikan joe biden apa kata ustad bachtiar nasir via</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['suatu', 'negara', 'akan', 'mendapatkan', 'keberkahan', 'dari', 'allah', 'kalau', 'menjadi', 'destinasi', 'dua', 'kelompok', 'umat', 'yaitu', 'para', 'ulama', 'dan']</t>
+          <t>['jelang', 'pelantikan', 'joe', 'biden', 'apa', 'kata', 'ustad', 'bachtiar', 'nasir', 'via']</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>['negara', 'keberkahan', 'allah', 'destinasi', 'kelompok', 'umat', 'ulama']</t>
+          <t>['jelang', 'pelantikan', 'joe', 'biden', 'ustad', 'bachtiar', 'nasir', 'via']</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['negara', 'berkah', 'allah', 'destinasi', 'kelompok', 'umat', 'ulama']</t>
+          <t>['jelang', 'lantik', 'joe', 'biden', 'ustad', 'bachtiar', 'nasir', 'via']</t>
         </is>
       </c>
     </row>

--- a/public/preprocessing/@bachtiarnasir.xlsx
+++ b/public/preprocessing/@bachtiarnasir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13206</v>
+        <v>28811</v>
       </c>
       <c r="C2" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>live now mqu malam musahabah dan munajat quran tema balasan nikmat tiada terhingga</t>
+          <t>khatamqu online qs taha</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'tema', 'balasan', 'nikmat', 'tiada', 'terhingga']</t>
+          <t>['khatamqu', 'online', 'qs', 'taha']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['khatamqu', 'online', 'qs', 'taha']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'balasan', 'nikmat', 'tiada', 'terhingga']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'balas', 'nikmat', 'tiada', 'hingga']</t>
+          <t>['khatamqu', 'online', 'qs', 'taha']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['khatamqu', 'online', 'qs', 'taha']</t>
         </is>
       </c>
     </row>
@@ -511,34 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>13207</v>
+        <v>28812</v>
       </c>
       <c r="C3" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>khatamqu qs al maidah</t>
+          <t xml:space="preserve">live now mqu malam musahabah dan munajat quran tadabbur qs adh dhuha ayat tema mukaddimah al lail </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'al', 'maidah']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'tadabbur', 'qs', 'adh', 'dhuha', 'ayat', 'tema', 'mukaddimah', 'al', 'lail']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'alquran', 'tadabbur', 'qs', 'aduh', 'dhuha', 'ayat', 'tema', 'mukaddimah', 'al', 'lail']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'al', 'maidah']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'al', 'maidah']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'alquran', 'tadabbur', 'qs', 'aduh', 'dhuha', 'ayat', 'tema', 'mukaddimah', 'al', 'lail']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'alquran', 'tadabbur', 'qs', 'aduh', 'dhuha', 'ayat', 'tema', 'mukaddimah', 'al', 'lail']</t>
         </is>
       </c>
     </row>
@@ -547,34 +562,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>13208</v>
+        <v>28813</v>
       </c>
       <c r="C4" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>live now mqu malam musahabah dan munajat quran tema akhiratlah yang terbaik</t>
+          <t>khatamqu online qs alkahfi sd maryam</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'tema', 'akhiratlah', 'yang', 'terbaik']</t>
+          <t>['khatamqu', 'online', 'qs', 'alkahfi', 'sd', 'maryam']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['khatamqu', 'online', 'qs', 'alkahfi', 'sekolah, dasar', 'maryam']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'akhiratlah', 'terbaik']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'akhirat', 'baik']</t>
+          <t>['khatamqu', 'online', 'qs', 'alkahfi', 'sekolah, dasar', 'maryam']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['khatamqu', 'online', 'qs', 'alkahfi', 'sekolah dasar', 'maryam']</t>
         </is>
       </c>
     </row>
@@ -583,34 +603,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>13209</v>
+        <v>28814</v>
       </c>
       <c r="C5" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>khatamqu qs an nisa ayat al maidah</t>
+          <t>live now mqu malam musahabah dan munajat quran tadabbur alquran tematik tema tadabbur surat albaqarah</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'an', 'nisa', 'ayat', 'al', 'maidah']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'tadabbur', 'alquran', 'tematik', 'tema', 'tadabbur', 'surat', 'albaqarah']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'alquran', 'tadabbur', 'alquran', 'tematik', 'tema', 'tadabbur', 'surat', 'albaqarah']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'an', 'nisa', 'ayat', 'al', 'maidah']</t>
+          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'an', 'nisa', 'ayat', 'al', 'maidah']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'alquran', 'tadabbur', 'alquran', 'tematik', 'tema', 'tadabbur', 'surat', 'albaqarah']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'alquran', 'tadabbur', 'alquran', 'tematik', 'tema', 'tadabbur', 'surat', 'albaqarah']</t>
         </is>
       </c>
     </row>
@@ -619,34 +644,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>13210</v>
+        <v>28815</v>
       </c>
       <c r="C6" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>live now mqu malam musahabah dan munajat quran tema tuhanmu tidak meninggalkanmu amp membencimu bersama</t>
+          <t>khatamqu online qs al isra sd alkahfi</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'tema', 'tuhanmu', 'tidak', 'meninggalkanmu', 'amp', 'membencimu', 'bersama']</t>
+          <t>['khatamqu', 'online', 'qs', 'al', 'isra', 'sd', 'alkahfi']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['khatamqu', 'online', 'qs', 'al', 'isra', 'sekolah, dasar', 'alkahfi']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'tuhanmu', 'meninggalkanmu', 'membencimu']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'tuhan', 'tinggal', 'benci']</t>
+          <t>['khatamqu', 'online', 'qs', 'al', 'isra', 'sekolah, dasar', 'alkahfi']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['khatamqu', 'online', 'qs', 'al', 'isra', 'sekolah dasar', 'alkahfi']</t>
         </is>
       </c>
     </row>
@@ -655,34 +685,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13211</v>
+        <v>28816</v>
       </c>
       <c r="C7" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>khatamqu qs an nisa</t>
+          <t>penyakit utama ummat nabi muhammad sallallahu alaihi wasallam adalah pecinta dunia dan pengejar dunia yaitu orang</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'an', 'nisa']</t>
+          <t>['penyakit', 'utama', 'ummat', 'nabi', 'muhammad', 'sallallahu', 'alaihi', 'wasallam', 'adalah', 'pecinta', 'dunia', 'dan', 'pengejar', 'dunia', 'yaitu', 'orang']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['penyakit', 'utama', 'umat', 'nabi', 'muhammad', 'sallallahu', 'alaihi', 'wasallam', 'adalah', 'pencinta', 'dunia', 'dan', 'pengejar', 'dunia', 'yaitu', 'orang']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'an', 'nisa']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'an', 'nisa']</t>
+          <t>['penyakit', 'utama', 'umat', 'nabi', 'muhammad', 'sallallahu', 'alaihi', 'wasallam', 'pencinta', 'dunia', 'pengejar', 'dunia', 'orang']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['sakit', 'utama', 'umat', 'nabi', 'muhammad', 'sallallahu', 'alaihi', 'wasallam', 'cinta', 'dunia', 'kejar', 'dunia', 'orang']</t>
         </is>
       </c>
     </row>
@@ -691,34 +726,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>13212</v>
+        <v>28817</v>
       </c>
       <c r="C8" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>live now tadabbur alquran tematik tema agama ibrahim beriman kepada semua nabi kitab tanpa membedakannya</t>
+          <t>live now mqu malam musahabah dan munajat quran tema mukjizat nama amp sifat alquran at tadzkirah bersam</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['live', 'now', 'tadabbur', 'alquran', 'tematik', 'tema', 'agama', 'ibrahim', 'beriman', 'kepada', 'semua', 'nabi', 'kitab', 'tanpa', 'membedakannya']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'tema', 'mukjizat', 'nama', 'amp', 'sifat', 'alquran', 'at', 'tadzkirah', 'bersam']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'alquran', 'tema', 'mukjizat', 'nama', 'amp', 'sifat', 'alquran', 'at', 'tadzkirah', 'bersam']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['live', 'now', 'tadabbur', 'alquran', 'tematik', 'tema', 'agama', 'ibrahim', 'beriman', 'nabi', 'kitab', 'membedakannya']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['live', 'now', 'tadabbur', 'alquran', 'tematik', 'tema', 'agama', 'ibrahim', 'iman', 'nabi', 'kitab', 'beda']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'alquran', 'tema', 'mukjizat', 'nama', 'sifat', 'alquran', 'at', 'tadzkirah', 'bersam']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'alquran', 'tema', 'mukjizat', 'nama', 'sifat', 'alquran', 'at', 'tadzkirah', 'bersam']</t>
         </is>
       </c>
     </row>
@@ -727,34 +767,35 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>13213</v>
+        <v>28818</v>
       </c>
       <c r="C9" t="n">
-        <v>172</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>khatamqu qs an nisa ayat</t>
-        </is>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'an', 'nisa', 'ayat']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'an', 'nisa', 'ayat']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'an', 'nisa', 'ayat']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -763,34 +804,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>13214</v>
+        <v>28819</v>
       </c>
       <c r="C10" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>khatamqu qs ali imran ayat an nisa ayat</t>
+          <t>segala sesuatu yang datang dari allah itu pasti baik tinggal bagaimana cara kita meridhai setiap takdirtakdirnya</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'ali', 'imran', 'ayat', 'an', 'nisa', 'ayat']</t>
+          <t>['segala', 'sesuatu', 'yang', 'datang', 'dari', 'allah', 'itu', 'pasti', 'baik', 'tinggal', 'bagaimana', 'cara', 'kita', 'meridhai', 'setiap', 'takdirtakdirnya']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
+          <t>['segala', 'sesuatu', 'yang', 'datang', 'dari', 'allah', 'itu', 'pasti', 'baik', 'tinggal', 'bagaimana', 'cara', 'kita', 'meridhai', 'setiap', 'takdirtakdirnya']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'ali', 'imran', 'ayat', 'an', 'nisa', 'ayat']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'ali', 'imran', 'ayat', 'an', 'nisa', 'ayat']</t>
+          <t>['allah', 'tinggal', 'meridhai', 'takdirtakdirnya']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['allah', 'tinggal', 'meridhai', 'takdirtakdirnya']</t>
         </is>
       </c>
     </row>
@@ -799,34 +845,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>13215</v>
+        <v>28820</v>
       </c>
       <c r="C11" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>khatamqu qs ali imran ayat ali imran ayat</t>
+          <t>kematian adalah ketika kita sudah tidak terkoneksi dengan wahyu sebaliknya kehidupan adalah ketika kita selalu ter</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'ali', 'imran', 'ayat', 'ali', 'imran', 'ayat']</t>
+          <t>['kematian', 'adalah', 'ketika', 'kita', 'sudah', 'tidak', 'terkoneksi', 'dengan', 'wahyu', 'sebaliknya', 'kehidupan', 'adalah', 'ketika', 'kita', 'selalu', 'ter']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 8 outcomes&gt;</t>
+          <t>['kematian', 'adalah', 'ketika', 'kita', 'sudah', 'tidak', 'terkoneksi', 'dengan', 'wahyu', 'sebaliknya', 'kehidupan', 'adalah', 'ketika', 'kita', 'selalu', 'ter']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'ali', 'imran', 'ayat', 'ali', 'imran', 'ayat']</t>
+          <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'ali', 'imran', 'ayat', 'ali', 'imran', 'ayat']</t>
+          <t>['kematian', 'terkoneksi', 'wahyu', 'kehidupan', 'ter']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['mati', 'koneksi', 'wahyu', 'hidup', 'ter']</t>
         </is>
       </c>
     </row>
@@ -835,34 +886,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>13216</v>
+        <v>28821</v>
       </c>
       <c r="C12" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>khatamqu qs ali imran ayat ali imran ayat</t>
+          <t>live now mqu malam musahabah dan munajat quran tema mukjizat nama amp sifat alquran haqqul yaqin bersama</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'ali', 'imran', 'ayat', 'ali', 'imran', 'ayat']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'tema', 'mukjizat', 'nama', 'amp', 'sifat', 'alquran', 'haqqul', 'yaqin', 'bersama']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 8 outcomes&gt;</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'alquran', 'tema', 'mukjizat', 'nama', 'amp', 'sifat', 'alquran', 'haqqul', 'yaqin', 'bersama']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'ali', 'imran', 'ayat', 'ali', 'imran', 'ayat']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'ali', 'imran', 'ayat', 'ali', 'imran', 'ayat']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'alquran', 'tema', 'mukjizat', 'nama', 'sifat', 'alquran', 'haqqul', 'yaqin']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'alquran', 'tema', 'mukjizat', 'nama', 'sifat', 'alquran', 'haqqul', 'yaqin']</t>
         </is>
       </c>
     </row>
@@ -871,34 +927,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>13217</v>
+        <v>28822</v>
       </c>
       <c r="C13" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>kajian mqu tadabbur qs addhuha ayat demi malam yang sunyi</t>
+          <t>khatamqu online qs an nahl</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['kajian', 'mqu', 'tadabbur', 'qs', 'addhuha', 'ayat', 'demi', 'malam', 'yang', 'sunyi']</t>
+          <t>['khatamqu', 'online', 'qs', 'an', 'nahl']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['khatamqu', 'online', 'qs', 'an', 'nahl']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['kajian', 'mqu', 'tadabbur', 'qs', 'addhuha', 'ayat', 'malam', 'sunyi']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['kaji', 'mqu', 'tadabbur', 'qs', 'addhuha', 'ayat', 'malam', 'sunyi']</t>
+          <t>['khatamqu', 'online', 'qs', 'an', 'nahl']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['khatamqu', 'online', 'qs', 'an', 'nahl']</t>
         </is>
       </c>
     </row>
@@ -907,34 +968,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>13218</v>
+        <v>28823</v>
       </c>
       <c r="C14" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>live now mqu malam musahabah dan munajat quran tema tadabbur qs addhuha ayat demi malam yang sunyi</t>
+          <t>kajian spesial isramiraj yuk menjadi penerus risalah rasulullah</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'tema', 'tadabbur', 'qs', 'addhuha', 'ayat', 'demi', 'malam', 'yang', 'sunyi']</t>
+          <t>['kajian', 'spesial', 'isramiraj', 'yuk', 'menjadi', 'penerus', 'risalah', 'rasulullah']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['kajian', 'spesial', 'isramiraj', 'yuk', 'menjadi', 'penerus', 'risalah', 'rasulullah']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'tadabbur', 'qs', 'addhuha', 'ayat', 'malam', 'sunyi']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'tadabbur', 'qs', 'addhuha', 'ayat', 'malam', 'sunyi']</t>
+          <t>['kajian', 'spesial', 'isramiraj', 'yuk', 'penerus', 'risalah', 'rasulullah']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['kaji', 'spesial', 'isramiraj', 'yuk', 'terus', 'risalah', 'rasulullah']</t>
         </is>
       </c>
     </row>
@@ -943,34 +1009,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>13219</v>
+        <v>28824</v>
       </c>
       <c r="C15" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>khatamqu qs albaqarah ayat ali imran ayat</t>
+          <t>khatamqu online qs al hijr sd an nahl</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'albaqarah', 'ayat', 'ali', 'imran', 'ayat']</t>
+          <t>['khatamqu', 'online', 'qs', 'al', 'hijr', 'sd', 'an', 'nahl']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
+          <t>['khatamqu', 'online', 'qs', 'al', 'hijr', 'sekolah, dasar', 'an', 'nahl']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'albaqarah', 'ayat', 'ali', 'imran', 'ayat']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'albaqarah', 'ayat', 'ali', 'imran', 'ayat']</t>
+          <t>['khatamqu', 'online', 'qs', 'al', 'hijr', 'sekolah, dasar', 'an', 'nahl']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['khatamqu', 'online', 'qs', 'al', 'hijr', 'sekolah dasar', 'an', 'nahl']</t>
         </is>
       </c>
     </row>
@@ -979,34 +1050,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>13220</v>
+        <v>28825</v>
       </c>
       <c r="C16" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>live now mqu malam musahabah dan munajat quran tema qs adhdhuha ayat bersama kh bachtiar nasir</t>
+          <t>live now mqu malam musahabah dan munajat quran tadabbur qs adh dhuha ayat tema atas semua nikmat tuha</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'tema', 'qs', 'adhdhuha', 'ayat', 'bersama', 'kh', 'bachtiar', 'nasir']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'tadabbur', 'qs', 'adh', 'dhuha', 'ayat', 'tema', 'atas', 'semua', 'nikmat', 'tuha']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'alquran', 'tadabbur', 'qs', 'aduh', 'dhuha', 'ayat', 'tema', 'atas', 'semua', 'nikmat', 'tuha']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'qs', 'adhdhuha', 'ayat', 'kh', 'bachtiar', 'nasir']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'qs', 'adhdhuha', 'ayat', 'kh', 'bachtiar', 'nasir']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'alquran', 'tadabbur', 'qs', 'aduh', 'dhuha', 'ayat', 'tema', 'nikmat', 'tuha']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'alquran', 'tadabbur', 'qs', 'aduh', 'dhuha', 'ayat', 'tema', 'nikmat', 'tuha']</t>
         </is>
       </c>
     </row>
@@ -1015,34 +1091,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>13221</v>
+        <v>28826</v>
       </c>
       <c r="C17" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>khatamqu qs albaqarah ayat</t>
+          <t>live now mqu malam musahabah dan munajat quran tadabbur qs adh dhuha ayat tema jangan usir yang memin</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'albaqarah', 'ayat']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'tadabbur', 'qs', 'adh', 'dhuha', 'ayat', 'tema', 'jangan', 'usir', 'yang', 'memin']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'alquran', 'tadabbur', 'qs', 'aduh', 'dhuha', 'ayat', 'tema', 'jangan', 'usir', 'yang', 'memin']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'albaqarah', 'ayat']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'albaqarah', 'ayat']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'alquran', 'tadabbur', 'qs', 'aduh', 'dhuha', 'ayat', 'tema', 'usir', 'memin']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'alquran', 'tadabbur', 'qs', 'aduh', 'dhuha', 'ayat', 'tema', 'usir', 'min']</t>
         </is>
       </c>
     </row>
@@ -1051,34 +1132,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>13222</v>
+        <v>28827</v>
       </c>
       <c r="C18" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>yang paling jelas dan terang adalah allah azza wa jalla</t>
+          <t>khatamqu online qs yusuf sd ar rad</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['yang', 'paling', 'jelas', 'dan', 'terang', 'adalah', 'allah', 'azza', 'wa', 'jalla']</t>
+          <t>['khatamqu', 'online', 'qs', 'yusuf', 'sd', 'ar', 'rad']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['khatamqu', 'online', 'qs', 'yusuf', 'sekolah, dasar', 'ar', 'rad']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['terang', 'allah', 'azza', 'wa', 'jalla']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['terang', 'allah', 'azza', 'wa', 'jalla']</t>
+          <t>['khatamqu', 'online', 'qs', 'yusuf', 'sekolah, dasar', 'ar', 'rad']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['khatamqu', 'online', 'qs', 'yusuf', 'sekolah dasar', 'ar', 'rad']</t>
         </is>
       </c>
     </row>
@@ -1087,34 +1173,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>13223</v>
+        <v>28828</v>
       </c>
       <c r="C19" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>pekerjaan iblis adalah terus berusaha menjadikan yang jelas amp terangbenderang menjadi samar amp remangremang</t>
+          <t>live now mqu malam musahabah dan munajat quran tadabbur qs adh dhuha ayat tema jangan sakiti anak yati</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['pekerjaan', 'iblis', 'adalah', 'terus', 'berusaha', 'menjadikan', 'yang', 'jelas', 'amp', 'terangbenderang', 'menjadi', 'samar', 'amp', 'remangremang']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'tadabbur', 'qs', 'adh', 'dhuha', 'ayat', 'tema', 'jangan', 'sakiti', 'anak', 'yati']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'alquran', 'tadabbur', 'qs', 'aduh', 'dhuha', 'ayat', 'tema', 'jangan', 'menyakiti', 'anak', 'yati']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['pekerjaan', 'iblis', 'berusaha', 'menjadikan', 'terangbenderang', 'samar', 'remangremang']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['kerja', 'iblis', 'usaha', 'jadi', 'terangbenderang', 'samar', 'remangremang']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'alquran', 'tadabbur', 'qs', 'aduh', 'dhuha', 'ayat', 'tema', 'menyakiti', 'anak', 'yati']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'alquran', 'tadabbur', 'qs', 'aduh', 'dhuha', 'ayat', 'tema', 'sakit', 'anak', 'yati']</t>
         </is>
       </c>
     </row>
@@ -1123,34 +1214,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>13224</v>
+        <v>28829</v>
       </c>
       <c r="C20" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>live now mqu malam muhasabah munajat alquran tema tadabbur qs al insyirah ayat kepada rabbmu saja</t>
+          <t>khatamqu online qs hud sd yusuf</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'muhasabah', 'munajat', 'alquran', 'tema', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'kepada', 'rabbmu', 'saja']</t>
+          <t>['khatamqu', 'online', 'qs', 'hud', 'sd', 'yusuf']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['khatamqu', 'online', 'qs', 'hud', 'sekolah, dasar', 'yusuf']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'muhasabah', 'munajat', 'alquran', 'tema', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'rabbmu']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'muhasabah', 'munajat', 'alquran', 'tema', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'rabbmu']</t>
+          <t>['khatamqu', 'online', 'qs', 'hud', 'sekolah, dasar', 'yusuf']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['khatamqu', 'online', 'qs', 'hud', 'sekolah dasar', 'yusuf']</t>
         </is>
       </c>
     </row>
@@ -1159,34 +1255,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>13225</v>
+        <v>28830</v>
       </c>
       <c r="C21" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>kajian mqu tadabbur qs al insyirah ayat kepada rabbmu saja berharap</t>
+          <t>live now mqu malam musahabah dan munajat quran tadabbur alquran tematik tema agar lulus dari ujian hidup</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['kajian', 'mqu', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'kepada', 'rabbmu', 'saja', 'berharap']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'tadabbur', 'alquran', 'tematik', 'tema', 'agar', 'lulus', 'dari', 'ujian', 'hidup']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'alquran', 'tadabbur', 'alquran', 'tematik', 'tema', 'agar', 'lulus', 'dari', 'ujian', 'hidup']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['kajian', 'mqu', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'rabbmu', 'berharap']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['kaji', 'mqu', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'rabbmu', 'harap']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'alquran', 'tadabbur', 'alquran', 'tematik', 'tema', 'lulus', 'ujian', 'hidup']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'alquran', 'tadabbur', 'alquran', 'tematik', 'tema', 'lulus', 'uji', 'hidup']</t>
         </is>
       </c>
     </row>
@@ -1195,34 +1296,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>13226</v>
+        <v>28831</v>
       </c>
       <c r="C22" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>khatamqu qs al baqarah ayat</t>
+          <t>khatamqu online qs hud</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'al', 'baqarah', 'ayat']</t>
+          <t>['khatamqu', 'online', 'qs', 'hud']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['khatamqu', 'online', 'qs', 'hud']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'al', 'baqarah', 'ayat']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'al', 'baqarah', 'ayat']</t>
+          <t>['khatamqu', 'online', 'qs', 'hud']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['khatamqu', 'online', 'qs', 'hud']</t>
         </is>
       </c>
     </row>
@@ -1231,34 +1337,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>13227</v>
+        <v>28832</v>
       </c>
       <c r="C23" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>live now tadabbur alquran tematik tema perintah allah kepada nabi ibrahim untuk membangun kabah bersama</t>
+          <t>live now mqu malam musahabah dan munajat quran tema mukjizat nama amp sifat alquran al matsani bersama</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['live', 'now', 'tadabbur', 'alquran', 'tematik', 'tema', 'perintah', 'allah', 'kepada', 'nabi', 'ibrahim', 'untuk', 'membangun', 'kabah', 'bersama']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'tema', 'mukjizat', 'nama', 'amp', 'sifat', 'alquran', 'al', 'matsani', 'bersama']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'alquran', 'tema', 'mukjizat', 'nama', 'amp', 'sifat', 'alquran', 'al', 'matsani', 'bersama']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['live', 'now', 'tadabbur', 'alquran', 'tematik', 'tema', 'perintah', 'allah', 'nabi', 'ibrahim', 'membangun', 'kabah']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['live', 'now', 'tadabbur', 'alquran', 'tematik', 'tema', 'perintah', 'allah', 'nabi', 'ibrahim', 'bangun', 'kabah']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'alquran', 'tema', 'mukjizat', 'nama', 'sifat', 'alquran', 'al', 'matsani']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'alquran', 'tema', 'mukjizat', 'nama', 'sifat', 'alquran', 'al', 'matsani']</t>
         </is>
       </c>
     </row>
@@ -1267,34 +1378,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>13228</v>
+        <v>28833</v>
       </c>
       <c r="C24" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>khatamqu qs albaqarah ayat</t>
+          <t>khatamqu online qs yunus sd hud</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'albaqarah', 'ayat']</t>
+          <t>['khatamqu', 'online', 'qs', 'yunus', 'sd', 'hud']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['khatamqu', 'online', 'qs', 'yunus', 'sekolah, dasar', 'hud']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'albaqarah', 'ayat']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['khatamqu', 'qs', 'albaqarah', 'ayat']</t>
+          <t>['khatamqu', 'online', 'qs', 'yunus', 'sekolah, dasar', 'hud']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['khatamqu', 'online', 'qs', 'yunus', 'sekolah dasar', 'hud']</t>
         </is>
       </c>
     </row>
@@ -1303,34 +1419,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>13229</v>
+        <v>28834</v>
       </c>
       <c r="C25" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>live now tadabbur mukjizat alquran tema mukjizat sifatsifat al quran at tibyan bersama kh bachtia</t>
+          <t>live now mqu malam musahabah dan munajat quran tema mukjizat alquran sebagai al mutasyabiih bersama</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'al', 'quran', 'at', 'tibyan', 'bersama', 'kh', 'bachtia']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'tema', 'mukjizat', 'alquran', 'sebagai', 'al', 'mutasyabiih', 'bersama']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'alquran', 'tema', 'mukjizat', 'alquran', 'sebagai', 'al', 'mutasyabiih', 'bersama']</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'al', 'quran', 'at', 'tibyan', 'kh', 'bachtia']</t>
-        </is>
-      </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'al', 'quran', 'at', 'tibyan', 'kh', 'bachtia']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'alquran', 'tema', 'mukjizat', 'alquran', 'al', 'mutasyabiih']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'alquran', 'tema', 'mukjizat', 'alquran', 'al', 'mutasyabiih']</t>
         </is>
       </c>
     </row>
@@ -1339,30 +1460,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>13230</v>
+        <v>28835</v>
       </c>
       <c r="C26" t="n">
-        <v>172</v>
-      </c>
-      <c r="D26" t="inlineStr"/>
+        <v>338</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>khatamqu online qs attaubah sd yunus</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['khatamqu', 'online', 'qs', 'attaubah', 'sd', 'yunus']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['khatamqu', 'online', 'qs', 'attaubah', 'sekolah, dasar', 'yunus']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['khatamqu', 'online', 'qs', 'attaubah', 'sekolah, dasar', 'yunus']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['khatamqu', 'online', 'qs', 'attaubah', 'sekolah dasar', 'yunus']</t>
         </is>
       </c>
     </row>
@@ -1371,34 +1501,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>13231</v>
+        <v>28836</v>
       </c>
       <c r="C27" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">live now tadabbur mukjizat alquran tema mukjizat sifatsifat alquran as siraj bersama kh bachtiar </t>
+          <t>khatamqu online qs attaubah sd yunus</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'alquran', 'as', 'siraj', 'bersama', 'kh', 'bachtiar']</t>
+          <t>['khatamqu', 'online', 'qs', 'attaubah', 'sd', 'yunus']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
+          <t>['khatamqu', 'online', 'qs', 'attaubah', 'sekolah, dasar', 'yunus']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'alquran', 'as', 'siraj', 'kh', 'bachtiar']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'alquran', 'as', 'siraj', 'kh', 'bachtiar']</t>
+          <t>['khatamqu', 'online', 'qs', 'attaubah', 'sekolah, dasar', 'yunus']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['khatamqu', 'online', 'qs', 'attaubah', 'sekolah dasar', 'yunus']</t>
         </is>
       </c>
     </row>
@@ -1407,34 +1542,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>13232</v>
+        <v>28837</v>
       </c>
       <c r="C28" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>jangan bermaksiat di bulan rajab memasuki bulan yang dimuliakan allah taala asyhurul hurum yaitu dzulqodah</t>
+          <t>yuk saksikan malam ini live streaming global dzikir amp dua face hardships with worship bersama ustadz dan imam</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['jangan', 'bermaksiat', 'di', 'bulan', 'rajab', 'memasuki', 'bulan', 'yang', 'dimuliakan', 'allah', 'taala', 'asyhurul', 'hurum', 'yaitu', 'dzulqodah']</t>
+          <t>['yuk', 'saksikan', 'malam', 'ini', 'live', 'streaming', 'global', 'dzikir', 'amp', 'dua', 'face', 'hardships', 'with', 'worship', 'bersama', 'ustadz', 'dan', 'imam']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['yuk', 'saksikan', 'malam', 'ini', 'live', 'streaming', 'global', 'zikir', 'amp', 'dua', 'face', 'hardships', 'dengan', 'worship', 'bersama', 'ustaz', 'dan', 'imam']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['bermaksiat', 'rajab', 'memasuki', 'dimuliakan', 'allah', 'taala', 'asyhurul', 'hurum', 'dzulqodah']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['maksiat', 'rajab', 'pasuk', 'mulia', 'allah', 'taala', 'asyhurul', 'hurum', 'dzulqodah']</t>
+          <t>['yuk', 'saksikan', 'malam', 'live', 'streaming', 'global', 'zikir', 'face', 'hardships', 'worship', 'ustaz', 'imam']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['yuk', 'saksi', 'malam', 'live', 'streaming', 'global', 'zikir', 'face', 'hardships', 'worship', 'ustaz', 'imam']</t>
         </is>
       </c>
     </row>
@@ -1443,34 +1583,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>13233</v>
+        <v>28838</v>
       </c>
       <c r="C29" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>khatamqu live stream via</t>
+          <t>khatamqu online qs attaubah</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['khatamqu', 'live', 'stream', 'via']</t>
+          <t>['khatamqu', 'online', 'qs', 'attaubah']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>['khatamqu', 'online', 'qs', 'attaubah']</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>['khatamqu', 'live', 'stream', 'via']</t>
-        </is>
-      </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['khatamqu', 'live', 'stream', 'via']</t>
+          <t>['khatamqu', 'online', 'qs', 'attaubah']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['khatamqu', 'online', 'qs', 'attaubah']</t>
         </is>
       </c>
     </row>
@@ -1479,34 +1624,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>13234</v>
+        <v>28839</v>
       </c>
       <c r="C30" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>penyebab orang tidak merasa bahagia adanya kekerasan dalam hati bekunya air mata karna tak pernah menangis</t>
+          <t>taruh uang amp dunia jangan dihati isilah hati dengan akhirat amp asmanya</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['penyebab', 'orang', 'tidak', 'merasa', 'bahagia', 'adanya', 'kekerasan', 'dalam', 'hati', 'bekunya', 'air', 'mata', 'karna', 'tak', 'pernah', 'menangis']</t>
+          <t>['taruh', 'uang', 'amp', 'dunia', 'jangan', 'dihati', 'isilah', 'hati', 'dengan', 'akhirat', 'amp', 'asmanya']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['taruh', 'uang', 'amp', 'dunia', 'jangan', 'dihati', 'isilah', 'hati', 'dengan', 'akhirat', 'amp', 'asmanya']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['penyebab', 'orang', 'bahagia', 'kekerasan', 'hati', 'bekunya', 'air', 'mata', 'karna', 'menangis']</t>
+          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['sebab', 'orang', 'bahagia', 'keras', 'hati', 'beku', 'air', 'mata', 'karna', 'menang']</t>
+          <t>['taruh', 'uang', 'dunia', 'dihati', 'isilah', 'hati', 'akhirat', 'asmanya']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['taruh', 'uang', 'dunia', 'hati', 'isi', 'hati', 'akhirat', 'asma']</t>
         </is>
       </c>
     </row>
@@ -1515,34 +1665,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>13235</v>
+        <v>28840</v>
       </c>
       <c r="C31" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>launching  ramadhan  tema membangun masyarakat qurani membentuk pribadi pelaku quran kamis</t>
+          <t>live now mqu malam musahabah dan munajat quran tema kamu kekurangan allah mencukupkanmu tadabbur qs adh</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['launching', 'ramadhan', 'tema', 'membangun', 'masyarakat', 'qurani', 'membentuk', 'pribadi', 'pelaku', 'quran', 'kamis']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'tema', 'kamu', 'kekurangan', 'allah', 'mencukupkanmu', 'tadabbur', 'qs', 'adh']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'alquran', 'tema', 'kamu', 'kekurangan', 'allah', 'mencukupkanmu', 'tadabbur', 'qs', 'aduh']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['launching', 'ramadhan', 'tema', 'membangun', 'masyarakat', 'qurani', 'membentuk', 'pribadi', 'pelaku', 'quran', 'kamis']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['launching', 'ramadhan', 'tema', 'bangun', 'masyarakat', 'quran', 'bentuk', 'pribadi', 'laku', 'quran', 'kamis']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'alquran', 'tema', 'kekurangan', 'allah', 'mencukupkanmu', 'tadabbur', 'qs', 'aduh']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'alquran', 'tema', 'kurang', 'allah', 'cukup', 'tadabbur', 'qs', 'aduh']</t>
         </is>
       </c>
     </row>
@@ -1551,34 +1706,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>13236</v>
+        <v>28841</v>
       </c>
       <c r="C32" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">dkm aql islamic center mengajak kita mulai bersiap menyambut ramadhan salah satunya dengan menyibukkan diri </t>
+          <t>khatamqu online qs alanfal sd attaubah</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['dkm', 'aql', 'islamic', 'center', 'mengajak', 'kita', 'mulai', 'bersiap', 'menyambut', 'ramadhan', 'salah', 'satunya', 'dengan', 'menyibukkan', 'diri']</t>
+          <t>['khatamqu', 'online', 'qs', 'alanfal', 'sd', 'attaubah']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['khatamqu', 'online', 'qs', 'alanfal', 'sekolah, dasar', 'attaubah']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['dkm', 'aql', 'islamic', 'center', 'mengajak', 'menyambut', 'ramadhan', 'salah', 'satunya', 'menyibukkan']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['dkm', 'aql', 'islamic', 'center', 'ajak', 'sambut', 'ramadhan', 'salah', 'satu', 'sibuk']</t>
+          <t>['khatamqu', 'online', 'qs', 'alanfal', 'sekolah, dasar', 'attaubah']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['khatamqu', 'online', 'qs', 'alanfal', 'sekolah dasar', 'attaubah']</t>
         </is>
       </c>
     </row>
@@ -1587,34 +1747,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>13237</v>
+        <v>28842</v>
       </c>
       <c r="C33" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>mqu malam muhasabah munajat alquran tema tadabbur qs alinyirah ayat bersama kh bachtiar nasir</t>
+          <t>mqu malam musahabah dan munajat quran tema kamu bingung allah menunjukan jalanmu tadabbur qs adhdhuha aya</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['mqu', 'malam', 'muhasabah', 'munajat', 'alquran', 'tema', 'tadabbur', 'qs', 'alinyirah', 'ayat', 'bersama', 'kh', 'bachtiar', 'nasir']</t>
+          <t>['mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'tema', 'kamu', 'bingung', 'allah', 'menunjukan', 'jalanmu', 'tadabbur', 'qs', 'adhdhuha', 'aya']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['mqu', 'malam', 'musahabah', 'dan', 'munajat', 'alquran', 'tema', 'kamu', 'bingung', 'allah', 'menunjukkan', 'jalanmu', 'tadabbur', 'qs', 'adhdhuha', 'ada']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['mqu', 'malam', 'muhasabah', 'munajat', 'alquran', 'tema', 'tadabbur', 'qs', 'alinyirah', 'ayat', 'kh', 'bachtiar', 'nasir']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['mqu', 'malam', 'muhasabah', 'munajat', 'alquran', 'tema', 'tadabbur', 'qs', 'alinyirah', 'ayat', 'kh', 'bachtiar', 'nasir']</t>
+          <t>['mqu', 'malam', 'musahabah', 'munajat', 'alquran', 'tema', 'bingung', 'allah', 'jalanmu', 'tadabbur', 'qs', 'adhdhuha']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['mqu', 'malam', 'musahabah', 'munajat', 'alquran', 'tema', 'bingung', 'allah', 'jalan', 'tadabbur', 'qs', 'adhdhuha']</t>
         </is>
       </c>
     </row>
@@ -1623,34 +1788,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>13238</v>
+        <v>28843</v>
       </c>
       <c r="C34" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>siapa saja yang menarasikan medsosnya ataupun ucapannya dengan narasi yang bersumber dari alquran pasti nara</t>
+          <t>khatamqu online qs al araf sd alanfal</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['siapa', 'saja', 'yang', 'menarasikan', 'medsosnya', 'ataupun', 'ucapannya', 'dengan', 'narasi', 'yang', 'bersumber', 'dari', 'alquran', 'pasti', 'nara']</t>
+          <t>['khatamqu', 'online', 'qs', 'al', 'araf', 'sd', 'alanfal']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['khatamqu', 'online', 'qs', 'al', 'araf', 'sekolah, dasar', 'alanfal']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['menarasikan', 'medsosnya', 'ucapannya', 'narasi', 'bersumber', 'alquran', 'nara']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['narasi', 'medsosnya', 'ucap', 'narasi', 'sumber', 'alquran', 'nara']</t>
+          <t>['khatamqu', 'online', 'qs', 'al', 'araf', 'sekolah, dasar', 'alanfal']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['khatamqu', 'online', 'qs', 'al', 'araf', 'sekolah dasar', 'alanfal']</t>
         </is>
       </c>
     </row>
@@ -1659,34 +1829,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>13239</v>
+        <v>28844</v>
       </c>
       <c r="C35" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>faktanya di dalam alquran bahwa kesulitan itu merupakan bentuk lain dari kemudahan qs alinsyirah</t>
+          <t>live now mqu malam musahabah dan munajat quran tema kamu yatim allah melindungimu tadabbur qs adhdhu</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['faktanya', 'di', 'dalam', 'alquran', 'bahwa', 'kesulitan', 'itu', 'merupakan', 'bentuk', 'lain', 'dari', 'kemudahan', 'qs', 'alinsyirah']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'tema', 'kamu', 'yatim', 'allah', 'melindungimu', 'tadabbur', 'qs', 'adhdhu']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'alquran', 'tema', 'kamu', 'yatim', 'allah', 'melindungimu', 'tadabbur', 'qs', 'adhdhu']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['faktanya', 'alquran', 'kesulitan', 'bentuk', 'kemudahan', 'qs', 'alinsyirah']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['fakta', 'alquran', 'sulit', 'bentuk', 'mudah', 'qs', 'alinsyirah']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'alquran', 'tema', 'yatim', 'allah', 'melindungimu', 'tadabbur', 'qs', 'adhdhu']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'alquran', 'tema', 'yatim', 'allah', 'lindung', 'tadabbur', 'qs', 'adhdhu']</t>
         </is>
       </c>
     </row>
@@ -1695,34 +1870,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>13240</v>
+        <v>28845</v>
       </c>
       <c r="C36" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>live now mqu malam muhasabah munajat alquran tema dibalik kesulitan ada kemudahan tadabbur qs al</t>
+          <t>live now mqu malam musahabah dan munajat quran tema pengalihan kiblat tadabbur alquran tematik surat</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'muhasabah', 'munajat', 'alquran', 'tema', 'dibalik', 'kesulitan', 'ada', 'kemudahan', 'tadabbur', 'qs', 'al']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'tema', 'pengalihan', 'kiblat', 'tadabbur', 'alquran', 'tematik', 'surat']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'alquran', 'tema', 'pengalihan', 'kiblat', 'tadabbur', 'alquran', 'tematik', 'surat']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'muhasabah', 'munajat', 'alquran', 'tema', 'dibalik', 'kesulitan', 'kemudahan', 'tadabbur', 'qs', 'al']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'muhasabah', 'munajat', 'alquran', 'tema', 'balik', 'sulit', 'mudah', 'tadabbur', 'qs', 'al']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'alquran', 'tema', 'pengalihan', 'kiblat', 'tadabbur', 'alquran', 'tematik', 'surat']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'alquran', 'tema', 'alih', 'kiblat', 'tadabbur', 'alquran', 'tematik', 'surat']</t>
         </is>
       </c>
     </row>
@@ -1731,34 +1911,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>13241</v>
+        <v>28846</v>
       </c>
       <c r="C37" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>kenapa alquran belum begitu terang bagi kita hal itu karena kita belum mengenal alquran sebagai alhaq</t>
+          <t>khatamqu online qs alaraf ayat</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['kenapa', 'alquran', 'belum', 'begitu', 'terang', 'bagi', 'kita', 'hal', 'itu', 'karena', 'kita', 'belum', 'mengenal', 'alquran', 'sebagai', 'alhaq']</t>
+          <t>['khatamqu', 'online', 'qs', 'alaraf', 'ayat']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
+          <t>['khatamqu', 'online', 'qs', 'alaraf', 'ayat']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['alquran', 'terang', 'mengenal', 'alquran', 'alhaq']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['alquran', 'terang', 'kenal', 'alquran', 'alhaq']</t>
+          <t>['khatamqu', 'online', 'qs', 'alaraf', 'ayat']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['khatamqu', 'online', 'qs', 'alaraf', 'ayat']</t>
         </is>
       </c>
     </row>
@@ -1767,34 +1952,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>13242</v>
+        <v>28847</v>
       </c>
       <c r="C38" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>alhaq itu adalah kebenaran yang pasti dan tidak dicampuri sedikitpun oleh keraguan kalau ada sedikit saja keragua</t>
+          <t>live now tadabbur mukjizat alquran tema mukjizat nama amp sifat al quran al mizan bersama kh bachtiar</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['alhaq', 'itu', 'adalah', 'kebenaran', 'yang', 'pasti', 'dan', 'tidak', 'dicampuri', 'sedikitpun', 'oleh', 'keraguan', 'kalau', 'ada', 'sedikit', 'saja', 'keragua']</t>
+          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'nama', 'amp', 'sifat', 'al', 'quran', 'al', 'mizan', 'bersama', 'kh', 'bachtiar']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'nama', 'amp', 'sifat', 'al', 'alquran', 'al', 'mizan', 'bersama', 'kh', 'bachtiar']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['alhaq', 'kebenaran', 'dicampuri', 'sedikitpun', 'keraguan', 'keragua']</t>
+          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['alhaq', 'benar', 'campur', 'sedikit', 'ragu', 'keragua']</t>
+          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'nama', 'sifat', 'al', 'alquran', 'al', 'mizan', 'kh', 'bachtiar']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'nama', 'sifat', 'al', 'alquran', 'al', 'mizan', 'kh', 'bachtiar']</t>
         </is>
       </c>
     </row>
@@ -1803,34 +1993,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>13243</v>
+        <v>28848</v>
       </c>
       <c r="C39" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>live now mqu malam muhasabah munajat alquran tema dibalik kesulitan ada kemudahan tadabbur qs al</t>
+          <t>khatamqu qs al anam ayat al araf</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'muhasabah', 'munajat', 'alquran', 'tema', 'dibalik', 'kesulitan', 'ada', 'kemudahan', 'tadabbur', 'qs', 'al']</t>
+          <t>['khatamqu', 'qs', 'al', 'anam', 'ayat', 'al', 'araf']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['khatamqu', 'qs', 'al', 'anam', 'ayat', 'al', 'araf']</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'muhasabah', 'munajat', 'alquran', 'tema', 'dibalik', 'kesulitan', 'kemudahan', 'tadabbur', 'qs', 'al']</t>
+          <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'muhasabah', 'munajat', 'alquran', 'tema', 'balik', 'sulit', 'mudah', 'tadabbur', 'qs', 'al']</t>
+          <t>['khatamqu', 'qs', 'al', 'anam', 'ayat', 'al', 'araf']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['khatamqu', 'qs', 'al', 'anam', 'ayat', 'al', 'araf']</t>
         </is>
       </c>
     </row>
@@ -1839,34 +2034,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>13244</v>
+        <v>28849</v>
       </c>
       <c r="C40" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>jadikan rumah kita menjadi tempat pengabdian kepada allah swt</t>
+          <t>tidak akan rugi orang yang sudah beristikharah dan musyawarah</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['jadikan', 'rumah', 'kita', 'menjadi', 'tempat', 'pengabdian', 'kepada', 'allah', 'swt']</t>
+          <t>['tidak', 'akan', 'rugi', 'orang', 'yang', 'sudah', 'beristikharah', 'dan', 'musyawarah']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>['tidak', 'akan', 'rugi', 'orang', 'yang', 'sudah', 'beristikharah', 'dan', 'musyawarah']</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>['jadikan', 'rumah', 'pengabdian', 'allah', 'swt']</t>
-        </is>
-      </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['jadi', 'rumah', 'abdi', 'allah', 'swt']</t>
+          <t>['rugi', 'orang', 'beristikharah', 'musyawarah']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['rugi', 'orang', 'istikharah', 'musyawarah']</t>
         </is>
       </c>
     </row>
@@ -1875,34 +2075,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>13245</v>
+        <v>28850</v>
       </c>
       <c r="C41" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">live now tadabbur alquran tematik tema keistimewaan nabi ibrahim as bersama kh bachtiar nasir kh </t>
+          <t>live now tadabbur mukjizat alquran tema mukjizat nama amp sifat alquran adzdzikra bersama kh bacht</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['live', 'now', 'tadabbur', 'alquran', 'tematik', 'tema', 'keistimewaan', 'nabi', 'ibrahim', 'as', 'bersama', 'kh', 'bachtiar', 'nasir', 'kh']</t>
+          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'nama', 'amp', 'sifat', 'alquran', 'adzdzikra', 'bersama', 'kh', 'bacht']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'nama', 'amp', 'sifat', 'alquran', 'adzdzikra', 'bersama', 'kh', 'bacht']</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['live', 'now', 'tadabbur', 'alquran', 'tematik', 'tema', 'keistimewaan', 'nabi', 'ibrahim', 'as', 'kh', 'bachtiar', 'nasir', 'kh']</t>
+          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['live', 'now', 'tadabbur', 'alquran', 'tematik', 'tema', 'istimewa', 'nabi', 'ibrahim', 'as', 'kh', 'bachtiar', 'nasir', 'kh']</t>
+          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'nama', 'sifat', 'alquran', 'adzdzikra', 'kh', 'bacht']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'nama', 'sifat', 'alquran', 'adzdzikra', 'kh', 'bacht']</t>
         </is>
       </c>
     </row>
@@ -1911,34 +2116,35 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>13246</v>
+        <v>28851</v>
       </c>
       <c r="C42" t="n">
-        <v>172</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">live now tadabbur mukjizat alquran tema mukjizat sifatsifat alquran adzdzikr bersama kh bachtiar </t>
-        </is>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'alquran', 'adzdzikr', 'bersama', 'kh', 'bachtiar']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 13 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'alquran', 'adzdzikr', 'kh', 'bachtiar']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'alquran', 'adzdzikr', 'kh', 'bachtiar']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1947,34 +2153,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>13247</v>
+        <v>28852</v>
       </c>
       <c r="C43" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>jejak sejarah mataram islam di jogjakarta</t>
+          <t>assalammualaykum sahabat surga ksp yuk mulaikan hari mu dengan menyimak kuliah semangat pagi ditemani oleh gu</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['jejak', 'sejarah', 'mataram', 'islam', 'di', 'jogjakarta']</t>
+          <t>['assalammualaykum', 'sahabat', 'surga', 'ksp', 'yuk', 'mulaikan', 'hari', 'mu', 'dengan', 'menyimak', 'kuliah', 'semangat', 'pagi', 'ditemani', 'oleh', 'gu']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['assalammualaykum', 'sahabat', 'surga', 'ksp', 'yuk', 'mulaikan', 'hari', 'mu', 'dengan', 'menyimak', 'kuliah', 'semangat', 'pagi', 'ditemani', 'oleh', 'gu']</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['jejak', 'sejarah', 'mataram', 'islam', 'jogjakarta']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['jejak', 'sejarah', 'mataram', 'islam', 'jogjakarta']</t>
+          <t>['assalammualaykum', 'sahabat', 'surga', 'ksp', 'yuk', 'mulaikan', 'mu', 'menyimak', 'kuliah', 'semangat', 'pagi', 'ditemani', 'gu']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['assalammualaykum', 'sahabat', 'surga', 'ksp', 'yuk', 'mulai', 'mu', 'simak', 'kuliah', 'semangat', 'pagi', 'tani', 'gu']</t>
         </is>
       </c>
     </row>
@@ -1983,34 +2194,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>13248</v>
+        <v>28853</v>
       </c>
       <c r="C44" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>sampai kapan kita harus bersabar sampai kedua kaki kita menapak di surga karena bersabar itu berarti menahan diri</t>
+          <t>yuk saksikan malam ini live streaming global dzikir amp dua face hardships with worship bersama ustadz dan imam</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['sampai', 'kapan', 'kita', 'harus', 'bersabar', 'sampai', 'kedua', 'kaki', 'kita', 'menapak', 'di', 'surga', 'karena', 'bersabar', 'itu', 'berarti', 'menahan', 'diri']</t>
+          <t>['yuk', 'saksikan', 'malam', 'ini', 'live', 'streaming', 'global', 'dzikir', 'amp', 'dua', 'face', 'hardships', 'with', 'worship', 'bersama', 'ustadz', 'dan', 'imam']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 18 outcomes&gt;</t>
+          <t>['yuk', 'saksikan', 'malam', 'ini', 'live', 'streaming', 'global', 'zikir', 'amp', 'dua', 'face', 'hardships', 'dengan', 'worship', 'bersama', 'ustaz', 'dan', 'imam']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['bersabar', 'kaki', 'menapak', 'surga', 'bersabar', 'menahan']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['sabar', 'kaki', 'tapak', 'surga', 'sabar', 'tahan']</t>
+          <t>['yuk', 'saksikan', 'malam', 'live', 'streaming', 'global', 'zikir', 'face', 'hardships', 'worship', 'ustaz', 'imam']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['yuk', 'saksi', 'malam', 'live', 'streaming', 'global', 'zikir', 'face', 'hardships', 'worship', 'ustaz', 'imam']</t>
         </is>
       </c>
     </row>
@@ -2019,34 +2235,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>13249</v>
+        <v>28854</v>
       </c>
       <c r="C45" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>merampas keadilan membuatmu menjadi orang zhalim dan orang zalim akan berhadapan lansung dengan allah yang maha kua</t>
+          <t>khatamqu qs al maidah al anam</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['merampas', 'keadilan', 'membuatmu', 'menjadi', 'orang', 'zhalim', 'dan', 'orang', 'zalim', 'akan', 'berhadapan', 'lansung', 'dengan', 'allah', 'yang', 'maha', 'kua']</t>
+          <t>['khatamqu', 'qs', 'al', 'maidah', 'al', 'anam']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['khatamqu', 'qs', 'al', 'almaidah', 'al', 'anam']</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['merampas', 'keadilan', 'membuatmu', 'orang', 'zhalim', 'orang', 'zalim', 'berhadapan', 'lansung', 'allah', 'maha', 'kua']</t>
+          <t>&lt;FreqDist with 5 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['rampas', 'adil', 'buat', 'orang', 'zhalim', 'orang', 'zalim', 'hadap', 'lansung', 'allah', 'maha', 'kua']</t>
+          <t>['khatamqu', 'qs', 'al', 'almaidah', 'al', 'anam']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['khatamqu', 'qs', 'al', 'almaidah', 'al', 'anam']</t>
         </is>
       </c>
     </row>
@@ -2055,34 +2276,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>13250</v>
+        <v>28855</v>
       </c>
       <c r="C46" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>pedang keadilan allah pasti akan memenggal leher kezhaliman itu pasti tetapi kapan dimana dan bagaimana berapa</t>
+          <t>live now mqu malam musahabah dan munajat quran tema balasan nikmat tiada terhingga</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['pedang', 'keadilan', 'allah', 'pasti', 'akan', 'memenggal', 'leher', 'kezhaliman', 'itu', 'pasti', 'tetapi', 'kapan', 'dimana', 'dan', 'bagaimana', 'berapa']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'tema', 'balasan', 'nikmat', 'tiada', 'terhingga']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'alquran', 'tema', 'balasan', 'nikmat', 'tiada', 'terhingga']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['pedang', 'keadilan', 'allah', 'memenggal', 'leher', 'kezhaliman', 'dimana']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['pedang', 'adil', 'allah', 'penggal', 'leher', 'kezhaliman', 'mana']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'alquran', 'tema', 'balasan', 'nikmat', 'tiada', 'terhingga']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'alquran', 'tema', 'balas', 'nikmat', 'tiada', 'hingga']</t>
         </is>
       </c>
     </row>
@@ -2091,34 +2317,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>13251</v>
+        <v>28856</v>
       </c>
       <c r="C47" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>yuk tadabbur malam ini live now</t>
+          <t>khatamqu qs al maidah</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['yuk', 'tadabbur', 'malam', 'ini', 'live', 'now']</t>
+          <t>['khatamqu', 'qs', 'al', 'maidah']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['khatamqu', 'qs', 'al', 'almaidah']</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['yuk', 'tadabbur', 'malam', 'live', 'now']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['yuk', 'tadabbur', 'malam', 'live', 'now']</t>
+          <t>['khatamqu', 'qs', 'al', 'almaidah']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['khatamqu', 'qs', 'al', 'almaidah']</t>
         </is>
       </c>
     </row>
@@ -2127,34 +2358,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>13252</v>
+        <v>28857</v>
       </c>
       <c r="C48" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>hikmah dari rihlah ilmiah ke kampung said nursi di barla turki</t>
+          <t>live now mqu malam musahabah dan munajat quran tema akhiratlah yang terbaik</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['hikmah', 'dari', 'rihlah', 'ilmiah', 'ke', 'kampung', 'said', 'nursi', 'di', 'barla', 'turki']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'tema', 'akhiratlah', 'yang', 'terbaik']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'alquran', 'tema', 'akhiratlah', 'yang', 'terbaik']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['hikmah', 'rihlah', 'ilmiah', 'kampung', 'said', 'nursi', 'barla', 'turki']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['hikmah', 'rihlah', 'ilmiah', 'kampung', 'said', 'nursi', 'barla', 'turki']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'alquran', 'tema', 'akhiratlah', 'terbaik']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'alquran', 'tema', 'akhirat', 'baik']</t>
         </is>
       </c>
     </row>
@@ -2163,34 +2399,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>13253</v>
+        <v>28858</v>
       </c>
       <c r="C49" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>assalamualaikum wr we hari ini jumat yuk kita belajar sunnah nabi</t>
+          <t>khatamqu qs an nisa ayat al maidah</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'wr', 'we', 'hari', 'ini', 'jumat', 'yuk', 'kita', 'belajar', 'sunnah', 'nabi']</t>
+          <t>['khatamqu', 'qs', 'an', 'nisa', 'ayat', 'al', 'maidah']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['khatamqu', 'qs', 'an', 'nisa', 'ayat', 'al', 'almaidah']</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'wr', 'we', 'jumat', 'yuk', 'belajar', 'sunnah', 'nabi']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'wr', 'we', 'jumat', 'yuk', 'ajar', 'sunnah', 'nabi']</t>
+          <t>['khatamqu', 'qs', 'an', 'nisa', 'ayat', 'al', 'almaidah']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['khatamqu', 'qs', 'an', 'nisa', 'ayat', 'al', 'almaidah']</t>
         </is>
       </c>
     </row>
@@ -2199,34 +2440,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>13254</v>
+        <v>28859</v>
       </c>
       <c r="C50" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>malam ini live streaming global dzikir amp dua face hardships with worship bersama ustadz dan imam mancanegara ha</t>
+          <t>live now mqu malam musahabah dan munajat quran tema tuhanmu tidak meninggalkanmu amp membencimu bersama</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['malam', 'ini', 'live', 'streaming', 'global', 'dzikir', 'amp', 'dua', 'face', 'hardships', 'with', 'worship', 'bersama', 'ustadz', 'dan', 'imam', 'mancanegara', 'ha']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'tema', 'tuhanmu', 'tidak', 'meninggalkanmu', 'amp', 'membencimu', 'bersama']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'alquran', 'tema', 'tuhanmu', 'tidak', 'meninggalkanmu', 'amp', 'membencimu', 'bersama']</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['malam', 'live', 'streaming', 'global', 'dzikir', 'face', 'hardships', 'with', 'worship', 'ustadz', 'imam', 'mancanegara', 'ha']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['malam', 'live', 'streaming', 'global', 'dzikir', 'face', 'hardships', 'with', 'worship', 'ustadz', 'imam', 'mancanegara', 'ha']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'alquran', 'tema', 'tuhanmu', 'meninggalkanmu', 'membencimu']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'alquran', 'tema', 'tuhan', 'tinggal', 'benci']</t>
         </is>
       </c>
     </row>
@@ -2235,34 +2481,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>13255</v>
+        <v>28860</v>
       </c>
       <c r="C51" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>syarat diterimanya amal lillahi taala mencontoh rasulullah</t>
+          <t>khatamqu qs an nisa</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['syarat', 'diterimanya', 'amal', 'lillahi', 'taala', 'mencontoh', 'rasulullah']</t>
+          <t>['khatamqu', 'qs', 'an', 'nisa']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['khatamqu', 'qs', 'an', 'nisa']</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['syarat', 'diterimanya', 'amal', 'lillahi', 'taala', 'mencontoh', 'rasulullah']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['syarat', 'terima', 'amal', 'lillahi', 'taala', 'contoh', 'rasulullah']</t>
+          <t>['khatamqu', 'qs', 'an', 'nisa']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['khatamqu', 'qs', 'an', 'nisa']</t>
         </is>
       </c>
     </row>
@@ -2271,34 +2522,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>13256</v>
+        <v>28861</v>
       </c>
       <c r="C52" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>live now mqu malam musahabah dan munajat quran tema tadabbur qs al insyirah ayat bukankah aku yang me</t>
+          <t>live now tadabbur alquran tematik tema agama ibrahim beriman kepada semua nabi kitab tanpa membedakannya</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'tema', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'bukankah', 'aku', 'yang', 'me']</t>
+          <t>['live', 'now', 'tadabbur', 'alquran', 'tematik', 'tema', 'agama', 'ibrahim', 'beriman', 'kepada', 'semua', 'nabi', 'kitab', 'tanpa', 'membedakannya']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['live', 'now', 'tadabbur', 'alquran', 'tematik', 'tema', 'agama', 'ibrahim', 'beriman', 'kepada', 'semua', 'nabi', 'kitab', 'tanpa', 'membedakannya']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'me']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'me']</t>
+          <t>['live', 'now', 'tadabbur', 'alquran', 'tematik', 'tema', 'agama', 'ibrahim', 'beriman', 'nabi', 'kitab', 'membedakannya']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['live', 'now', 'tadabbur', 'alquran', 'tematik', 'tema', 'agama', 'ibrahim', 'iman', 'nabi', 'kitab', 'beda']</t>
         </is>
       </c>
     </row>
@@ -2307,34 +2563,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>13257</v>
+        <v>28862</v>
       </c>
       <c r="C53" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>bertemu amp bersama orang saleh dapat menghidupkan qalbu</t>
+          <t>khatamqu qs an nisa ayat</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['bertemu', 'amp', 'bersama', 'orang', 'saleh', 'dapat', 'menghidupkan', 'qalbu']</t>
+          <t>['khatamqu', 'qs', 'an', 'nisa', 'ayat']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['khatamqu', 'qs', 'an', 'nisa', 'ayat']</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['bertemu', 'orang', 'saleh', 'menghidupkan', 'qalbu']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['temu', 'orang', 'saleh', 'hidup', 'qalbu']</t>
+          <t>['khatamqu', 'qs', 'an', 'nisa', 'ayat']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['khatamqu', 'qs', 'an', 'nisa', 'ayat']</t>
         </is>
       </c>
     </row>
@@ -2343,34 +2604,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>13258</v>
+        <v>28863</v>
       </c>
       <c r="C54" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>live now mqu malam musahabah dan munajat quran tema tadabbur qs al insyirah ayat yang memberatkan pu</t>
+          <t>khatamqu qs ali imran ayat an nisa ayat</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'tema', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'yang', 'memberatkan', 'pu']</t>
+          <t>['khatamqu', 'qs', 'ali', 'imran', 'ayat', 'an', 'nisa', 'ayat']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['khatamqu', 'qs', 'ali', 'imran', 'ayat', 'an', 'nisa', 'ayat']</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'memberatkan', 'pu']</t>
+          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'berat', 'pu']</t>
+          <t>['khatamqu', 'qs', 'ali', 'imran', 'ayat', 'an', 'nisa', 'ayat']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['khatamqu', 'qs', 'ali', 'imran', 'ayat', 'an', 'nisa', 'ayat']</t>
         </is>
       </c>
     </row>
@@ -2379,34 +2645,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>13259</v>
+        <v>28864</v>
       </c>
       <c r="C55" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>amar maruf harus dengan cara yang maruf dan nahi mungkar jangan sampai menimbulkan kemungkaran yang lebih besar</t>
+          <t>khatamqu qs ali imran ayat ali imran ayat</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['amar', 'maruf', 'harus', 'dengan', 'cara', 'yang', 'maruf', 'dan', 'nahi', 'mungkar', 'jangan', 'sampai', 'menimbulkan', 'kemungkaran', 'yang', 'lebih', 'besar']</t>
+          <t>['khatamqu', 'qs', 'ali', 'imran', 'ayat', 'ali', 'imran', 'ayat']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['khatamqu', 'qs', 'ali', 'imran', 'ayat', 'ali', 'imran', 'ayat']</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['amar', 'maruf', 'maruf', 'nahi', 'mungkar', 'menimbulkan', 'kemungkaran']</t>
+          <t>&lt;FreqDist with 5 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['amar', 'maruf', 'maruf', 'nahi', 'mungkar', 'timbul', 'mungkar']</t>
+          <t>['khatamqu', 'qs', 'ali', 'imran', 'ayat', 'ali', 'imran', 'ayat']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['khatamqu', 'qs', 'ali', 'imran', 'ayat', 'ali', 'imran', 'ayat']</t>
         </is>
       </c>
     </row>
@@ -2415,34 +2686,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>13260</v>
+        <v>28865</v>
       </c>
       <c r="C56" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>seringkali kita mundur atau takut untuk menjadi penerus risalah muhammad saw dalam amar maruf nahi munkar khususny</t>
+          <t>khatamqu qs ali imran ayat ali imran ayat</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['seringkali', 'kita', 'mundur', 'atau', 'takut', 'untuk', 'menjadi', 'penerus', 'risalah', 'muhammad', 'saw', 'dalam', 'amar', 'maruf', 'nahi', 'munkar', 'khususny']</t>
+          <t>['khatamqu', 'qs', 'ali', 'imran', 'ayat', 'ali', 'imran', 'ayat']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['khatamqu', 'qs', 'ali', 'imran', 'ayat', 'ali', 'imran', 'ayat']</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['seringkali', 'mundur', 'takut', 'penerus', 'risalah', 'muhammad', 'saw', 'amar', 'maruf', 'nahi', 'munkar', 'khususny']</t>
+          <t>&lt;FreqDist with 5 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['seringkali', 'mundur', 'takut', 'terus', 'risalah', 'muhammad', 'saw', 'amar', 'maruf', 'nahi', 'munkar', 'khususny']</t>
+          <t>['khatamqu', 'qs', 'ali', 'imran', 'ayat', 'ali', 'imran', 'ayat']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['khatamqu', 'qs', 'ali', 'imran', 'ayat', 'ali', 'imran', 'ayat']</t>
         </is>
       </c>
     </row>
@@ -2451,34 +2727,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>13261</v>
+        <v>28866</v>
       </c>
       <c r="C57" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">live now mqu malam musahabah dan munajat quran tema tadabbur qs al insyirah ayat bukankah aku yang </t>
+          <t>kajian mqu tadabbur qs addhuha ayat demi malam yang sunyi</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'tema', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'bukankah', 'aku', 'yang']</t>
+          <t>['kajian', 'mqu', 'tadabbur', 'qs', 'addhuha', 'ayat', 'demi', 'malam', 'yang', 'sunyi']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['kajian', 'mqu', 'tadabbur', 'qs', 'addhuha', 'ayat', 'demi', 'malam', 'yang', 'sunyi']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat']</t>
+          <t>['kajian', 'mqu', 'tadabbur', 'qs', 'addhuha', 'ayat', 'malam', 'sunyi']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['kaji', 'mqu', 'tadabbur', 'qs', 'addhuha', 'ayat', 'malam', 'sunyi']</t>
         </is>
       </c>
     </row>
@@ -2487,34 +2768,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>13262</v>
+        <v>28867</v>
       </c>
       <c r="C58" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>jangan sampai kita bangga dipuji orang lain karna bukan karya dari diri sendiri</t>
+          <t>live now mqu malam musahabah dan munajat quran tema tadabbur qs addhuha ayat demi malam yang sunyi</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['jangan', 'sampai', 'kita', 'bangga', 'dipuji', 'orang', 'lain', 'karna', 'bukan', 'karya', 'dari', 'diri', 'sendiri']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'tema', 'tadabbur', 'qs', 'addhuha', 'ayat', 'demi', 'malam', 'yang', 'sunyi']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'alquran', 'tema', 'tadabbur', 'qs', 'addhuha', 'ayat', 'demi', 'malam', 'yang', 'sunyi']</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['bangga', 'dipuji', 'orang', 'karna', 'karya']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['bangga', 'puji', 'orang', 'karna', 'karya']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'alquran', 'tema', 'tadabbur', 'qs', 'addhuha', 'ayat', 'malam', 'sunyi']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'alquran', 'tema', 'tadabbur', 'qs', 'addhuha', 'ayat', 'malam', 'sunyi']</t>
         </is>
       </c>
     </row>
@@ -2523,34 +2809,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>13263</v>
+        <v>28868</v>
       </c>
       <c r="C59" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>orang yang jiwanya lemah adalah orang yang gampang takjub apalagi yang bersifat keduniaan</t>
+          <t>khatamqu qs albaqarah ayat ali imran ayat</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['orang', 'yang', 'jiwanya', 'lemah', 'adalah', 'orang', 'yang', 'gampang', 'takjub', 'apalagi', 'yang', 'bersifat', 'keduniaan']</t>
+          <t>['khatamqu', 'qs', 'albaqarah', 'ayat', 'ali', 'imran', 'ayat']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 13 outcomes&gt;</t>
+          <t>['khatamqu', 'qs', 'albaqarah', 'ayat', 'ali', 'imran', 'ayat']</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['orang', 'jiwanya', 'lemah', 'orang', 'gampang', 'takjub', 'bersifat', 'keduniaan']</t>
+          <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['orang', 'jiwa', 'lemah', 'orang', 'gampang', 'takjub', 'sifat', 'dunia']</t>
+          <t>['khatamqu', 'qs', 'albaqarah', 'ayat', 'ali', 'imran', 'ayat']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['khatamqu', 'qs', 'albaqarah', 'ayat', 'ali', 'imran', 'ayat']</t>
         </is>
       </c>
     </row>
@@ -2559,34 +2850,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>13264</v>
+        <v>28869</v>
       </c>
       <c r="C60" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>live now taadabbur alquran tematik tema yahudi tidak akan pernah rela dengan risalah muhammad saw bersam</t>
+          <t>live now mqu malam musahabah dan munajat quran tema qs adhdhuha ayat bersama kh bachtiar nasir</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['live', 'now', 'taadabbur', 'alquran', 'tematik', 'tema', 'yahudi', 'tidak', 'akan', 'pernah', 'rela', 'dengan', 'risalah', 'muhammad', 'saw', 'bersam']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'tema', 'qs', 'adhdhuha', 'ayat', 'bersama', 'kh', 'bachtiar', 'nasir']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'alquran', 'tema', 'qs', 'adhdhuha', 'ayat', 'bersama', 'kh', 'bachtiar', 'nasir']</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>['live', 'now', 'taadabbur', 'alquran', 'tematik', 'tema', 'yahudi', 'rela', 'risalah', 'muhammad', 'saw', 'bersam']</t>
-        </is>
-      </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['live', 'now', 'taadabbur', 'alquran', 'tematik', 'tema', 'yahudi', 'rela', 'risalah', 'muhammad', 'saw', 'bersam']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'alquran', 'tema', 'qs', 'adhdhuha', 'ayat', 'kh', 'bachtiar', 'nasir']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'alquran', 'tema', 'qs', 'adhdhuha', 'ayat', 'kh', 'bachtiar', 'nasir']</t>
         </is>
       </c>
     </row>
@@ -2595,34 +2891,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>13265</v>
+        <v>28870</v>
       </c>
       <c r="C61" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>alquran itu seperti berlian semua sisinya berkilau bertadabbur menjadikan kita mendapatkan banyak sisi yang men</t>
+          <t>khatamqu qs albaqarah ayat</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['alquran', 'itu', 'seperti', 'berlian', 'semua', 'sisinya', 'berkilau', 'bertadabbur', 'menjadikan', 'kita', 'mendapatkan', 'banyak', 'sisi', 'yang', 'men']</t>
+          <t>['khatamqu', 'qs', 'albaqarah', 'ayat']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['khatamqu', 'qs', 'albaqarah', 'ayat']</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['alquran', 'berlian', 'sisinya', 'berkilau', 'bertadabbur', 'menjadikan', 'sisi', 'men']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['alquran', 'berlian', 'sisi', 'kilau', 'bertadabbur', 'jadi', 'sisi', 'men']</t>
+          <t>['khatamqu', 'qs', 'albaqarah', 'ayat']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['khatamqu', 'qs', 'albaqarah', 'ayat']</t>
         </is>
       </c>
     </row>
@@ -2631,34 +2932,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>13266</v>
+        <v>28871</v>
       </c>
       <c r="C62" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>tujuan kisah di dalam alquran itu agar kita menapaktilasi jejak kisah umat masa lalu atau peristiwa besar masa la</t>
+          <t>yang paling jelas dan terang adalah allah azza wa jalla</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['tujuan', 'kisah', 'di', 'dalam', 'alquran', 'itu', 'agar', 'kita', 'menapaktilasi', 'jejak', 'kisah', 'umat', 'masa', 'lalu', 'atau', 'peristiwa', 'besar', 'masa', 'la']</t>
+          <t>['yang', 'paling', 'jelas', 'dan', 'terang', 'adalah', 'allah', 'azza', 'wa', 'jalla']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['yang', 'paling', 'jelas', 'dan', 'terang', 'adalah', 'allah', 'azza', 'wa', 'jalla']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['tujuan', 'kisah', 'alquran', 'menapaktilasi', 'jejak', 'kisah', 'umat', 'peristiwa', 'la']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['tuju', 'kisah', 'alquran', 'menapaktilasi', 'jejak', 'kisah', 'umat', 'peristiwa', 'la']</t>
+          <t>['terang', 'allah', 'azza', 'wa', 'jalla']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['terang', 'allah', 'azza', 'wa', 'jalla']</t>
         </is>
       </c>
     </row>
@@ -2667,34 +2973,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>13267</v>
+        <v>28872</v>
       </c>
       <c r="C63" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>live now taadabbur mukjizat alquran tema mukjizat nama amp sifat alquran almuhaimin bersama kh bachti</t>
+          <t>pekerjaan iblis adalah terus berusaha menjadikan yang jelas amp terangbenderang menjadi samar amp remangremang</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['live', 'now', 'taadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'nama', 'amp', 'sifat', 'alquran', 'almuhaimin', 'bersama', 'kh', 'bachti']</t>
+          <t>['pekerjaan', 'iblis', 'adalah', 'terus', 'berusaha', 'menjadikan', 'yang', 'jelas', 'amp', 'terangbenderang', 'menjadi', 'samar', 'amp', 'remangremang']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
+          <t>['pekerjaan', 'iblis', 'adalah', 'terus', 'berusaha', 'menjadikan', 'yang', 'jelas', 'amp', 'terangbenderang', 'menjadi', 'samar', 'amp', 'remangremang']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['live', 'now', 'taadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'nama', 'sifat', 'alquran', 'almuhaimin', 'kh', 'bachti']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['live', 'now', 'taadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'nama', 'sifat', 'alquran', 'almuhaimin', 'kh', 'bachti']</t>
+          <t>['pekerjaan', 'iblis', 'berusaha', 'menjadikan', 'terangbenderang', 'samar', 'remangremang']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['kerja', 'iblis', 'usaha', 'jadi', 'terangbenderang', 'samar', 'remangremang']</t>
         </is>
       </c>
     </row>
@@ -2703,34 +3014,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>13268</v>
+        <v>28873</v>
       </c>
       <c r="C64" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>live now taadabbur mukjizat alquran tema mukjizat nama amp sifat alquran alqasas bersama kh bachtiar</t>
+          <t>live now mqu malam muhasabah munajat alquran tema tadabbur qs al insyirah ayat kepada rabbmu saja</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['live', 'now', 'taadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'nama', 'amp', 'sifat', 'alquran', 'alqasas', 'bersama', 'kh', 'bachtiar']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'muhasabah', 'munajat', 'alquran', 'tema', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'kepada', 'rabbmu', 'saja']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
+          <t>['live', 'now', 'mqu', 'malam', 'muhasabah', 'munajat', 'alquran', 'tema', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'kepada', 'rabbmu', 'saja']</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['live', 'now', 'taadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'nama', 'sifat', 'alquran', 'alqasas', 'kh', 'bachtiar']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['live', 'now', 'taadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'nama', 'sifat', 'alquran', 'alqasas', 'kh', 'bachtiar']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'muhasabah', 'munajat', 'alquran', 'tema', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'rabbmu']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['live', 'now', 'mqu', 'malam', 'muhasabah', 'munajat', 'alquran', 'tema', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'rabbmu']</t>
         </is>
       </c>
     </row>
@@ -2739,34 +3055,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>13269</v>
+        <v>28874</v>
       </c>
       <c r="C65" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>resep rezeki tak terputus dimasa pandemi bersyukur berikhtiar bernazar zakat infaq amp sedekah</t>
+          <t>kajian mqu tadabbur qs al insyirah ayat kepada rabbmu saja berharap</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['resep', 'rezeki', 'tak', 'terputus', 'dimasa', 'pandemi', 'bersyukur', 'berikhtiar', 'bernazar', 'zakat', 'infaq', 'amp', 'sedekah']</t>
+          <t>['kajian', 'mqu', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'kepada', 'rabbmu', 'saja', 'berharap']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['kajian', 'mqu', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'kepada', 'rabbmu', 'saja', 'berharap']</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['resep', 'rezeki', 'terputus', 'dimasa', 'pandemi', 'bersyukur', 'berikhtiar', 'bernazar', 'zakat', 'infaq', 'sedekah']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['resep', 'rezeki', 'putus', 'masa', 'pandemi', 'syukur', 'ikhtiar', 'nazar', 'zakat', 'infaq', 'sedekah']</t>
+          <t>['kajian', 'mqu', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'rabbmu', 'berharap']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['kaji', 'mqu', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'rabbmu', 'harap']</t>
         </is>
       </c>
     </row>
@@ -2775,34 +3096,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>13270</v>
+        <v>28875</v>
       </c>
       <c r="C66" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>pekerjaan yang paling cepat mendatangkan rezeki adalah shalat amp membaca alquran</t>
+          <t>khatamqu qs al baqarah ayat</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['pekerjaan', 'yang', 'paling', 'cepat', 'mendatangkan', 'rezeki', 'adalah', 'shalat', 'amp', 'membaca', 'alquran']</t>
+          <t>['khatamqu', 'qs', 'al', 'baqarah', 'ayat']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['khatamqu', 'qs', 'al', 'baqarah', 'ayat']</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['pekerjaan', 'cepat', 'rezeki', 'shalat', 'membaca', 'alquran']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['kerja', 'cepat', 'rezeki', 'shalat', 'baca', 'alquran']</t>
+          <t>['khatamqu', 'qs', 'al', 'baqarah', 'ayat']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['khatamqu', 'qs', 'al', 'baqarah', 'ayat']</t>
         </is>
       </c>
     </row>
@@ -2811,34 +3137,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>13271</v>
+        <v>28876</v>
       </c>
       <c r="C67" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>mari kita awali hari kita dengan hal yang positif dan bersemangat dengan menyimak kajian kuliah semangat pagi denga</t>
+          <t>live now tadabbur alquran tematik tema perintah allah kepada nabi ibrahim untuk membangun kabah bersama</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['mari', 'kita', 'awali', 'hari', 'kita', 'dengan', 'hal', 'yang', 'positif', 'dan', 'bersemangat', 'dengan', 'menyimak', 'kajian', 'kuliah', 'semangat', 'pagi', 'denga']</t>
+          <t>['live', 'now', 'tadabbur', 'alquran', 'tematik', 'tema', 'perintah', 'allah', 'kepada', 'nabi', 'ibrahim', 'untuk', 'membangun', 'kabah', 'bersama']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>['live', 'now', 'tadabbur', 'alquran', 'tematik', 'tema', 'perintah', 'allah', 'kepada', 'nabi', 'ibrahim', 'untuk', 'membangun', 'kabah', 'bersama']</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['mari', 'awali', 'positif', 'bersemangat', 'menyimak', 'kajian', 'kuliah', 'semangat', 'pagi', 'denga']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['mari', 'awal', 'positif', 'semangat', 'simak', 'kaji', 'kuliah', 'semangat', 'pagi', 'denga']</t>
+          <t>['live', 'now', 'tadabbur', 'alquran', 'tematik', 'tema', 'perintah', 'allah', 'nabi', 'ibrahim', 'membangun', 'kabah']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['live', 'now', 'tadabbur', 'alquran', 'tematik', 'tema', 'perintah', 'allah', 'nabi', 'ibrahim', 'bangun', 'kabah']</t>
         </is>
       </c>
     </row>
@@ -2847,34 +3178,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>13272</v>
+        <v>28877</v>
       </c>
       <c r="C68" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t xml:space="preserve">diantara bukti adilnya allah adalah adanya hukumhukumnya yang benarbenar paling adil tidak ada makhluk yg bisa </t>
+          <t>khatamqu qs albaqarah ayat</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['diantara', 'bukti', 'adilnya', 'allah', 'adalah', 'adanya', 'hukumhukumnya', 'yang', 'benarbenar', 'paling', 'adil', 'tidak', 'ada', 'makhluk', 'yg', 'bisa']</t>
+          <t>['khatamqu', 'qs', 'albaqarah', 'ayat']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['khatamqu', 'qs', 'albaqarah', 'ayat']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['bukti', 'adilnya', 'allah', 'hukumhukumnya', 'benarbenar', 'adil', 'makhluk']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['bukti', 'adil', 'allah', 'hukumhukumnya', 'benarbenar', 'adil', 'makhluk']</t>
+          <t>['khatamqu', 'qs', 'albaqarah', 'ayat']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['khatamqu', 'qs', 'albaqarah', 'ayat']</t>
         </is>
       </c>
     </row>
@@ -2883,34 +3219,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>13273</v>
+        <v>28878</v>
       </c>
       <c r="C69" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>dimanapun orang sombong akan berhadapan dengan kekuatan allah dan ia akan dihinakan oleh allah azza wa jalla</t>
+          <t>live now tadabbur mukjizat alquran tema mukjizat sifatsifat al quran at tibyan bersama kh bachtia</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['dimanapun', 'orang', 'sombong', 'akan', 'berhadapan', 'dengan', 'kekuatan', 'allah', 'dan', 'ia', 'akan', 'dihinakan', 'oleh', 'allah', 'azza', 'wa', 'jalla']</t>
+          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'al', 'quran', 'at', 'tibyan', 'bersama', 'kh', 'bachtia']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'al', 'alquran', 'at', 'tibyan', 'bersama', 'kh', 'bachtia']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['dimanapun', 'orang', 'sombong', 'berhadapan', 'kekuatan', 'allah', 'dihinakan', 'allah', 'azza', 'wa', 'jalla']</t>
+          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['mana', 'orang', 'sombong', 'hadap', 'kuat', 'allah', 'hina', 'allah', 'azza', 'wa', 'jalla']</t>
+          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'al', 'alquran', 'at', 'tibyan', 'kh', 'bachtia']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'al', 'alquran', 'at', 'tibyan', 'kh', 'bachtia']</t>
         </is>
       </c>
     </row>
@@ -2919,34 +3260,35 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>13274</v>
+        <v>28879</v>
       </c>
       <c r="C70" t="n">
-        <v>172</v>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>live now mqu malam musahabah dan munajat quran tema allah swt saja hakkm yang adil bersama kh bachti</t>
-        </is>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'tema', 'allah', 'swt', 'saja', 'hakkm', 'yang', 'adil', 'bersama', 'kh', 'bachti']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'allah', 'swt', 'hakkm', 'adil', 'kh', 'bachti']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'allah', 'swt', 'hakkm', 'adil', 'kh', 'bachti']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2955,34 +3297,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>13275</v>
+        <v>28880</v>
       </c>
       <c r="C71" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>tidak disebut beragama orang yang tidak berpegang kepada kitab suci yang menjadi referensi agamanya</t>
+          <t xml:space="preserve">live now tadabbur mukjizat alquran tema mukjizat sifatsifat alquran as siraj bersama kh bachtiar </t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['tidak', 'disebut', 'beragama', 'orang', 'yang', 'tidak', 'berpegang', 'kepada', 'kitab', 'suci', 'yang', 'menjadi', 'referensi', 'agamanya']</t>
+          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'alquran', 'as', 'siraj', 'bersama', 'kh', 'bachtiar']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
+          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'alquran', 'as', 'siraj', 'bersama', 'kh', 'bachtiar']</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>['beragama', 'orang', 'berpegang', 'kitab', 'suci', 'referensi', 'agamanya']</t>
-        </is>
-      </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['agama', 'orang', 'pegang', 'kitab', 'suci', 'referensi', 'agama']</t>
+          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'alquran', 'as', 'siraj', 'kh', 'bachtiar']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'alquran', 'as', 'siraj', 'kh', 'bachtiar']</t>
         </is>
       </c>
     </row>
@@ -2991,34 +3338,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>13276</v>
+        <v>28881</v>
       </c>
       <c r="C72" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>benar atau salah suatu agama bukan dilihat dari aspek umatnya tapi dari aspek referensinya yaitu kitab sucinya</t>
+          <t>jangan bermaksiat di bulan rajab memasuki bulan yang dimuliakan allah taala asyhurul hurum yaitu dzulqodah</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['benar', 'atau', 'salah', 'suatu', 'agama', 'bukan', 'dilihat', 'dari', 'aspek', 'umatnya', 'tapi', 'dari', 'aspek', 'referensinya', 'yaitu', 'kitab', 'sucinya']</t>
+          <t>['jangan', 'bermaksiat', 'di', 'bulan', 'rajab', 'memasuki', 'bulan', 'yang', 'dimuliakan', 'allah', 'taala', 'asyhurul', 'hurum', 'yaitu', 'dzulqodah']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['jangan', 'bermaksiat', 'di', 'bulan', 'rajab', 'memasuki', 'bulan', 'yang', 'dimuliakan', 'allah', 'taala', 'asyhurul', 'hurum', 'yaitu', 'dzulqodah']</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['salah', 'agama', 'aspek', 'umatnya', 'aspek', 'referensinya', 'kitab', 'sucinya']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['salah', 'agama', 'aspek', 'umat', 'aspek', 'referensi', 'kitab', 'suci']</t>
+          <t>['bermaksiat', 'rajab', 'memasuki', 'dimuliakan', 'allah', 'taala', 'asyhurul', 'hurum', 'dzulqodah']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['maksiat', 'rajab', 'pasuk', 'mulia', 'allah', 'taala', 'asyhurul', 'hurum', 'dzulqodah']</t>
         </is>
       </c>
     </row>
@@ -3027,34 +3379,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>13277</v>
+        <v>28882</v>
       </c>
       <c r="C73" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>apa yang membuat kita tetap bisa bersatu meski dengan berbeda mazhab kata kuncinya adalah kita bersatu untuk taat</t>
+          <t>khatamqu live stream via</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['apa', 'yang', 'membuat', 'kita', 'tetap', 'bisa', 'bersatu', 'meski', 'dengan', 'berbeda', 'mazhab', 'kata', 'kuncinya', 'adalah', 'kita', 'bersatu', 'untuk', 'taat']</t>
+          <t>['khatamqu', 'live', 'stream', 'via']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>['khatamqu', 'live', 'stream', 'via']</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['bersatu', 'berbeda', 'mazhab', 'kuncinya', 'bersatu', 'taat']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['satu', 'beda', 'mazhab', 'kunci', 'satu', 'taat']</t>
+          <t>['khatamqu', 'live', 'stream', 'via']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['khatamqu', 'live', 'stream', 'via']</t>
         </is>
       </c>
     </row>
@@ -3063,34 +3420,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>13278</v>
+        <v>28883</v>
       </c>
       <c r="C74" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t xml:space="preserve">makna aktifitas sujud di luar shalat adalah selalu menghinakan dirimu di hadapan allah selalu menjadi orang yang </t>
+          <t>penyebab orang tidak merasa bahagia adanya kekerasan dalam hati bekunya air mata karna tak pernah menangis</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['makna', 'aktifitas', 'sujud', 'di', 'luar', 'shalat', 'adalah', 'selalu', 'menghinakan', 'dirimu', 'di', 'hadapan', 'allah', 'selalu', 'menjadi', 'orang', 'yang']</t>
+          <t>['penyebab', 'orang', 'tidak', 'merasa', 'bahagia', 'adanya', 'kekerasan', 'dalam', 'hati', 'bekunya', 'air', 'mata', 'karna', 'tak', 'pernah', 'menangis']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['penyebab', 'orang', 'tidak', 'merasa', 'bahagia', 'adanya', 'kekerasan', 'dalam', 'hati', 'bekunya', 'air', 'mata', 'karena', 'tak', 'pernah', 'menangis']</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['makna', 'aktifitas', 'sujud', 'shalat', 'menghinakan', 'dirimu', 'hadapan', 'allah', 'orang']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['makna', 'aktifitas', 'sujud', 'shalat', 'hina', 'diri', 'hadap', 'allah', 'orang']</t>
+          <t>['penyebab', 'orang', 'bahagia', 'kekerasan', 'hati', 'bekunya', 'air', 'mata', 'menangis']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['sebab', 'orang', 'bahagia', 'keras', 'hati', 'beku', 'air', 'mata', 'menang']</t>
         </is>
       </c>
     </row>
@@ -3099,34 +3461,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>13279</v>
+        <v>28884</v>
       </c>
       <c r="C75" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>jika alquran adalah rahmat bagi orang beriman sebaliknya bagi orang zhalim alquran itu adalah kerugian</t>
+          <t>launching  ramadhan  tema membangun masyarakat qurani membentuk pribadi pelaku quran kamis</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['jika', 'alquran', 'adalah', 'rahmat', 'bagi', 'orang', 'beriman', 'sebaliknya', 'bagi', 'orang', 'zhalim', 'alquran', 'itu', 'adalah', 'kerugian']</t>
+          <t>['launching', 'ramadhan', 'tema', 'membangun', 'masyarakat', 'qurani', 'membentuk', 'pribadi', 'pelaku', 'quran', 'kamis']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 15 outcomes&gt;</t>
+          <t>['launching', 'ramadan', 'tema', 'membangun', 'masyarakat', 'qurani', 'membentuk', 'pribadi', 'pelaku', 'alquran', 'kamis']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['alquran', 'rahmat', 'orang', 'beriman', 'orang', 'zhalim', 'alquran', 'kerugian']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['alquran', 'rahmat', 'orang', 'iman', 'orang', 'zhalim', 'alquran', 'rugi']</t>
+          <t>['launching', 'ramadan', 'tema', 'membangun', 'masyarakat', 'qurani', 'membentuk', 'pribadi', 'pelaku', 'alquran', 'kamis']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['launching', 'ramadan', 'tema', 'bangun', 'masyarakat', 'quran', 'bentuk', 'pribadi', 'laku', 'alquran', 'kamis']</t>
         </is>
       </c>
     </row>
@@ -3135,34 +3502,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>13280</v>
+        <v>28885</v>
       </c>
       <c r="C76" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>kita tidak akan pernah bisa mendapatkan rahmat allah yang sempurna dari alquran kalau kita belum menjadikan alqu</t>
+          <t xml:space="preserve">dkm aql islamic center mengajak kita mulai bersiap menyambut ramadhan salah satunya dengan menyibukkan diri </t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['kita', 'tidak', 'akan', 'pernah', 'bisa', 'mendapatkan', 'rahmat', 'allah', 'yang', 'sempurna', 'dari', 'alquran', 'kalau', 'kita', 'belum', 'menjadikan', 'alqu']</t>
+          <t>['dkm', 'aql', 'islamic', 'center', 'mengajak', 'kita', 'mulai', 'bersiap', 'menyambut', 'ramadhan', 'salah', 'satunya', 'dengan', 'menyibukkan', 'diri']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['dewan, kemakmuran, masjid', 'aql', 'islamic', 'center', 'mengajak', 'kita', 'mulai', 'bersiap', 'menyambut', 'ramadan', 'salah', 'satunya', 'dengan', 'menyibukkan', 'diri']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['rahmat', 'allah', 'sempurna', 'alquran', 'menjadikan', 'alqu']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['rahmat', 'allah', 'sempurna', 'alquran', 'jadi', 'alqu']</t>
+          <t>['dewan, kemakmuran, masjid', 'aql', 'islamic', 'center', 'mengajak', 'menyambut', 'ramadan', 'salah', 'satunya', 'menyibukkan']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['dewan makmur masjid', 'aql', 'islamic', 'center', 'ajak', 'sambut', 'ramadan', 'salah', 'satu', 'sibuk']</t>
         </is>
       </c>
     </row>
@@ -3171,34 +3543,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>13281</v>
+        <v>28886</v>
       </c>
       <c r="C77" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>tadabbur alquran tematik tema kezhalliman yahudi bersama kh bachtiar nasir kh deden makhyaruddin</t>
+          <t>mqu malam muhasabah munajat alquran tema tadabbur qs alinyirah ayat bersama kh bachtiar nasir</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['tadabbur', 'alquran', 'tematik', 'tema', 'kezhalliman', 'yahudi', 'bersama', 'kh', 'bachtiar', 'nasir', 'kh', 'deden', 'makhyaruddin']</t>
+          <t>['mqu', 'malam', 'muhasabah', 'munajat', 'alquran', 'tema', 'tadabbur', 'qs', 'alinyirah', 'ayat', 'bersama', 'kh', 'bachtiar', 'nasir']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
+          <t>['mqu', 'malam', 'muhasabah', 'munajat', 'alquran', 'tema', 'tadabbur', 'qs', 'alinyirah', 'ayat', 'bersama', 'kh', 'bachtiar', 'nasir']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['tadabbur', 'alquran', 'tematik', 'tema', 'kezhalliman', 'yahudi', 'kh', 'bachtiar', 'nasir', 'kh', 'deden', 'makhyaruddin']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['tadabbur', 'alquran', 'tematik', 'tema', 'kezhalliman', 'yahudi', 'kh', 'bachtiar', 'nasir', 'kh', 'deden', 'makhyaruddin']</t>
+          <t>['mqu', 'malam', 'muhasabah', 'munajat', 'alquran', 'tema', 'tadabbur', 'qs', 'alinyirah', 'ayat', 'kh', 'bachtiar', 'nasir']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['mqu', 'malam', 'muhasabah', 'munajat', 'alquran', 'tema', 'tadabbur', 'qs', 'alinyirah', 'ayat', 'kh', 'bachtiar', 'nasir']</t>
         </is>
       </c>
     </row>
@@ -3207,34 +3584,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>13282</v>
+        <v>28887</v>
       </c>
       <c r="C78" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>mari kita ikuti program imanqu dan berpartisipasi dalam zoom see this instagram photo by</t>
+          <t>siapa saja yang menarasikan medsosnya ataupun ucapannya dengan narasi yang bersumber dari alquran pasti nara</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['mari', 'kita', 'ikuti', 'program', 'imanqu', 'dan', 'berpartisipasi', 'dalam', 'zoom', 'see', 'this', 'instagram', 'photo', 'by']</t>
+          <t>['siapa', 'saja', 'yang', 'menarasikan', 'medsosnya', 'ataupun', 'ucapannya', 'dengan', 'narasi', 'yang', 'bersumber', 'dari', 'alquran', 'pasti', 'nara']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['siapa', 'saja', 'yang', 'menarasikan', 'media, sosialnya', 'ataupun', 'ucapannya', 'dengan', 'narasi', 'yang', 'bersumber', 'dari', 'alquran', 'pasti', 'nara']</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['mari', 'ikuti', 'program', 'imanqu', 'berpartisipasi', 'zoom', 'see', 'this', 'instagram', 'photo', 'by']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['mari', 'ikut', 'program', 'imanqu', 'partisipasi', 'zoom', 'see', 'this', 'instagram', 'photo', 'by']</t>
+          <t>['menarasikan', 'media, sosialnya', 'ucapannya', 'narasi', 'bersumber', 'alquran', 'nara']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['narasi', 'media sosial', 'ucap', 'narasi', 'sumber', 'alquran', 'nara']</t>
         </is>
       </c>
     </row>
@@ -3243,34 +3625,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>13283</v>
+        <v>28888</v>
       </c>
       <c r="C79" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>semua ikatan kumpulan dan persatuan yang tidak terhubung dengan allah swt pasti terpecah belah</t>
+          <t>faktanya di dalam alquran bahwa kesulitan itu merupakan bentuk lain dari kemudahan qs alinsyirah</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['semua', 'ikatan', 'kumpulan', 'dan', 'persatuan', 'yang', 'tidak', 'terhubung', 'dengan', 'allah', 'swt', 'pasti', 'terpecah', 'belah']</t>
+          <t>['faktanya', 'di', 'dalam', 'alquran', 'bahwa', 'kesulitan', 'itu', 'merupakan', 'bentuk', 'lain', 'dari', 'kemudahan', 'qs', 'alinsyirah']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
+          <t>['faktanya', 'di', 'dalam', 'alquran', 'bahwa', 'kesulitan', 'itu', 'merupakan', 'bentuk', 'lain', 'dari', 'kemudahan', 'qs', 'alinsyirah']</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>['ikatan', 'kumpulan', 'persatuan', 'terhubung', 'allah', 'swt', 'terpecah', 'belah']</t>
-        </is>
-      </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['ikat', 'kumpul', 'satu', 'hubung', 'allah', 'swt', 'pecah', 'belah']</t>
+          <t>['faktanya', 'alquran', 'kesulitan', 'bentuk', 'kemudahan', 'qs', 'alinsyirah']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['fakta', 'alquran', 'sulit', 'bentuk', 'mudah', 'qs', 'alinsyirah']</t>
         </is>
       </c>
     </row>
@@ -3279,34 +3666,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>13284</v>
+        <v>28889</v>
       </c>
       <c r="C80" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>perbedaan antara orang beriman dengan orang kufur dalam memperlakukan tali allah orang beriman menjadikan tali te</t>
+          <t>live now mqu malam muhasabah munajat alquran tema dibalik kesulitan ada kemudahan tadabbur qs al</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['perbedaan', 'antara', 'orang', 'beriman', 'dengan', 'orang', 'kufur', 'dalam', 'memperlakukan', 'tali', 'allah', 'orang', 'beriman', 'menjadikan', 'tali', 'te']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'muhasabah', 'munajat', 'alquran', 'tema', 'dibalik', 'kesulitan', 'ada', 'kemudahan', 'tadabbur', 'qs', 'al']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 16 outcomes&gt;</t>
+          <t>['live', 'now', 'mqu', 'malam', 'muhasabah', 'munajat', 'alquran', 'tema', 'dibalik', 'kesulitan', 'ada', 'kemudahan', 'tadabbur', 'qs', 'al']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['perbedaan', 'orang', 'beriman', 'orang', 'kufur', 'memperlakukan', 'tali', 'allah', 'orang', 'beriman', 'menjadikan', 'tali', 'te']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['beda', 'orang', 'iman', 'orang', 'kufur', 'laku', 'tali', 'allah', 'orang', 'iman', 'jadi', 'tali', 'te']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'muhasabah', 'munajat', 'alquran', 'tema', 'dibalik', 'kesulitan', 'kemudahan', 'tadabbur', 'qs', 'al']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['live', 'now', 'mqu', 'malam', 'muhasabah', 'munajat', 'alquran', 'tema', 'balik', 'sulit', 'mudah', 'tadabbur', 'qs', 'al']</t>
         </is>
       </c>
     </row>
@@ -3315,34 +3707,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>13285</v>
+        <v>28890</v>
       </c>
       <c r="C81" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>live now tadabbur mukjizat alquran tema mukjizat sifatsifat alquran al hablu bersama kh bachtiar na</t>
+          <t>kenapa alquran belum begitu terang bagi kita hal itu karena kita belum mengenal alquran sebagai alhaq</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'alquran', 'al', 'hablu', 'bersama', 'kh', 'bachtiar', 'na']</t>
+          <t>['kenapa', 'alquran', 'belum', 'begitu', 'terang', 'bagi', 'kita', 'hal', 'itu', 'karena', 'kita', 'belum', 'mengenal', 'alquran', 'sebagai', 'alhaq']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
+          <t>['kenapa', 'alquran', 'belum', 'begitu', 'terang', 'bagi', 'kita', 'hal', 'itu', 'karena', 'kita', 'belum', 'mengenal', 'alquran', 'sebagai', 'alhaq']</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'alquran', 'al', 'hablu', 'kh', 'bachtiar', 'na']</t>
+          <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'alquran', 'al', 'hablu', 'kh', 'bachtiar', 'na']</t>
+          <t>['alquran', 'terang', 'mengenal', 'alquran', 'alhaq']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['alquran', 'terang', 'kenal', 'alquran', 'alhaq']</t>
         </is>
       </c>
     </row>
@@ -3351,34 +3748,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>13286</v>
+        <v>28891</v>
       </c>
       <c r="C82" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>merespon dan menyikapi peristiwa serta isu terkini nasional maupun internasional dari sudut pandang agama secara me</t>
+          <t>alhaq itu adalah kebenaran yang pasti dan tidak dicampuri sedikitpun oleh keraguan kalau ada sedikit saja keragua</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['merespon', 'dan', 'menyikapi', 'peristiwa', 'serta', 'isu', 'terkini', 'nasional', 'maupun', 'internasional', 'dari', 'sudut', 'pandang', 'agama', 'secara', 'me']</t>
+          <t>['alhaq', 'itu', 'adalah', 'kebenaran', 'yang', 'pasti', 'dan', 'tidak', 'dicampuri', 'sedikitpun', 'oleh', 'keraguan', 'kalau', 'ada', 'sedikit', 'saja', 'keragua']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['alhaq', 'itu', 'adalah', 'kebenaran', 'yang', 'pasti', 'dan', 'tidak', 'dicampuri', 'sedikitpun', 'oleh', 'keraguan', 'kalau', 'ada', 'sedikit', 'saja', 'keragua']</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['merespon', 'menyikapi', 'peristiwa', 'isu', 'terkini', 'nasional', 'internasional', 'sudut', 'pandang', 'agama', 'me']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['merespon', 'sikap', 'peristiwa', 'isu', 'kini', 'nasional', 'internasional', 'sudut', 'pandang', 'agama', 'me']</t>
+          <t>['alhaq', 'kebenaran', 'dicampuri', 'sedikitpun', 'keraguan', 'keragua']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['alhaq', 'benar', 'campur', 'sedikit', 'ragu', 'keragua']</t>
         </is>
       </c>
     </row>
@@ -3387,34 +3789,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>13287</v>
+        <v>28892</v>
       </c>
       <c r="C83" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>mari kita awali hari kita dengan hal yang positif dan bersemangat dengan menyimak kajian kuliah semangat pagi denga</t>
+          <t>live now mqu malam muhasabah munajat alquran tema dibalik kesulitan ada kemudahan tadabbur qs al</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['mari', 'kita', 'awali', 'hari', 'kita', 'dengan', 'hal', 'yang', 'positif', 'dan', 'bersemangat', 'dengan', 'menyimak', 'kajian', 'kuliah', 'semangat', 'pagi', 'denga']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'muhasabah', 'munajat', 'alquran', 'tema', 'dibalik', 'kesulitan', 'ada', 'kemudahan', 'tadabbur', 'qs', 'al']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>['live', 'now', 'mqu', 'malam', 'muhasabah', 'munajat', 'alquran', 'tema', 'dibalik', 'kesulitan', 'ada', 'kemudahan', 'tadabbur', 'qs', 'al']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['mari', 'awali', 'positif', 'bersemangat', 'menyimak', 'kajian', 'kuliah', 'semangat', 'pagi', 'denga']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['mari', 'awal', 'positif', 'semangat', 'simak', 'kaji', 'kuliah', 'semangat', 'pagi', 'denga']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'muhasabah', 'munajat', 'alquran', 'tema', 'dibalik', 'kesulitan', 'kemudahan', 'tadabbur', 'qs', 'al']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['live', 'now', 'mqu', 'malam', 'muhasabah', 'munajat', 'alquran', 'tema', 'balik', 'sulit', 'mudah', 'tadabbur', 'qs', 'al']</t>
         </is>
       </c>
     </row>
@@ -3423,34 +3830,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>13288</v>
+        <v>28893</v>
       </c>
       <c r="C84" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>live now tadabbur mukjizat alquran tema mukjizat sifatsifat al quran arrahmah bersama kh bachtiar</t>
+          <t>jadikan rumah kita menjadi tempat pengabdian kepada allah swt</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'al', 'quran', 'arrahmah', 'bersama', 'kh', 'bachtiar']</t>
+          <t>['jadikan', 'rumah', 'kita', 'menjadi', 'tempat', 'pengabdian', 'kepada', 'allah', 'swt']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['jadikan', 'rumah', 'kita', 'menjadi', 'tempat', 'pengabdian', 'kepada', 'allah', 'subhanahu, wa, taala']</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'al', 'quran', 'arrahmah', 'kh', 'bachtiar']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'al', 'quran', 'arrahmah', 'kh', 'bachtiar']</t>
+          <t>['jadikan', 'rumah', 'pengabdian', 'allah', 'subhanahu, wa, taala']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['jadi', 'rumah', 'abdi', 'allah', 'subhanahu wa taala']</t>
         </is>
       </c>
     </row>
@@ -3459,34 +3871,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>13289</v>
+        <v>28894</v>
       </c>
       <c r="C85" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>tanggapan ubn tentang pidato pelantikan joe biden via</t>
+          <t xml:space="preserve">live now tadabbur alquran tematik tema keistimewaan nabi ibrahim as bersama kh bachtiar nasir kh </t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['tanggapan', 'ubn', 'tentang', 'pidato', 'pelantikan', 'joe', 'biden', 'via']</t>
+          <t>['live', 'now', 'tadabbur', 'alquran', 'tematik', 'tema', 'keistimewaan', 'nabi', 'ibrahim', 'as', 'bersama', 'kh', 'bachtiar', 'nasir', 'kh']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['live', 'now', 'tadabbur', 'alquran', 'tematik', 'tema', 'keistimewaan', 'nabi', 'ibrahim', 'as', 'bersama', 'kh', 'bachtiar', 'nasir', 'kh']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['tanggapan', 'ubn', 'pidato', 'pelantikan', 'joe', 'biden', 'via']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['tanggap', 'ubn', 'pidato', 'lantik', 'joe', 'biden', 'via']</t>
+          <t>['live', 'now', 'tadabbur', 'alquran', 'tematik', 'tema', 'keistimewaan', 'nabi', 'ibrahim', 'as', 'kh', 'bachtiar', 'nasir', 'kh']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['live', 'now', 'tadabbur', 'alquran', 'tematik', 'tema', 'istimewa', 'nabi', 'ibrahim', 'as', 'kh', 'bachtiar', 'nasir', 'kh']</t>
         </is>
       </c>
     </row>
@@ -3495,34 +3912,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>13290</v>
+        <v>28895</v>
       </c>
       <c r="C86" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>kerangka dasar menjadi orang beriman perintah allah yg harus dikerja kan larangan allah yg harus ditingg</t>
+          <t xml:space="preserve">live now tadabbur mukjizat alquran tema mukjizat sifatsifat alquran adzdzikr bersama kh bachtiar </t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['kerangka', 'dasar', 'menjadi', 'orang', 'beriman', 'perintah', 'allah', 'yg', 'harus', 'dikerja', 'kan', 'larangan', 'allah', 'yg', 'harus', 'ditingg']</t>
+          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'alquran', 'adzdzikr', 'bersama', 'kh', 'bachtiar']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
+          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'alquran', 'adzdzikr', 'bersama', 'kh', 'bachtiar']</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['kerangka', 'dasar', 'orang', 'beriman', 'perintah', 'allah', 'dikerja', 'larangan', 'allah', 'ditingg']</t>
+          <t>&lt;FreqDist with 11 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['kerangka', 'dasar', 'orang', 'iman', 'perintah', 'allah', 'kerja', 'larang', 'allah', 'ditingg']</t>
+          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'alquran', 'adzdzikr', 'kh', 'bachtiar']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['live', 'now', 'tadabbur', 'mukjizat', 'alquran', 'tema', 'mukjizat', 'sifatsifat', 'alquran', 'adzdzikr', 'kh', 'bachtiar']</t>
         </is>
       </c>
     </row>
@@ -3531,34 +3953,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>13291</v>
+        <v>28896</v>
       </c>
       <c r="C87" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t xml:space="preserve">mari kita jadikan pagi kita menjadi pagi yang semangat dan positif dengan mengikuti kajian kuliah semangat pagi </t>
+          <t>jejak sejarah mataram islam di jogjakarta</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['mari', 'kita', 'jadikan', 'pagi', 'kita', 'menjadi', 'pagi', 'yang', 'semangat', 'dan', 'positif', 'dengan', 'mengikuti', 'kajian', 'kuliah', 'semangat', 'pagi']</t>
+          <t>['jejak', 'sejarah', 'mataram', 'islam', 'di', 'jogjakarta']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 17 outcomes&gt;</t>
+          <t>['jejak', 'sejarah', 'mataram', 'islam', 'di', 'jogjakarta']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['mari', 'jadikan', 'pagi', 'pagi', 'semangat', 'positif', 'mengikuti', 'kajian', 'kuliah', 'semangat', 'pagi']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['mari', 'jadi', 'pagi', 'pagi', 'semangat', 'positif', 'ikut', 'kaji', 'kuliah', 'semangat', 'pagi']</t>
+          <t>['jejak', 'sejarah', 'mataram', 'islam', 'jogjakarta']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['jejak', 'sejarah', 'mataram', 'islam', 'jogjakarta']</t>
         </is>
       </c>
     </row>
@@ -3567,34 +3994,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>13292</v>
+        <v>28897</v>
       </c>
       <c r="C88" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>seharusnya hukum itu menjadi senjata untuk menegakkan keadilan dan kesejahteraan sosial bukan untuk mengancam yang berbeda</t>
+          <t>sampai kapan kita harus bersabar sampai kedua kaki kita menapak di surga karena bersabar itu berarti menahan diri</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['seharusnya', 'hukum', 'itu', 'menjadi', 'senjata', 'untuk', 'menegakkan', 'keadilan', 'dan', 'kesejahteraan', 'sosial', 'bukan', 'untuk', 'mengancam', 'yang', 'berbeda']</t>
+          <t>['sampai', 'kapan', 'kita', 'harus', 'bersabar', 'sampai', 'kedua', 'kaki', 'kita', 'menapak', 'di', 'surga', 'karena', 'bersabar', 'itu', 'berarti', 'menahan', 'diri']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['sampai', 'kapan', 'kita', 'harus', 'bersabar', 'sampai', 'kedua', 'kaki', 'kita', 'menapak', 'di', 'surga', 'karena', 'bersabar', 'itu', 'berarti', 'menahan', 'diri']</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['hukum', 'senjata', 'menegakkan', 'keadilan', 'kesejahteraan', 'sosial', 'mengancam', 'berbeda']</t>
+          <t>&lt;FreqDist with 15 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['hukum', 'senjata', 'tegak', 'adil', 'sejahtera', 'sosial', 'ancam', 'beda']</t>
+          <t>['bersabar', 'kaki', 'menapak', 'surga', 'bersabar', 'menahan']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['sabar', 'kaki', 'tapak', 'surga', 'sabar', 'tahan']</t>
         </is>
       </c>
     </row>
@@ -3603,34 +4035,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>13293</v>
+        <v>28898</v>
       </c>
       <c r="C89" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>jika kita sudah yakin allah ada allah maha kuasa allah selalu menang allah bisa menolong kita kapan saja insya</t>
+          <t>merampas keadilan membuatmu menjadi orang zhalim dan orang zalim akan berhadapan lansung dengan allah yang maha kua</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['jika', 'kita', 'sudah', 'yakin', 'allah', 'ada', 'allah', 'maha', 'kuasa', 'allah', 'selalu', 'menang', 'allah', 'bisa', 'menolong', 'kita', 'kapan', 'saja', 'insya']</t>
+          <t>['merampas', 'keadilan', 'membuatmu', 'menjadi', 'orang', 'zhalim', 'dan', 'orang', 'zalim', 'akan', 'berhadapan', 'lansung', 'dengan', 'allah', 'yang', 'maha', 'kua']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 19 outcomes&gt;</t>
+          <t>['merampas', 'keadilan', 'membuatmu', 'menjadi', 'orang', 'zalim', 'dan', 'orang', 'zalim', 'akan', 'berhadapan', 'langsung', 'dengan', 'allah', 'yang', 'maha', 'kua']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['allah', 'allah', 'maha', 'kuasa', 'allah', 'menang', 'allah', 'menolong', 'insya']</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['allah', 'allah', 'maha', 'kuasa', 'allah', 'menang', 'allah', 'tolong', 'insya']</t>
+          <t>['merampas', 'keadilan', 'membuatmu', 'orang', 'zalim', 'orang', 'zalim', 'berhadapan', 'langsung', 'allah', 'maha', 'kua']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['rampas', 'adil', 'buat', 'orang', 'zalim', 'orang', 'zalim', 'hadap', 'langsung', 'allah', 'maha', 'kua']</t>
         </is>
       </c>
     </row>
@@ -3639,34 +4076,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>13294</v>
+        <v>28899</v>
       </c>
       <c r="C90" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>live now global dzikir and dua bersama kh bachtiar nasir kh deden makhyaruddin ust ali imran syei</t>
+          <t>pedang keadilan allah pasti akan memenggal leher kezhaliman itu pasti tetapi kapan dimana dan bagaimana berapa</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['live', 'now', 'global', 'dzikir', 'and', 'dua', 'bersama', 'kh', 'bachtiar', 'nasir', 'kh', 'deden', 'makhyaruddin', 'ust', 'ali', 'imran', 'syei']</t>
+          <t>['pedang', 'keadilan', 'allah', 'pasti', 'akan', 'memenggal', 'leher', 'kezhaliman', 'itu', 'pasti', 'tetapi', 'kapan', 'dimana', 'dan', 'bagaimana', 'berapa']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['pedang', 'keadilan', 'allah', 'pasti', 'akan', 'memenggal', 'leher', 'kezhaliman', 'itu', 'pasti', 'tetapi', 'kapan', 'dimana', 'dan', 'bagaimana', 'berapa']</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['live', 'now', 'global', 'dzikir', 'and', 'kh', 'bachtiar', 'nasir', 'kh', 'deden', 'makhyaruddin', 'ust', 'ali', 'imran', 'syei']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['live', 'now', 'global', 'dzikir', 'and', 'kh', 'bachtiar', 'nasir', 'kh', 'deden', 'makhyaruddin', 'ust', 'ali', 'imran', 'syei']</t>
+          <t>['pedang', 'keadilan', 'allah', 'memenggal', 'leher', 'kezhaliman', 'dimana']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['pedang', 'adil', 'allah', 'penggal', 'leher', 'kezhaliman', 'mana']</t>
         </is>
       </c>
     </row>
@@ -3675,34 +4117,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>13295</v>
+        <v>28900</v>
       </c>
       <c r="C91" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>fenomena alam pemicu banyak banjir amp longsor via</t>
+          <t>yuk tadabbur malam ini live now</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['fenomena', 'alam', 'pemicu', 'banyak', 'banjir', 'amp', 'longsor', 'via']</t>
+          <t>['yuk', 'tadabbur', 'malam', 'ini', 'live', 'now']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['yuk', 'tadabbur', 'malam', 'ini', 'live', 'now']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['fenomena', 'alam', 'pemicu', 'banjir', 'longsor', 'via']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['fenomena', 'alam', 'picu', 'banjir', 'longsor', 'via']</t>
+          <t>['yuk', 'tadabbur', 'malam', 'live', 'now']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['yuk', 'tadabbur', 'malam', 'live', 'now']</t>
         </is>
       </c>
     </row>
@@ -3711,34 +4158,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>13296</v>
+        <v>28901</v>
       </c>
       <c r="C92" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>biasanya orang itu dengki dan iri kepada kemewahan atau kehebatan dunia orang lain para wali mengatakan orang yang</t>
+          <t>hikmah dari rihlah ilmiah ke kampung said nursi di barla turki</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['biasanya', 'orang', 'itu', 'dengki', 'dan', 'iri', 'kepada', 'kemewahan', 'atau', 'kehebatan', 'dunia', 'orang', 'lain', 'para', 'wali', 'mengatakan', 'orang', 'yang']</t>
+          <t>['hikmah', 'dari', 'rihlah', 'ilmiah', 'ke', 'kampung', 'said', 'nursi', 'di', 'barla', 'turki']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>['hikmah', 'dari', 'rihlah', 'ilmiah', 'ke', 'kampung', 'said', 'nursi', 'di', 'barla', 'turki']</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['orang', 'dengki', 'iri', 'kemewahan', 'kehebatan', 'dunia', 'orang', 'wali', 'orang']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['orang', 'dengki', 'iri', 'mewah', 'hebat', 'dunia', 'orang', 'wali', 'orang']</t>
+          <t>['hikmah', 'rihlah', 'ilmiah', 'kampung', 'said', 'nursi', 'barla', 'turki']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['hikmah', 'rihlah', 'ilmiah', 'kampung', 'said', 'nursi', 'barla', 'turki']</t>
         </is>
       </c>
     </row>
@@ -3747,34 +4199,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>13297</v>
+        <v>28902</v>
       </c>
       <c r="C93" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>kenapa mushaf alquran itu dimulai dengan alhamdulillahi rabbil aalamiinnn karena semua isi alquran itu adalah nikmat</t>
+          <t>assalamualaikum wr we hari ini jumat yuk kita belajar sunnah nabi</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['kenapa', 'mushaf', 'alquran', 'itu', 'dimulai', 'dengan', 'alhamdulillahi', 'rabbil', 'aalamiinnn', 'karena', 'semua', 'isi', 'alquran', 'itu', 'adalah', 'nikmat']</t>
+          <t>['assalamualaikum', 'wr', 'we', 'hari', 'ini', 'jumat', 'yuk', 'kita', 'belajar', 'sunnah', 'nabi']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
+          <t>['assalamualaikum', 'wr', 'we', 'hari', 'ini', 'jumat', 'yuk', 'kita', 'belajar', 'sunnah', 'nabi']</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['mushaf', 'alquran', 'alhamdulillahi', 'rabbil', 'aalamiinnn', 'isi', 'alquran', 'nikmat']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['mushaf', 'alquran', 'alhamdulillah', 'rabbil', 'aalamiinnn', 'isi', 'alquran', 'nikmat']</t>
+          <t>['assalamualaikum', 'wr', 'we', 'jumat', 'yuk', 'belajar', 'sunnah', 'nabi']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['assalamualaikum', 'wr', 'we', 'jumat', 'yuk', 'ajar', 'sunnah', 'nabi']</t>
         </is>
       </c>
     </row>
@@ -3783,34 +4240,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>13298</v>
+        <v>28903</v>
       </c>
       <c r="C94" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>live now mqu malam musahabah dan munajat quran tema kajian mqu kenikmatan tiada terputus bersama kh</t>
+          <t>malam ini live streaming global dzikir amp dua face hardships with worship bersama ustadz dan imam mancanegara ha</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'tema', 'kajian', 'mqu', 'kenikmatan', 'tiada', 'terputus', 'bersama', 'kh']</t>
+          <t>['malam', 'ini', 'live', 'streaming', 'global', 'dzikir', 'amp', 'dua', 'face', 'hardships', 'with', 'worship', 'bersama', 'ustadz', 'dan', 'imam', 'mancanegara', 'ha']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['malam', 'ini', 'live', 'streaming', 'global', 'zikir', 'amp', 'dua', 'face', 'hardships', 'dengan', 'worship', 'bersama', 'ustaz', 'dan', 'imam', 'mancanegara', 'apa']</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'kajian', 'mqu', 'kenikmatan', 'tiada', 'terputus', 'kh']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'kaji', 'mqu', 'nikmat', 'tiada', 'putus', 'kh']</t>
+          <t>['malam', 'live', 'streaming', 'global', 'zikir', 'face', 'hardships', 'worship', 'ustaz', 'imam', 'mancanegara']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['malam', 'live', 'streaming', 'global', 'zikir', 'face', 'hardships', 'worship', 'ustaz', 'imam', 'mancanegara']</t>
         </is>
       </c>
     </row>
@@ -3819,34 +4281,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>13299</v>
+        <v>28904</v>
       </c>
       <c r="C95" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>amerika tetaplah dengan standar gandanya hanya kepada allah saja kita berharap dan bersandar</t>
+          <t>syarat diterimanya amal lillahi taala mencontoh rasulullah</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['amerika', 'tetaplah', 'dengan', 'standar', 'gandanya', 'hanya', 'kepada', 'allah', 'saja', 'kita', 'berharap', 'dan', 'bersandar']</t>
+          <t>['syarat', 'diterimanya', 'amal', 'lillahi', 'taala', 'mencontoh', 'rasulullah']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['syarat', 'diterimanya', 'amal', 'lillahi', 'taala', 'mencontoh', 'rasulullah']</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['amerika', 'tetaplah', 'standar', 'gandanya', 'allah', 'berharap', 'bersandar']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['amerika', 'tetap', 'standar', 'ganda', 'allah', 'harap', 'sandar']</t>
+          <t>['syarat', 'diterimanya', 'amal', 'lillahi', 'taala', 'mencontoh', 'rasulullah']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['syarat', 'terima', 'amal', 'lillahi', 'taala', 'contoh', 'rasulullah']</t>
         </is>
       </c>
     </row>
@@ -3855,34 +4322,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>13300</v>
+        <v>28905</v>
       </c>
       <c r="C96" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>jika kita melahirkan anak yang menjadi penghamba dunia maka dia akan menjadi pengabdi dunia tetapi jika kita mela</t>
+          <t>live now mqu malam musahabah dan munajat quran tema tadabbur qs al insyirah ayat bukankah aku yang me</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['jika', 'kita', 'melahirkan', 'anak', 'yang', 'menjadi', 'penghamba', 'dunia', 'maka', 'dia', 'akan', 'menjadi', 'pengabdi', 'dunia', 'tetapi', 'jika', 'kita', 'mela']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'tema', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'bukankah', 'aku', 'yang', 'me']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 18 outcomes&gt;</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'alquran', 'tema', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'bukankah', 'aku', 'yang', 'me']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['melahirkan', 'anak', 'penghamba', 'dunia', 'pengabdi', 'dunia', 'mela']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['lahir', 'anak', 'hamba', 'dunia', 'abdi', 'dunia', 'mela']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'alquran', 'tema', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'me']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'alquran', 'tema', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'me']</t>
         </is>
       </c>
     </row>
@@ -3891,34 +4363,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>13301</v>
+        <v>28906</v>
       </c>
       <c r="C97" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t xml:space="preserve">mari kita jadikan pagi kita menjadi pagi yang semangat dan positif dengan mengikuti kajian kuliah semangat pagi </t>
+          <t>bertemu amp bersama orang saleh dapat menghidupkan qalbu</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['mari', 'kita', 'jadikan', 'pagi', 'kita', 'menjadi', 'pagi', 'yang', 'semangat', 'dan', 'positif', 'dengan', 'mengikuti', 'kajian', 'kuliah', 'semangat', 'pagi']</t>
+          <t>['bertemu', 'amp', 'bersama', 'orang', 'saleh', 'dapat', 'menghidupkan', 'qalbu']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 17 outcomes&gt;</t>
+          <t>['bertemu', 'amp', 'bersama', 'orang', 'saleh', 'dapat', 'menghidupkan', 'qalbu']</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>['mari', 'jadikan', 'pagi', 'pagi', 'semangat', 'positif', 'mengikuti', 'kajian', 'kuliah', 'semangat', 'pagi']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['mari', 'jadi', 'pagi', 'pagi', 'semangat', 'positif', 'ikut', 'kaji', 'kuliah', 'semangat', 'pagi']</t>
+          <t>['bertemu', 'orang', 'saleh', 'menghidupkan', 'qalbu']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['temu', 'orang', 'saleh', 'hidup', 'qalbu']</t>
         </is>
       </c>
     </row>
@@ -3927,34 +4404,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>13302</v>
+        <v>28907</v>
       </c>
       <c r="C98" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>live now mqu malam musahabah dan munajat quran tema kami rendahkan ketingkat terendah bersama kh bach</t>
+          <t>live now mqu malam musahabah dan munajat quran tema tadabbur qs al insyirah ayat yang memberatkan pu</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'tema', 'kami', 'rendahkan', 'ketingkat', 'terendah', 'bersama', 'kh', 'bach']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'tema', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'yang', 'memberatkan', 'pu']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'alquran', 'tema', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'yang', 'memberatkan', 'punya']</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'rendahkan', 'ketingkat', 'terendah', 'kh', 'bach']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'tema', 'rendah', 'tingkat', 'rendah', 'kh', 'bach']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'alquran', 'tema', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'memberatkan']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'alquran', 'tema', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'berat']</t>
         </is>
       </c>
     </row>
@@ -3963,34 +4445,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>13303</v>
+        <v>28908</v>
       </c>
       <c r="C99" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>cara pandang yang benar terhadap alam raya menurut alquran adalah bahwa alam raya ini bukanlah benda mati karena</t>
+          <t>amar maruf harus dengan cara yang maruf dan nahi mungkar jangan sampai menimbulkan kemungkaran yang lebih besar</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['cara', 'pandang', 'yang', 'benar', 'terhadap', 'alam', 'raya', 'menurut', 'alquran', 'adalah', 'bahwa', 'alam', 'raya', 'ini', 'bukanlah', 'benda', 'mati', 'karena']</t>
+          <t>['amar', 'maruf', 'harus', 'dengan', 'cara', 'yang', 'maruf', 'dan', 'nahi', 'mungkar', 'jangan', 'sampai', 'menimbulkan', 'kemungkaran', 'yang', 'lebih', 'besar']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>['amar', 'maruf', 'harus', 'dengan', 'cara', 'yang', 'maruf', 'dan', 'nahi', 'mungkar', 'jangan', 'sampai', 'menimbulkan', 'kemungkaran', 'yang', 'lebih', 'besar']</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['pandang', 'alam', 'raya', 'alquran', 'alam', 'raya', 'benda', 'mati']</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['pandang', 'alam', 'raya', 'alquran', 'alam', 'raya', 'benda', 'mati']</t>
+          <t>['amar', 'maruf', 'maruf', 'nahi', 'mungkar', 'menimbulkan', 'kemungkaran']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['amar', 'maruf', 'maruf', 'nahi', 'mungkar', 'timbul', 'mungkar']</t>
         </is>
       </c>
     </row>
@@ -3999,34 +4486,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>13304</v>
+        <v>28909</v>
       </c>
       <c r="C100" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>live now mqu malam musahabah dan munajat quran bersama kh bachtiar nasir kh deden makhyaruddin kaj</t>
+          <t>seringkali kita mundur atau takut untuk menjadi penerus risalah muhammad saw dalam amar maruf nahi munkar khususny</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'bersama', 'kh', 'bachtiar', 'nasir', 'kh', 'deden', 'makhyaruddin', 'kaj']</t>
+          <t>['seringkali', 'kita', 'mundur', 'atau', 'takut', 'untuk', 'menjadi', 'penerus', 'risalah', 'muhammad', 'saw', 'dalam', 'amar', 'maruf', 'nahi', 'munkar', 'khususny']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['seringkali', 'kita', 'mundur', 'atau', 'takut', 'untuk', 'menjadi', 'penerus', 'risalah', 'muhammad', 'saw', 'dalam', 'amar', 'maruf', 'nahi', 'munkar', 'khususny']</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'kh', 'bachtiar', 'nasir', 'kh', 'deden', 'makhyaruddin', 'kaj']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'quran', 'kh', 'bachtiar', 'nasir', 'kh', 'deden', 'makhyaruddin', 'kaj']</t>
+          <t>['seringkali', 'mundur', 'takut', 'penerus', 'risalah', 'muhammad', 'saw', 'amar', 'maruf', 'nahi', 'munkar', 'khususny']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['seringkali', 'mundur', 'takut', 'terus', 'risalah', 'muhammad', 'saw', 'amar', 'maruf', 'nahi', 'munkar', 'khususny']</t>
         </is>
       </c>
     </row>
@@ -4035,34 +4527,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>13305</v>
+        <v>28910</v>
       </c>
       <c r="C101" t="n">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>jelang pelantikan joe biden apa kata ustad bachtiar nasir via</t>
+          <t xml:space="preserve">live now mqu malam musahabah dan munajat quran tema tadabbur qs al insyirah ayat bukankah aku yang </t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['jelang', 'pelantikan', 'joe', 'biden', 'apa', 'kata', 'ustad', 'bachtiar', 'nasir', 'via']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'quran', 'tema', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'bukankah', 'aku', 'yang']</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'dan', 'munajat', 'alquran', 'tema', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat', 'bukankah', 'aku', 'yang']</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>['jelang', 'pelantikan', 'joe', 'biden', 'ustad', 'bachtiar', 'nasir', 'via']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['jelang', 'lantik', 'joe', 'biden', 'ustad', 'bachtiar', 'nasir', 'via']</t>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'alquran', 'tema', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['live', 'now', 'mqu', 'malam', 'musahabah', 'munajat', 'alquran', 'tema', 'tadabbur', 'qs', 'al', 'insyirah', 'ayat']</t>
         </is>
       </c>
     </row>
